--- a/total.xlsx
+++ b/total.xlsx
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -230,9 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,7 +869,11 @@
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="n"/>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
           <t>01.04.2023</t>
@@ -886,8 +887,8 @@
       <c r="E4" s="23" t="n">
         <v>1592</v>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="32" t="n"/>
+      <c r="F4" s="30" t="n"/>
+      <c r="G4" s="31" t="n"/>
       <c r="H4" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -913,7 +914,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M4" s="31" t="n"/>
+      <c r="M4" s="30" t="n"/>
       <c r="N4" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -924,23 +925,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P4" s="31" t="n"/>
-      <c r="Q4" s="31" t="n"/>
+      <c r="P4" s="30" t="n"/>
+      <c r="Q4" s="30" t="n"/>
       <c r="R4" s="25" t="n">
         <v>34.3</v>
       </c>
-      <c r="S4" s="31" t="n"/>
-      <c r="T4" s="31" t="n"/>
-      <c r="U4" s="31" t="n"/>
-      <c r="V4" s="31" t="n"/>
-      <c r="W4" s="31" t="n"/>
-      <c r="X4" s="31" t="n"/>
+      <c r="S4" s="30" t="n"/>
+      <c r="T4" s="30" t="n"/>
+      <c r="U4" s="30" t="n"/>
+      <c r="V4" s="30" t="n"/>
+      <c r="W4" s="30" t="n"/>
+      <c r="X4" s="30" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="n"/>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
           <t>01.04.2023</t>
@@ -954,8 +959,8 @@
       <c r="E5" s="23" t="n">
         <v>1591</v>
       </c>
-      <c r="F5" s="31" t="n"/>
-      <c r="G5" s="32" t="n"/>
+      <c r="F5" s="30" t="n"/>
+      <c r="G5" s="31" t="n"/>
       <c r="H5" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -981,7 +986,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M5" s="31" t="n"/>
+      <c r="M5" s="30" t="n"/>
       <c r="N5" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -992,23 +997,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P5" s="31" t="n"/>
-      <c r="Q5" s="31" t="n"/>
+      <c r="P5" s="30" t="n"/>
+      <c r="Q5" s="30" t="n"/>
       <c r="R5" s="25" t="n">
         <v>40.88</v>
       </c>
-      <c r="S5" s="31" t="n"/>
-      <c r="T5" s="31" t="n"/>
-      <c r="U5" s="31" t="n"/>
-      <c r="V5" s="31" t="n"/>
-      <c r="W5" s="31" t="n"/>
-      <c r="X5" s="31" t="n"/>
+      <c r="S5" s="30" t="n"/>
+      <c r="T5" s="30" t="n"/>
+      <c r="U5" s="30" t="n"/>
+      <c r="V5" s="30" t="n"/>
+      <c r="W5" s="30" t="n"/>
+      <c r="X5" s="30" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="n"/>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>01.04.2023</t>
@@ -1027,7 +1036,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G6" s="32" t="n"/>
+      <c r="G6" s="31" t="n"/>
       <c r="H6" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -1081,18 +1090,22 @@
       <c r="R6" s="25" t="n">
         <v>31.98</v>
       </c>
-      <c r="S6" s="31" t="n"/>
-      <c r="T6" s="31" t="n"/>
-      <c r="U6" s="31" t="n"/>
-      <c r="V6" s="31" t="n"/>
-      <c r="W6" s="31" t="n"/>
-      <c r="X6" s="31" t="n"/>
+      <c r="S6" s="30" t="n"/>
+      <c r="T6" s="30" t="n"/>
+      <c r="U6" s="30" t="n"/>
+      <c r="V6" s="30" t="n"/>
+      <c r="W6" s="30" t="n"/>
+      <c r="X6" s="30" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="n"/>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1106,8 +1119,8 @@
       <c r="E7" s="23" t="n">
         <v>1617</v>
       </c>
-      <c r="F7" s="31" t="n"/>
-      <c r="G7" s="32" t="n"/>
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="31" t="n"/>
       <c r="H7" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1133,7 +1146,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M7" s="31" t="n"/>
+      <c r="M7" s="30" t="n"/>
       <c r="N7" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -1144,23 +1157,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P7" s="31" t="n"/>
-      <c r="Q7" s="31" t="n"/>
+      <c r="P7" s="30" t="n"/>
+      <c r="Q7" s="30" t="n"/>
       <c r="R7" s="25" t="n">
         <v>35.57</v>
       </c>
-      <c r="S7" s="31" t="n"/>
-      <c r="T7" s="31" t="n"/>
-      <c r="U7" s="31" t="n"/>
-      <c r="V7" s="31" t="n"/>
-      <c r="W7" s="31" t="n"/>
-      <c r="X7" s="31" t="n"/>
+      <c r="S7" s="30" t="n"/>
+      <c r="T7" s="30" t="n"/>
+      <c r="U7" s="30" t="n"/>
+      <c r="V7" s="30" t="n"/>
+      <c r="W7" s="30" t="n"/>
+      <c r="X7" s="30" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="n"/>
+      <c r="B8" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1174,8 +1191,8 @@
       <c r="E8" s="23" t="n">
         <v>1616</v>
       </c>
-      <c r="F8" s="31" t="n"/>
-      <c r="G8" s="32" t="n"/>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="31" t="n"/>
       <c r="H8" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1201,7 +1218,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M8" s="31" t="n"/>
+      <c r="M8" s="30" t="n"/>
       <c r="N8" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -1212,23 +1229,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P8" s="31" t="n"/>
-      <c r="Q8" s="31" t="n"/>
+      <c r="P8" s="30" t="n"/>
+      <c r="Q8" s="30" t="n"/>
       <c r="R8" s="25" t="n">
         <v>39.4</v>
       </c>
-      <c r="S8" s="31" t="n"/>
-      <c r="T8" s="31" t="n"/>
-      <c r="U8" s="31" t="n"/>
-      <c r="V8" s="31" t="n"/>
-      <c r="W8" s="31" t="n"/>
-      <c r="X8" s="31" t="n"/>
+      <c r="S8" s="30" t="n"/>
+      <c r="T8" s="30" t="n"/>
+      <c r="U8" s="30" t="n"/>
+      <c r="V8" s="30" t="n"/>
+      <c r="W8" s="30" t="n"/>
+      <c r="X8" s="30" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="30" t="n"/>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1242,8 +1263,8 @@
       <c r="E9" s="23" t="n">
         <v>1615</v>
       </c>
-      <c r="F9" s="31" t="n"/>
-      <c r="G9" s="32" t="n"/>
+      <c r="F9" s="30" t="n"/>
+      <c r="G9" s="31" t="n"/>
       <c r="H9" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1269,7 +1290,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M9" s="31" t="n"/>
+      <c r="M9" s="30" t="n"/>
       <c r="N9" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -1280,23 +1301,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P9" s="31" t="n"/>
-      <c r="Q9" s="31" t="n"/>
+      <c r="P9" s="30" t="n"/>
+      <c r="Q9" s="30" t="n"/>
       <c r="R9" s="25" t="n">
         <v>36.68</v>
       </c>
-      <c r="S9" s="31" t="n"/>
-      <c r="T9" s="31" t="n"/>
-      <c r="U9" s="31" t="n"/>
-      <c r="V9" s="31" t="n"/>
-      <c r="W9" s="31" t="n"/>
-      <c r="X9" s="31" t="n"/>
+      <c r="S9" s="30" t="n"/>
+      <c r="T9" s="30" t="n"/>
+      <c r="U9" s="30" t="n"/>
+      <c r="V9" s="30" t="n"/>
+      <c r="W9" s="30" t="n"/>
+      <c r="X9" s="30" t="n"/>
     </row>
     <row r="10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="n"/>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1310,8 +1335,8 @@
       <c r="E10" s="23" t="n">
         <v>1604</v>
       </c>
-      <c r="F10" s="31" t="n"/>
-      <c r="G10" s="32" t="n"/>
+      <c r="F10" s="30" t="n"/>
+      <c r="G10" s="31" t="n"/>
       <c r="H10" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1337,7 +1362,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" s="31" t="n"/>
+      <c r="M10" s="30" t="n"/>
       <c r="N10" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -1348,23 +1373,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P10" s="31" t="n"/>
-      <c r="Q10" s="31" t="n"/>
+      <c r="P10" s="30" t="n"/>
+      <c r="Q10" s="30" t="n"/>
       <c r="R10" s="25" t="n">
         <v>40.04</v>
       </c>
-      <c r="S10" s="31" t="n"/>
-      <c r="T10" s="31" t="n"/>
-      <c r="U10" s="31" t="n"/>
-      <c r="V10" s="31" t="n"/>
-      <c r="W10" s="31" t="n"/>
-      <c r="X10" s="31" t="n"/>
+      <c r="S10" s="30" t="n"/>
+      <c r="T10" s="30" t="n"/>
+      <c r="U10" s="30" t="n"/>
+      <c r="V10" s="30" t="n"/>
+      <c r="W10" s="30" t="n"/>
+      <c r="X10" s="30" t="n"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="n"/>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1378,8 +1407,8 @@
       <c r="E11" s="23" t="n">
         <v>1599</v>
       </c>
-      <c r="F11" s="31" t="n"/>
-      <c r="G11" s="32" t="n"/>
+      <c r="F11" s="30" t="n"/>
+      <c r="G11" s="31" t="n"/>
       <c r="H11" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1405,7 +1434,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" s="31" t="n"/>
+      <c r="M11" s="30" t="n"/>
       <c r="N11" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -1416,23 +1445,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P11" s="31" t="n"/>
-      <c r="Q11" s="31" t="n"/>
+      <c r="P11" s="30" t="n"/>
+      <c r="Q11" s="30" t="n"/>
       <c r="R11" s="25" t="n">
         <v>34.52</v>
       </c>
-      <c r="S11" s="31" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="31" t="n"/>
-      <c r="V11" s="31" t="n"/>
-      <c r="W11" s="31" t="n"/>
-      <c r="X11" s="31" t="n"/>
+      <c r="S11" s="30" t="n"/>
+      <c r="T11" s="30" t="n"/>
+      <c r="U11" s="30" t="n"/>
+      <c r="V11" s="30" t="n"/>
+      <c r="W11" s="30" t="n"/>
+      <c r="X11" s="30" t="n"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="n"/>
+      <c r="B12" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1446,8 +1479,8 @@
       <c r="E12" s="23" t="n">
         <v>1598</v>
       </c>
-      <c r="F12" s="31" t="n"/>
-      <c r="G12" s="32" t="n"/>
+      <c r="F12" s="30" t="n"/>
+      <c r="G12" s="31" t="n"/>
       <c r="H12" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1473,7 +1506,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n"/>
+      <c r="M12" s="30" t="n"/>
       <c r="N12" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -1484,23 +1517,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P12" s="31" t="n"/>
-      <c r="Q12" s="31" t="n"/>
+      <c r="P12" s="30" t="n"/>
+      <c r="Q12" s="30" t="n"/>
       <c r="R12" s="25" t="n">
         <v>35.59</v>
       </c>
-      <c r="S12" s="31" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="31" t="n"/>
-      <c r="V12" s="31" t="n"/>
-      <c r="W12" s="31" t="n"/>
-      <c r="X12" s="31" t="n"/>
+      <c r="S12" s="30" t="n"/>
+      <c r="T12" s="30" t="n"/>
+      <c r="U12" s="30" t="n"/>
+      <c r="V12" s="30" t="n"/>
+      <c r="W12" s="30" t="n"/>
+      <c r="X12" s="30" t="n"/>
     </row>
     <row r="13" ht="13.5" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="n"/>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1514,8 +1551,8 @@
       <c r="E13" s="23" t="n">
         <v>1618</v>
       </c>
-      <c r="F13" s="31" t="n"/>
-      <c r="G13" s="32" t="n"/>
+      <c r="F13" s="30" t="n"/>
+      <c r="G13" s="31" t="n"/>
       <c r="H13" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1541,7 +1578,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M13" s="31" t="n"/>
+      <c r="M13" s="30" t="n"/>
       <c r="N13" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -1552,23 +1589,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P13" s="31" t="n"/>
-      <c r="Q13" s="31" t="n"/>
+      <c r="P13" s="30" t="n"/>
+      <c r="Q13" s="30" t="n"/>
       <c r="R13" s="25" t="n">
         <v>40.08</v>
       </c>
-      <c r="S13" s="31" t="n"/>
-      <c r="T13" s="31" t="n"/>
-      <c r="U13" s="31" t="n"/>
-      <c r="V13" s="31" t="n"/>
-      <c r="W13" s="31" t="n"/>
-      <c r="X13" s="31" t="n"/>
+      <c r="S13" s="30" t="n"/>
+      <c r="T13" s="30" t="n"/>
+      <c r="U13" s="30" t="n"/>
+      <c r="V13" s="30" t="n"/>
+      <c r="W13" s="30" t="n"/>
+      <c r="X13" s="30" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="30" t="n"/>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1582,8 +1623,8 @@
       <c r="E14" s="23" t="n">
         <v>1608</v>
       </c>
-      <c r="F14" s="31" t="n"/>
-      <c r="G14" s="32" t="n"/>
+      <c r="F14" s="30" t="n"/>
+      <c r="G14" s="31" t="n"/>
       <c r="H14" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1609,7 +1650,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M14" s="31" t="n"/>
+      <c r="M14" s="30" t="n"/>
       <c r="N14" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -1620,23 +1661,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P14" s="31" t="n"/>
-      <c r="Q14" s="31" t="n"/>
+      <c r="P14" s="30" t="n"/>
+      <c r="Q14" s="30" t="n"/>
       <c r="R14" s="25" t="n">
         <v>36.5</v>
       </c>
-      <c r="S14" s="31" t="n"/>
-      <c r="T14" s="31" t="n"/>
-      <c r="U14" s="31" t="n"/>
-      <c r="V14" s="31" t="n"/>
-      <c r="W14" s="31" t="n"/>
-      <c r="X14" s="31" t="n"/>
+      <c r="S14" s="30" t="n"/>
+      <c r="T14" s="30" t="n"/>
+      <c r="U14" s="30" t="n"/>
+      <c r="V14" s="30" t="n"/>
+      <c r="W14" s="30" t="n"/>
+      <c r="X14" s="30" t="n"/>
     </row>
     <row r="15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="30" t="n"/>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
           <t>02.04.2023</t>
@@ -1655,7 +1700,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" s="32" t="n"/>
+      <c r="G15" s="31" t="n"/>
       <c r="H15" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -1709,18 +1754,22 @@
       <c r="R15" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="S15" s="31" t="n"/>
-      <c r="T15" s="31" t="n"/>
-      <c r="U15" s="31" t="n"/>
-      <c r="V15" s="31" t="n"/>
-      <c r="W15" s="31" t="n"/>
-      <c r="X15" s="31" t="n"/>
+      <c r="S15" s="30" t="n"/>
+      <c r="T15" s="30" t="n"/>
+      <c r="U15" s="30" t="n"/>
+      <c r="V15" s="30" t="n"/>
+      <c r="W15" s="30" t="n"/>
+      <c r="X15" s="30" t="n"/>
     </row>
     <row r="16" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="n"/>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
           <t>03.04.2023</t>
@@ -1734,8 +1783,8 @@
       <c r="E16" s="23" t="n">
         <v>1626</v>
       </c>
-      <c r="F16" s="31" t="n"/>
-      <c r="G16" s="32" t="n"/>
+      <c r="F16" s="30" t="n"/>
+      <c r="G16" s="31" t="n"/>
       <c r="H16" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1761,7 +1810,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M16" s="31" t="n"/>
+      <c r="M16" s="30" t="n"/>
       <c r="N16" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -1772,23 +1821,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P16" s="31" t="n"/>
-      <c r="Q16" s="31" t="n"/>
+      <c r="P16" s="30" t="n"/>
+      <c r="Q16" s="30" t="n"/>
       <c r="R16" s="25" t="n">
         <v>42.25</v>
       </c>
-      <c r="S16" s="31" t="n"/>
-      <c r="T16" s="31" t="n"/>
-      <c r="U16" s="31" t="n"/>
-      <c r="V16" s="31" t="n"/>
-      <c r="W16" s="31" t="n"/>
-      <c r="X16" s="31" t="n"/>
+      <c r="S16" s="30" t="n"/>
+      <c r="T16" s="30" t="n"/>
+      <c r="U16" s="30" t="n"/>
+      <c r="V16" s="30" t="n"/>
+      <c r="W16" s="30" t="n"/>
+      <c r="X16" s="30" t="n"/>
     </row>
     <row r="17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="30" t="n"/>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
           <t>03.04.2023</t>
@@ -1802,8 +1855,8 @@
       <c r="E17" s="23" t="n">
         <v>1631</v>
       </c>
-      <c r="F17" s="31" t="n"/>
-      <c r="G17" s="32" t="n"/>
+      <c r="F17" s="30" t="n"/>
+      <c r="G17" s="31" t="n"/>
       <c r="H17" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1829,7 +1882,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M17" s="31" t="n"/>
+      <c r="M17" s="30" t="n"/>
       <c r="N17" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -1840,23 +1893,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P17" s="31" t="n"/>
-      <c r="Q17" s="31" t="n"/>
+      <c r="P17" s="30" t="n"/>
+      <c r="Q17" s="30" t="n"/>
       <c r="R17" s="25" t="n">
         <v>41.99</v>
       </c>
-      <c r="S17" s="31" t="n"/>
-      <c r="T17" s="31" t="n"/>
-      <c r="U17" s="31" t="n"/>
-      <c r="V17" s="31" t="n"/>
-      <c r="W17" s="31" t="n"/>
-      <c r="X17" s="31" t="n"/>
+      <c r="S17" s="30" t="n"/>
+      <c r="T17" s="30" t="n"/>
+      <c r="U17" s="30" t="n"/>
+      <c r="V17" s="30" t="n"/>
+      <c r="W17" s="30" t="n"/>
+      <c r="X17" s="30" t="n"/>
     </row>
     <row r="18" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="30" t="n"/>
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -1870,8 +1927,8 @@
       <c r="E18" s="23" t="n">
         <v>1641</v>
       </c>
-      <c r="F18" s="31" t="n"/>
-      <c r="G18" s="32" t="n"/>
+      <c r="F18" s="30" t="n"/>
+      <c r="G18" s="31" t="n"/>
       <c r="H18" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1897,7 +1954,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M18" s="31" t="n"/>
+      <c r="M18" s="30" t="n"/>
       <c r="N18" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -1908,23 +1965,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P18" s="31" t="n"/>
-      <c r="Q18" s="31" t="n"/>
+      <c r="P18" s="30" t="n"/>
+      <c r="Q18" s="30" t="n"/>
       <c r="R18" s="25" t="n">
         <v>41.49</v>
       </c>
-      <c r="S18" s="31" t="n"/>
-      <c r="T18" s="31" t="n"/>
-      <c r="U18" s="31" t="n"/>
-      <c r="V18" s="31" t="n"/>
-      <c r="W18" s="31" t="n"/>
-      <c r="X18" s="31" t="n"/>
+      <c r="S18" s="30" t="n"/>
+      <c r="T18" s="30" t="n"/>
+      <c r="U18" s="30" t="n"/>
+      <c r="V18" s="30" t="n"/>
+      <c r="W18" s="30" t="n"/>
+      <c r="X18" s="30" t="n"/>
     </row>
     <row r="19" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="30" t="n"/>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -1938,8 +1999,8 @@
       <c r="E19" s="23" t="n">
         <v>1640</v>
       </c>
-      <c r="F19" s="31" t="n"/>
-      <c r="G19" s="32" t="n"/>
+      <c r="F19" s="30" t="n"/>
+      <c r="G19" s="31" t="n"/>
       <c r="H19" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1965,7 +2026,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M19" s="31" t="n"/>
+      <c r="M19" s="30" t="n"/>
       <c r="N19" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -1976,23 +2037,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P19" s="31" t="n"/>
-      <c r="Q19" s="31" t="n"/>
+      <c r="P19" s="30" t="n"/>
+      <c r="Q19" s="30" t="n"/>
       <c r="R19" s="25" t="n">
         <v>35.09</v>
       </c>
-      <c r="S19" s="31" t="n"/>
-      <c r="T19" s="31" t="n"/>
-      <c r="U19" s="31" t="n"/>
-      <c r="V19" s="31" t="n"/>
-      <c r="W19" s="31" t="n"/>
-      <c r="X19" s="31" t="n"/>
+      <c r="S19" s="30" t="n"/>
+      <c r="T19" s="30" t="n"/>
+      <c r="U19" s="30" t="n"/>
+      <c r="V19" s="30" t="n"/>
+      <c r="W19" s="30" t="n"/>
+      <c r="X19" s="30" t="n"/>
     </row>
     <row r="20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="30" t="n"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2006,8 +2071,8 @@
       <c r="E20" s="23" t="n">
         <v>1654</v>
       </c>
-      <c r="F20" s="31" t="n"/>
-      <c r="G20" s="32" t="n"/>
+      <c r="F20" s="30" t="n"/>
+      <c r="G20" s="31" t="n"/>
       <c r="H20" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2033,7 +2098,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M20" s="31" t="n"/>
+      <c r="M20" s="30" t="n"/>
       <c r="N20" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -2044,23 +2109,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P20" s="31" t="n"/>
-      <c r="Q20" s="31" t="n"/>
+      <c r="P20" s="30" t="n"/>
+      <c r="Q20" s="30" t="n"/>
       <c r="R20" s="25" t="n">
         <v>37.53</v>
       </c>
-      <c r="S20" s="31" t="n"/>
-      <c r="T20" s="31" t="n"/>
-      <c r="U20" s="31" t="n"/>
-      <c r="V20" s="31" t="n"/>
-      <c r="W20" s="31" t="n"/>
-      <c r="X20" s="31" t="n"/>
+      <c r="S20" s="30" t="n"/>
+      <c r="T20" s="30" t="n"/>
+      <c r="U20" s="30" t="n"/>
+      <c r="V20" s="30" t="n"/>
+      <c r="W20" s="30" t="n"/>
+      <c r="X20" s="30" t="n"/>
     </row>
     <row r="21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="30" t="n"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2076,8 +2145,8 @@
           <t>04042023/1</t>
         </is>
       </c>
-      <c r="F21" s="31" t="n"/>
-      <c r="G21" s="32" t="n"/>
+      <c r="F21" s="30" t="n"/>
+      <c r="G21" s="31" t="n"/>
       <c r="H21" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2103,7 +2172,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M21" s="31" t="n"/>
+      <c r="M21" s="30" t="n"/>
       <c r="N21" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 1"</t>
@@ -2114,7 +2183,7 @@
           <t>ООО "Контрагент № 1"</t>
         </is>
       </c>
-      <c r="P21" s="31" t="n"/>
+      <c r="P21" s="30" t="n"/>
       <c r="Q21" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2123,18 +2192,22 @@
       <c r="R21" s="25" t="n">
         <v>42.05</v>
       </c>
-      <c r="S21" s="31" t="n"/>
-      <c r="T21" s="31" t="n"/>
-      <c r="U21" s="31" t="n"/>
-      <c r="V21" s="31" t="n"/>
-      <c r="W21" s="31" t="n"/>
-      <c r="X21" s="31" t="n"/>
+      <c r="S21" s="30" t="n"/>
+      <c r="T21" s="30" t="n"/>
+      <c r="U21" s="30" t="n"/>
+      <c r="V21" s="30" t="n"/>
+      <c r="W21" s="30" t="n"/>
+      <c r="X21" s="30" t="n"/>
     </row>
     <row r="22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="n"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2150,8 +2223,8 @@
           <t>04042023/5</t>
         </is>
       </c>
-      <c r="F22" s="31" t="n"/>
-      <c r="G22" s="32" t="n"/>
+      <c r="F22" s="30" t="n"/>
+      <c r="G22" s="31" t="n"/>
       <c r="H22" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2177,7 +2250,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M22" s="31" t="n"/>
+      <c r="M22" s="30" t="n"/>
       <c r="N22" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 1"</t>
@@ -2188,7 +2261,7 @@
           <t>ООО "Контрагент № 1"</t>
         </is>
       </c>
-      <c r="P22" s="31" t="n"/>
+      <c r="P22" s="30" t="n"/>
       <c r="Q22" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2197,18 +2270,22 @@
       <c r="R22" s="25" t="n">
         <v>41.45</v>
       </c>
-      <c r="S22" s="31" t="n"/>
-      <c r="T22" s="31" t="n"/>
-      <c r="U22" s="31" t="n"/>
-      <c r="V22" s="31" t="n"/>
-      <c r="W22" s="31" t="n"/>
-      <c r="X22" s="31" t="n"/>
+      <c r="S22" s="30" t="n"/>
+      <c r="T22" s="30" t="n"/>
+      <c r="U22" s="30" t="n"/>
+      <c r="V22" s="30" t="n"/>
+      <c r="W22" s="30" t="n"/>
+      <c r="X22" s="30" t="n"/>
     </row>
     <row r="23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="30" t="n"/>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2224,8 +2301,8 @@
           <t>04042023/4</t>
         </is>
       </c>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="32" t="n"/>
+      <c r="F23" s="30" t="n"/>
+      <c r="G23" s="31" t="n"/>
       <c r="H23" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2251,7 +2328,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M23" s="31" t="n"/>
+      <c r="M23" s="30" t="n"/>
       <c r="N23" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -2262,7 +2339,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P23" s="31" t="n"/>
+      <c r="P23" s="30" t="n"/>
       <c r="Q23" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2271,18 +2348,22 @@
       <c r="R23" s="25" t="n">
         <v>38.55</v>
       </c>
-      <c r="S23" s="31" t="n"/>
-      <c r="T23" s="31" t="n"/>
-      <c r="U23" s="31" t="n"/>
-      <c r="V23" s="31" t="n"/>
-      <c r="W23" s="31" t="n"/>
-      <c r="X23" s="31" t="n"/>
+      <c r="S23" s="30" t="n"/>
+      <c r="T23" s="30" t="n"/>
+      <c r="U23" s="30" t="n"/>
+      <c r="V23" s="30" t="n"/>
+      <c r="W23" s="30" t="n"/>
+      <c r="X23" s="30" t="n"/>
     </row>
     <row r="24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="30" t="n"/>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2298,8 +2379,8 @@
           <t>04042023/3</t>
         </is>
       </c>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="32" t="n"/>
+      <c r="F24" s="30" t="n"/>
+      <c r="G24" s="31" t="n"/>
       <c r="H24" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2325,7 +2406,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M24" s="31" t="n"/>
+      <c r="M24" s="30" t="n"/>
       <c r="N24" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -2336,7 +2417,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P24" s="31" t="n"/>
+      <c r="P24" s="30" t="n"/>
       <c r="Q24" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2345,18 +2426,22 @@
       <c r="R24" s="25" t="n">
         <v>39.25</v>
       </c>
-      <c r="S24" s="31" t="n"/>
-      <c r="T24" s="31" t="n"/>
-      <c r="U24" s="31" t="n"/>
-      <c r="V24" s="31" t="n"/>
-      <c r="W24" s="31" t="n"/>
-      <c r="X24" s="31" t="n"/>
+      <c r="S24" s="30" t="n"/>
+      <c r="T24" s="30" t="n"/>
+      <c r="U24" s="30" t="n"/>
+      <c r="V24" s="30" t="n"/>
+      <c r="W24" s="30" t="n"/>
+      <c r="X24" s="30" t="n"/>
     </row>
     <row r="25" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="30" t="n"/>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>04.04.2023</t>
@@ -2372,8 +2457,8 @@
           <t>04042023/2</t>
         </is>
       </c>
-      <c r="F25" s="31" t="n"/>
-      <c r="G25" s="32" t="n"/>
+      <c r="F25" s="30" t="n"/>
+      <c r="G25" s="31" t="n"/>
       <c r="H25" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2399,7 +2484,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="31" t="n"/>
+      <c r="M25" s="30" t="n"/>
       <c r="N25" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 2"</t>
@@ -2410,7 +2495,7 @@
           <t>ООО "Контрагент № 2"</t>
         </is>
       </c>
-      <c r="P25" s="31" t="n"/>
+      <c r="P25" s="30" t="n"/>
       <c r="Q25" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2419,18 +2504,22 @@
       <c r="R25" s="25" t="n">
         <v>35.9</v>
       </c>
-      <c r="S25" s="31" t="n"/>
-      <c r="T25" s="31" t="n"/>
-      <c r="U25" s="31" t="n"/>
-      <c r="V25" s="31" t="n"/>
-      <c r="W25" s="31" t="n"/>
-      <c r="X25" s="31" t="n"/>
+      <c r="S25" s="30" t="n"/>
+      <c r="T25" s="30" t="n"/>
+      <c r="U25" s="30" t="n"/>
+      <c r="V25" s="30" t="n"/>
+      <c r="W25" s="30" t="n"/>
+      <c r="X25" s="30" t="n"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="30" t="n"/>
+      <c r="B26" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2446,8 +2535,8 @@
           <t>05042023/1</t>
         </is>
       </c>
-      <c r="F26" s="31" t="n"/>
-      <c r="G26" s="32" t="n"/>
+      <c r="F26" s="30" t="n"/>
+      <c r="G26" s="31" t="n"/>
       <c r="H26" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2473,7 +2562,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M26" s="31" t="n"/>
+      <c r="M26" s="30" t="n"/>
       <c r="N26" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -2484,7 +2573,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P26" s="31" t="n"/>
+      <c r="P26" s="30" t="n"/>
       <c r="Q26" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2493,18 +2582,22 @@
       <c r="R26" s="25" t="n">
         <v>39.35</v>
       </c>
-      <c r="S26" s="31" t="n"/>
-      <c r="T26" s="31" t="n"/>
-      <c r="U26" s="31" t="n"/>
-      <c r="V26" s="31" t="n"/>
-      <c r="W26" s="31" t="n"/>
-      <c r="X26" s="31" t="n"/>
+      <c r="S26" s="30" t="n"/>
+      <c r="T26" s="30" t="n"/>
+      <c r="U26" s="30" t="n"/>
+      <c r="V26" s="30" t="n"/>
+      <c r="W26" s="30" t="n"/>
+      <c r="X26" s="30" t="n"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="30" t="n"/>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2520,8 +2613,8 @@
           <t>05042023/2</t>
         </is>
       </c>
-      <c r="F27" s="31" t="n"/>
-      <c r="G27" s="32" t="n"/>
+      <c r="F27" s="30" t="n"/>
+      <c r="G27" s="31" t="n"/>
       <c r="H27" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2547,7 +2640,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M27" s="31" t="n"/>
+      <c r="M27" s="30" t="n"/>
       <c r="N27" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -2558,7 +2651,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P27" s="31" t="n"/>
+      <c r="P27" s="30" t="n"/>
       <c r="Q27" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -2567,18 +2660,22 @@
       <c r="R27" s="25" t="n">
         <v>39.2</v>
       </c>
-      <c r="S27" s="31" t="n"/>
-      <c r="T27" s="31" t="n"/>
-      <c r="U27" s="31" t="n"/>
-      <c r="V27" s="31" t="n"/>
-      <c r="W27" s="31" t="n"/>
-      <c r="X27" s="31" t="n"/>
+      <c r="S27" s="30" t="n"/>
+      <c r="T27" s="30" t="n"/>
+      <c r="U27" s="30" t="n"/>
+      <c r="V27" s="30" t="n"/>
+      <c r="W27" s="30" t="n"/>
+      <c r="X27" s="30" t="n"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="n"/>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2592,8 +2689,8 @@
       <c r="E28" s="23" t="n">
         <v>1669</v>
       </c>
-      <c r="F28" s="31" t="n"/>
-      <c r="G28" s="32" t="n"/>
+      <c r="F28" s="30" t="n"/>
+      <c r="G28" s="31" t="n"/>
       <c r="H28" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2619,7 +2716,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M28" s="31" t="n"/>
+      <c r="M28" s="30" t="n"/>
       <c r="N28" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -2630,23 +2727,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P28" s="31" t="n"/>
-      <c r="Q28" s="31" t="n"/>
+      <c r="P28" s="30" t="n"/>
+      <c r="Q28" s="30" t="n"/>
       <c r="R28" s="25" t="n">
         <v>40.2</v>
       </c>
-      <c r="S28" s="31" t="n"/>
-      <c r="T28" s="31" t="n"/>
-      <c r="U28" s="31" t="n"/>
-      <c r="V28" s="31" t="n"/>
-      <c r="W28" s="31" t="n"/>
-      <c r="X28" s="31" t="n"/>
+      <c r="S28" s="30" t="n"/>
+      <c r="T28" s="30" t="n"/>
+      <c r="U28" s="30" t="n"/>
+      <c r="V28" s="30" t="n"/>
+      <c r="W28" s="30" t="n"/>
+      <c r="X28" s="30" t="n"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="30" t="n"/>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2665,7 +2766,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G29" s="32" t="n"/>
+      <c r="G29" s="31" t="n"/>
       <c r="H29" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -2719,18 +2820,22 @@
       <c r="R29" s="25" t="n">
         <v>31.26</v>
       </c>
-      <c r="S29" s="31" t="n"/>
-      <c r="T29" s="31" t="n"/>
-      <c r="U29" s="31" t="n"/>
-      <c r="V29" s="31" t="n"/>
-      <c r="W29" s="31" t="n"/>
-      <c r="X29" s="31" t="n"/>
+      <c r="S29" s="30" t="n"/>
+      <c r="T29" s="30" t="n"/>
+      <c r="U29" s="30" t="n"/>
+      <c r="V29" s="30" t="n"/>
+      <c r="W29" s="30" t="n"/>
+      <c r="X29" s="30" t="n"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="30" t="n"/>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2749,7 +2854,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G30" s="32" t="n"/>
+      <c r="G30" s="31" t="n"/>
       <c r="H30" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -2803,18 +2908,22 @@
       <c r="R30" s="25" t="n">
         <v>30.82</v>
       </c>
-      <c r="S30" s="31" t="n"/>
-      <c r="T30" s="31" t="n"/>
-      <c r="U30" s="31" t="n"/>
-      <c r="V30" s="31" t="n"/>
-      <c r="W30" s="31" t="n"/>
-      <c r="X30" s="31" t="n"/>
+      <c r="S30" s="30" t="n"/>
+      <c r="T30" s="30" t="n"/>
+      <c r="U30" s="30" t="n"/>
+      <c r="V30" s="30" t="n"/>
+      <c r="W30" s="30" t="n"/>
+      <c r="X30" s="30" t="n"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="30" t="n"/>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>05.04.2023</t>
@@ -2828,8 +2937,8 @@
       <c r="E31" s="23" t="n">
         <v>1692</v>
       </c>
-      <c r="F31" s="31" t="n"/>
-      <c r="G31" s="32" t="n"/>
+      <c r="F31" s="30" t="n"/>
+      <c r="G31" s="31" t="n"/>
       <c r="H31" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2855,7 +2964,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M31" s="31" t="n"/>
+      <c r="M31" s="30" t="n"/>
       <c r="N31" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 14"</t>
@@ -2866,23 +2975,27 @@
           <t>ООО "Контрагент № 14"</t>
         </is>
       </c>
-      <c r="P31" s="31" t="n"/>
-      <c r="Q31" s="31" t="n"/>
+      <c r="P31" s="30" t="n"/>
+      <c r="Q31" s="30" t="n"/>
       <c r="R31" s="25" t="n">
         <v>35.72</v>
       </c>
-      <c r="S31" s="31" t="n"/>
-      <c r="T31" s="31" t="n"/>
-      <c r="U31" s="31" t="n"/>
-      <c r="V31" s="31" t="n"/>
-      <c r="W31" s="31" t="n"/>
-      <c r="X31" s="31" t="n"/>
+      <c r="S31" s="30" t="n"/>
+      <c r="T31" s="30" t="n"/>
+      <c r="U31" s="30" t="n"/>
+      <c r="V31" s="30" t="n"/>
+      <c r="W31" s="30" t="n"/>
+      <c r="X31" s="30" t="n"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="30" t="n"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -2896,8 +3009,8 @@
       <c r="E32" s="23" t="n">
         <v>1717</v>
       </c>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="32" t="n"/>
+      <c r="F32" s="30" t="n"/>
+      <c r="G32" s="31" t="n"/>
       <c r="H32" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2923,7 +3036,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M32" s="31" t="n"/>
+      <c r="M32" s="30" t="n"/>
       <c r="N32" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 14"</t>
@@ -2934,23 +3047,27 @@
           <t>ООО "Контрагент № 14"</t>
         </is>
       </c>
-      <c r="P32" s="31" t="n"/>
-      <c r="Q32" s="31" t="n"/>
+      <c r="P32" s="30" t="n"/>
+      <c r="Q32" s="30" t="n"/>
       <c r="R32" s="25" t="n">
         <v>33.24</v>
       </c>
-      <c r="S32" s="31" t="n"/>
-      <c r="T32" s="31" t="n"/>
-      <c r="U32" s="31" t="n"/>
-      <c r="V32" s="31" t="n"/>
-      <c r="W32" s="31" t="n"/>
-      <c r="X32" s="31" t="n"/>
+      <c r="S32" s="30" t="n"/>
+      <c r="T32" s="30" t="n"/>
+      <c r="U32" s="30" t="n"/>
+      <c r="V32" s="30" t="n"/>
+      <c r="W32" s="30" t="n"/>
+      <c r="X32" s="30" t="n"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="30" t="n"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -2964,8 +3081,8 @@
       <c r="E33" s="23" t="n">
         <v>1700</v>
       </c>
-      <c r="F33" s="31" t="n"/>
-      <c r="G33" s="32" t="n"/>
+      <c r="F33" s="30" t="n"/>
+      <c r="G33" s="31" t="n"/>
       <c r="H33" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2991,7 +3108,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M33" s="31" t="n"/>
+      <c r="M33" s="30" t="n"/>
       <c r="N33" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -3002,23 +3119,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P33" s="31" t="n"/>
-      <c r="Q33" s="31" t="n"/>
+      <c r="P33" s="30" t="n"/>
+      <c r="Q33" s="30" t="n"/>
       <c r="R33" s="25" t="n">
         <v>36.68</v>
       </c>
-      <c r="S33" s="31" t="n"/>
-      <c r="T33" s="31" t="n"/>
-      <c r="U33" s="31" t="n"/>
-      <c r="V33" s="31" t="n"/>
-      <c r="W33" s="31" t="n"/>
-      <c r="X33" s="31" t="n"/>
+      <c r="S33" s="30" t="n"/>
+      <c r="T33" s="30" t="n"/>
+      <c r="U33" s="30" t="n"/>
+      <c r="V33" s="30" t="n"/>
+      <c r="W33" s="30" t="n"/>
+      <c r="X33" s="30" t="n"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="30" t="n"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3032,8 +3153,8 @@
       <c r="E34" s="23" t="n">
         <v>1721</v>
       </c>
-      <c r="F34" s="31" t="n"/>
-      <c r="G34" s="32" t="n"/>
+      <c r="F34" s="30" t="n"/>
+      <c r="G34" s="31" t="n"/>
       <c r="H34" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3059,7 +3180,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M34" s="31" t="n"/>
+      <c r="M34" s="30" t="n"/>
       <c r="N34" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -3070,23 +3191,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P34" s="31" t="n"/>
-      <c r="Q34" s="31" t="n"/>
+      <c r="P34" s="30" t="n"/>
+      <c r="Q34" s="30" t="n"/>
       <c r="R34" s="25" t="n">
         <v>41.79</v>
       </c>
-      <c r="S34" s="31" t="n"/>
-      <c r="T34" s="31" t="n"/>
-      <c r="U34" s="31" t="n"/>
-      <c r="V34" s="31" t="n"/>
-      <c r="W34" s="31" t="n"/>
-      <c r="X34" s="31" t="n"/>
+      <c r="S34" s="30" t="n"/>
+      <c r="T34" s="30" t="n"/>
+      <c r="U34" s="30" t="n"/>
+      <c r="V34" s="30" t="n"/>
+      <c r="W34" s="30" t="n"/>
+      <c r="X34" s="30" t="n"/>
     </row>
     <row r="35" ht="13.5" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="30" t="n"/>
+      <c r="B35" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3105,7 +3230,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" s="32" t="n"/>
+      <c r="G35" s="31" t="n"/>
       <c r="H35" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -3159,18 +3284,22 @@
       <c r="R35" s="25" t="n">
         <v>31.04</v>
       </c>
-      <c r="S35" s="31" t="n"/>
-      <c r="T35" s="31" t="n"/>
-      <c r="U35" s="31" t="n"/>
-      <c r="V35" s="31" t="n"/>
-      <c r="W35" s="31" t="n"/>
-      <c r="X35" s="31" t="n"/>
+      <c r="S35" s="30" t="n"/>
+      <c r="T35" s="30" t="n"/>
+      <c r="U35" s="30" t="n"/>
+      <c r="V35" s="30" t="n"/>
+      <c r="W35" s="30" t="n"/>
+      <c r="X35" s="30" t="n"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="30" t="n"/>
+      <c r="B36" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3189,7 +3318,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" s="32" t="n"/>
+      <c r="G36" s="31" t="n"/>
       <c r="H36" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -3243,18 +3372,22 @@
       <c r="R36" s="25" t="n">
         <v>30.62</v>
       </c>
-      <c r="S36" s="31" t="n"/>
-      <c r="T36" s="31" t="n"/>
-      <c r="U36" s="31" t="n"/>
-      <c r="V36" s="31" t="n"/>
-      <c r="W36" s="31" t="n"/>
-      <c r="X36" s="31" t="n"/>
+      <c r="S36" s="30" t="n"/>
+      <c r="T36" s="30" t="n"/>
+      <c r="U36" s="30" t="n"/>
+      <c r="V36" s="30" t="n"/>
+      <c r="W36" s="30" t="n"/>
+      <c r="X36" s="30" t="n"/>
     </row>
     <row r="37" ht="13.5" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="30" t="n"/>
+      <c r="B37" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3268,8 +3401,8 @@
       <c r="E37" s="23" t="n">
         <v>1706</v>
       </c>
-      <c r="F37" s="31" t="n"/>
-      <c r="G37" s="32" t="n"/>
+      <c r="F37" s="30" t="n"/>
+      <c r="G37" s="31" t="n"/>
       <c r="H37" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3295,7 +3428,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M37" s="31" t="n"/>
+      <c r="M37" s="30" t="n"/>
       <c r="N37" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -3306,23 +3439,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P37" s="31" t="n"/>
-      <c r="Q37" s="31" t="n"/>
+      <c r="P37" s="30" t="n"/>
+      <c r="Q37" s="30" t="n"/>
       <c r="R37" s="25" t="n">
         <v>41.14</v>
       </c>
-      <c r="S37" s="31" t="n"/>
-      <c r="T37" s="31" t="n"/>
-      <c r="U37" s="31" t="n"/>
-      <c r="V37" s="31" t="n"/>
-      <c r="W37" s="31" t="n"/>
-      <c r="X37" s="31" t="n"/>
+      <c r="S37" s="30" t="n"/>
+      <c r="T37" s="30" t="n"/>
+      <c r="U37" s="30" t="n"/>
+      <c r="V37" s="30" t="n"/>
+      <c r="W37" s="30" t="n"/>
+      <c r="X37" s="30" t="n"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="30" t="n"/>
+      <c r="B38" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3336,8 +3473,8 @@
       <c r="E38" s="23" t="n">
         <v>1722</v>
       </c>
-      <c r="F38" s="31" t="n"/>
-      <c r="G38" s="32" t="n"/>
+      <c r="F38" s="30" t="n"/>
+      <c r="G38" s="31" t="n"/>
       <c r="H38" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3363,7 +3500,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M38" s="31" t="n"/>
+      <c r="M38" s="30" t="n"/>
       <c r="N38" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -3374,23 +3511,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P38" s="31" t="n"/>
-      <c r="Q38" s="31" t="n"/>
+      <c r="P38" s="30" t="n"/>
+      <c r="Q38" s="30" t="n"/>
       <c r="R38" s="25" t="n">
         <v>40.72</v>
       </c>
-      <c r="S38" s="31" t="n"/>
-      <c r="T38" s="31" t="n"/>
-      <c r="U38" s="31" t="n"/>
-      <c r="V38" s="31" t="n"/>
-      <c r="W38" s="31" t="n"/>
-      <c r="X38" s="31" t="n"/>
+      <c r="S38" s="30" t="n"/>
+      <c r="T38" s="30" t="n"/>
+      <c r="U38" s="30" t="n"/>
+      <c r="V38" s="30" t="n"/>
+      <c r="W38" s="30" t="n"/>
+      <c r="X38" s="30" t="n"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="30" t="n"/>
+      <c r="B39" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3406,8 +3547,8 @@
           <t>06042023/1</t>
         </is>
       </c>
-      <c r="F39" s="31" t="n"/>
-      <c r="G39" s="32" t="n"/>
+      <c r="F39" s="30" t="n"/>
+      <c r="G39" s="31" t="n"/>
       <c r="H39" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3433,7 +3574,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M39" s="31" t="n"/>
+      <c r="M39" s="30" t="n"/>
       <c r="N39" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -3444,7 +3585,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P39" s="31" t="n"/>
+      <c r="P39" s="30" t="n"/>
       <c r="Q39" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3453,18 +3594,22 @@
       <c r="R39" s="25" t="n">
         <v>39.7</v>
       </c>
-      <c r="S39" s="31" t="n"/>
-      <c r="T39" s="31" t="n"/>
-      <c r="U39" s="31" t="n"/>
-      <c r="V39" s="31" t="n"/>
-      <c r="W39" s="31" t="n"/>
-      <c r="X39" s="31" t="n"/>
+      <c r="S39" s="30" t="n"/>
+      <c r="T39" s="30" t="n"/>
+      <c r="U39" s="30" t="n"/>
+      <c r="V39" s="30" t="n"/>
+      <c r="W39" s="30" t="n"/>
+      <c r="X39" s="30" t="n"/>
     </row>
     <row r="40" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="30" t="n"/>
+      <c r="B40" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
           <t>06.04.2023</t>
@@ -3480,8 +3625,8 @@
           <t>06042023/2</t>
         </is>
       </c>
-      <c r="F40" s="31" t="n"/>
-      <c r="G40" s="32" t="n"/>
+      <c r="F40" s="30" t="n"/>
+      <c r="G40" s="31" t="n"/>
       <c r="H40" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3507,7 +3652,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M40" s="31" t="n"/>
+      <c r="M40" s="30" t="n"/>
       <c r="N40" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -3518,7 +3663,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P40" s="31" t="n"/>
+      <c r="P40" s="30" t="n"/>
       <c r="Q40" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3527,18 +3672,22 @@
       <c r="R40" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="S40" s="31" t="n"/>
-      <c r="T40" s="31" t="n"/>
-      <c r="U40" s="31" t="n"/>
-      <c r="V40" s="31" t="n"/>
-      <c r="W40" s="31" t="n"/>
-      <c r="X40" s="31" t="n"/>
+      <c r="S40" s="30" t="n"/>
+      <c r="T40" s="30" t="n"/>
+      <c r="U40" s="30" t="n"/>
+      <c r="V40" s="30" t="n"/>
+      <c r="W40" s="30" t="n"/>
+      <c r="X40" s="30" t="n"/>
     </row>
     <row r="41" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="30" t="n"/>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3552,8 +3701,8 @@
       <c r="E41" s="23" t="n">
         <v>1742</v>
       </c>
-      <c r="F41" s="31" t="n"/>
-      <c r="G41" s="32" t="n"/>
+      <c r="F41" s="30" t="n"/>
+      <c r="G41" s="31" t="n"/>
       <c r="H41" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3579,7 +3728,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M41" s="31" t="n"/>
+      <c r="M41" s="30" t="n"/>
       <c r="N41" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -3590,23 +3739,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P41" s="31" t="n"/>
-      <c r="Q41" s="31" t="n"/>
+      <c r="P41" s="30" t="n"/>
+      <c r="Q41" s="30" t="n"/>
       <c r="R41" s="25" t="n">
         <v>40.86</v>
       </c>
-      <c r="S41" s="31" t="n"/>
-      <c r="T41" s="31" t="n"/>
-      <c r="U41" s="31" t="n"/>
-      <c r="V41" s="31" t="n"/>
-      <c r="W41" s="31" t="n"/>
-      <c r="X41" s="31" t="n"/>
+      <c r="S41" s="30" t="n"/>
+      <c r="T41" s="30" t="n"/>
+      <c r="U41" s="30" t="n"/>
+      <c r="V41" s="30" t="n"/>
+      <c r="W41" s="30" t="n"/>
+      <c r="X41" s="30" t="n"/>
     </row>
     <row r="42" ht="13.5" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="30" t="n"/>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3620,8 +3773,8 @@
       <c r="E42" s="23" t="n">
         <v>1746</v>
       </c>
-      <c r="F42" s="31" t="n"/>
-      <c r="G42" s="32" t="n"/>
+      <c r="F42" s="30" t="n"/>
+      <c r="G42" s="31" t="n"/>
       <c r="H42" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3647,7 +3800,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M42" s="31" t="n"/>
+      <c r="M42" s="30" t="n"/>
       <c r="N42" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -3658,23 +3811,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P42" s="31" t="n"/>
-      <c r="Q42" s="31" t="n"/>
+      <c r="P42" s="30" t="n"/>
+      <c r="Q42" s="30" t="n"/>
       <c r="R42" s="25" t="n">
         <v>35.45</v>
       </c>
-      <c r="S42" s="31" t="n"/>
-      <c r="T42" s="31" t="n"/>
-      <c r="U42" s="31" t="n"/>
-      <c r="V42" s="31" t="n"/>
-      <c r="W42" s="31" t="n"/>
-      <c r="X42" s="31" t="n"/>
+      <c r="S42" s="30" t="n"/>
+      <c r="T42" s="30" t="n"/>
+      <c r="U42" s="30" t="n"/>
+      <c r="V42" s="30" t="n"/>
+      <c r="W42" s="30" t="n"/>
+      <c r="X42" s="30" t="n"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" thickBot="1">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="30" t="n"/>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3690,8 +3847,8 @@
           <t>07042023/2</t>
         </is>
       </c>
-      <c r="F43" s="31" t="n"/>
-      <c r="G43" s="32" t="n"/>
+      <c r="F43" s="30" t="n"/>
+      <c r="G43" s="31" t="n"/>
       <c r="H43" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3717,7 +3874,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M43" s="31" t="n"/>
+      <c r="M43" s="30" t="n"/>
       <c r="N43" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 4"</t>
@@ -3728,7 +3885,7 @@
           <t>ООО "Контрагент № 4"</t>
         </is>
       </c>
-      <c r="P43" s="31" t="n"/>
+      <c r="P43" s="30" t="n"/>
       <c r="Q43" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3737,18 +3894,22 @@
       <c r="R43" s="25" t="n">
         <v>37.35</v>
       </c>
-      <c r="S43" s="31" t="n"/>
-      <c r="T43" s="31" t="n"/>
-      <c r="U43" s="31" t="n"/>
-      <c r="V43" s="31" t="n"/>
-      <c r="W43" s="31" t="n"/>
-      <c r="X43" s="31" t="n"/>
+      <c r="S43" s="30" t="n"/>
+      <c r="T43" s="30" t="n"/>
+      <c r="U43" s="30" t="n"/>
+      <c r="V43" s="30" t="n"/>
+      <c r="W43" s="30" t="n"/>
+      <c r="X43" s="30" t="n"/>
     </row>
     <row r="44" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="30" t="n"/>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3764,8 +3925,8 @@
           <t>07042023/3</t>
         </is>
       </c>
-      <c r="F44" s="31" t="n"/>
-      <c r="G44" s="32" t="n"/>
+      <c r="F44" s="30" t="n"/>
+      <c r="G44" s="31" t="n"/>
       <c r="H44" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3791,7 +3952,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M44" s="31" t="n"/>
+      <c r="M44" s="30" t="n"/>
       <c r="N44" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -3802,7 +3963,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P44" s="31" t="n"/>
+      <c r="P44" s="30" t="n"/>
       <c r="Q44" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3811,18 +3972,22 @@
       <c r="R44" s="25" t="n">
         <v>39.8</v>
       </c>
-      <c r="S44" s="31" t="n"/>
-      <c r="T44" s="31" t="n"/>
-      <c r="U44" s="31" t="n"/>
-      <c r="V44" s="31" t="n"/>
-      <c r="W44" s="31" t="n"/>
-      <c r="X44" s="31" t="n"/>
+      <c r="S44" s="30" t="n"/>
+      <c r="T44" s="30" t="n"/>
+      <c r="U44" s="30" t="n"/>
+      <c r="V44" s="30" t="n"/>
+      <c r="W44" s="30" t="n"/>
+      <c r="X44" s="30" t="n"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="30" t="n"/>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3838,8 +4003,8 @@
           <t>07042023/4</t>
         </is>
       </c>
-      <c r="F45" s="31" t="n"/>
-      <c r="G45" s="32" t="n"/>
+      <c r="F45" s="30" t="n"/>
+      <c r="G45" s="31" t="n"/>
       <c r="H45" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3865,7 +4030,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M45" s="31" t="n"/>
+      <c r="M45" s="30" t="n"/>
       <c r="N45" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -3876,7 +4041,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P45" s="31" t="n"/>
+      <c r="P45" s="30" t="n"/>
       <c r="Q45" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3885,18 +4050,22 @@
       <c r="R45" s="25" t="n">
         <v>38.6</v>
       </c>
-      <c r="S45" s="31" t="n"/>
-      <c r="T45" s="31" t="n"/>
-      <c r="U45" s="31" t="n"/>
-      <c r="V45" s="31" t="n"/>
-      <c r="W45" s="31" t="n"/>
-      <c r="X45" s="31" t="n"/>
+      <c r="S45" s="30" t="n"/>
+      <c r="T45" s="30" t="n"/>
+      <c r="U45" s="30" t="n"/>
+      <c r="V45" s="30" t="n"/>
+      <c r="W45" s="30" t="n"/>
+      <c r="X45" s="30" t="n"/>
     </row>
     <row r="46" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="30" t="n"/>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3912,8 +4081,8 @@
           <t>07042023/5</t>
         </is>
       </c>
-      <c r="F46" s="31" t="n"/>
-      <c r="G46" s="32" t="n"/>
+      <c r="F46" s="30" t="n"/>
+      <c r="G46" s="31" t="n"/>
       <c r="H46" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3939,7 +4108,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M46" s="31" t="n"/>
+      <c r="M46" s="30" t="n"/>
       <c r="N46" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 4"</t>
@@ -3950,7 +4119,7 @@
           <t>ООО "Контрагент № 4"</t>
         </is>
       </c>
-      <c r="P46" s="31" t="n"/>
+      <c r="P46" s="30" t="n"/>
       <c r="Q46" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -3959,18 +4128,22 @@
       <c r="R46" s="25" t="n">
         <v>38.55</v>
       </c>
-      <c r="S46" s="31" t="n"/>
-      <c r="T46" s="31" t="n"/>
-      <c r="U46" s="31" t="n"/>
-      <c r="V46" s="31" t="n"/>
-      <c r="W46" s="31" t="n"/>
-      <c r="X46" s="31" t="n"/>
+      <c r="S46" s="30" t="n"/>
+      <c r="T46" s="30" t="n"/>
+      <c r="U46" s="30" t="n"/>
+      <c r="V46" s="30" t="n"/>
+      <c r="W46" s="30" t="n"/>
+      <c r="X46" s="30" t="n"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="30" t="n"/>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -3986,8 +4159,8 @@
           <t>07042023/6</t>
         </is>
       </c>
-      <c r="F47" s="31" t="n"/>
-      <c r="G47" s="32" t="n"/>
+      <c r="F47" s="30" t="n"/>
+      <c r="G47" s="31" t="n"/>
       <c r="H47" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4013,7 +4186,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M47" s="31" t="n"/>
+      <c r="M47" s="30" t="n"/>
       <c r="N47" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -4024,7 +4197,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P47" s="31" t="n"/>
+      <c r="P47" s="30" t="n"/>
       <c r="Q47" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -4033,18 +4206,22 @@
       <c r="R47" s="25" t="n">
         <v>39.4</v>
       </c>
-      <c r="S47" s="31" t="n"/>
-      <c r="T47" s="31" t="n"/>
-      <c r="U47" s="31" t="n"/>
-      <c r="V47" s="31" t="n"/>
-      <c r="W47" s="31" t="n"/>
-      <c r="X47" s="31" t="n"/>
+      <c r="S47" s="30" t="n"/>
+      <c r="T47" s="30" t="n"/>
+      <c r="U47" s="30" t="n"/>
+      <c r="V47" s="30" t="n"/>
+      <c r="W47" s="30" t="n"/>
+      <c r="X47" s="30" t="n"/>
     </row>
     <row r="48" ht="13.5" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="30" t="n"/>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>07.04.2023</t>
@@ -4060,8 +4237,8 @@
           <t>07042023/1</t>
         </is>
       </c>
-      <c r="F48" s="31" t="n"/>
-      <c r="G48" s="32" t="n"/>
+      <c r="F48" s="30" t="n"/>
+      <c r="G48" s="31" t="n"/>
       <c r="H48" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4087,7 +4264,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M48" s="31" t="n"/>
+      <c r="M48" s="30" t="n"/>
       <c r="N48" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -4098,7 +4275,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P48" s="31" t="n"/>
+      <c r="P48" s="30" t="n"/>
       <c r="Q48" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -4107,18 +4284,22 @@
       <c r="R48" s="25" t="n">
         <v>38.85</v>
       </c>
-      <c r="S48" s="31" t="n"/>
-      <c r="T48" s="31" t="n"/>
-      <c r="U48" s="31" t="n"/>
-      <c r="V48" s="31" t="n"/>
-      <c r="W48" s="31" t="n"/>
-      <c r="X48" s="31" t="n"/>
+      <c r="S48" s="30" t="n"/>
+      <c r="T48" s="30" t="n"/>
+      <c r="U48" s="30" t="n"/>
+      <c r="V48" s="30" t="n"/>
+      <c r="W48" s="30" t="n"/>
+      <c r="X48" s="30" t="n"/>
     </row>
     <row r="49" ht="13.5" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="30" t="n"/>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4132,8 +4313,8 @@
       <c r="E49" s="23" t="n">
         <v>1769</v>
       </c>
-      <c r="F49" s="31" t="n"/>
-      <c r="G49" s="32" t="n"/>
+      <c r="F49" s="30" t="n"/>
+      <c r="G49" s="31" t="n"/>
       <c r="H49" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4159,7 +4340,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M49" s="31" t="n"/>
+      <c r="M49" s="30" t="n"/>
       <c r="N49" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -4170,23 +4351,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P49" s="31" t="n"/>
-      <c r="Q49" s="31" t="n"/>
+      <c r="P49" s="30" t="n"/>
+      <c r="Q49" s="30" t="n"/>
       <c r="R49" s="25" t="n">
         <v>40.85</v>
       </c>
-      <c r="S49" s="31" t="n"/>
-      <c r="T49" s="31" t="n"/>
-      <c r="U49" s="31" t="n"/>
-      <c r="V49" s="31" t="n"/>
-      <c r="W49" s="31" t="n"/>
-      <c r="X49" s="31" t="n"/>
+      <c r="S49" s="30" t="n"/>
+      <c r="T49" s="30" t="n"/>
+      <c r="U49" s="30" t="n"/>
+      <c r="V49" s="30" t="n"/>
+      <c r="W49" s="30" t="n"/>
+      <c r="X49" s="30" t="n"/>
     </row>
     <row r="50" ht="13.5" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="30" t="n"/>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4205,7 +4390,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G50" s="32" t="n"/>
+      <c r="G50" s="31" t="n"/>
       <c r="H50" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -4259,18 +4444,22 @@
       <c r="R50" s="25" t="n">
         <v>31.24</v>
       </c>
-      <c r="S50" s="31" t="n"/>
-      <c r="T50" s="31" t="n"/>
-      <c r="U50" s="31" t="n"/>
-      <c r="V50" s="31" t="n"/>
-      <c r="W50" s="31" t="n"/>
-      <c r="X50" s="31" t="n"/>
+      <c r="S50" s="30" t="n"/>
+      <c r="T50" s="30" t="n"/>
+      <c r="U50" s="30" t="n"/>
+      <c r="V50" s="30" t="n"/>
+      <c r="W50" s="30" t="n"/>
+      <c r="X50" s="30" t="n"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="30" t="n"/>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4289,7 +4478,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G51" s="32" t="n"/>
+      <c r="G51" s="31" t="n"/>
       <c r="H51" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -4343,18 +4532,22 @@
       <c r="R51" s="25" t="n">
         <v>31.34</v>
       </c>
-      <c r="S51" s="31" t="n"/>
-      <c r="T51" s="31" t="n"/>
-      <c r="U51" s="31" t="n"/>
-      <c r="V51" s="31" t="n"/>
-      <c r="W51" s="31" t="n"/>
-      <c r="X51" s="31" t="n"/>
+      <c r="S51" s="30" t="n"/>
+      <c r="T51" s="30" t="n"/>
+      <c r="U51" s="30" t="n"/>
+      <c r="V51" s="30" t="n"/>
+      <c r="W51" s="30" t="n"/>
+      <c r="X51" s="30" t="n"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="30" t="n"/>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4373,7 +4566,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G52" s="32" t="n"/>
+      <c r="G52" s="31" t="n"/>
       <c r="H52" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -4427,18 +4620,22 @@
       <c r="R52" s="25" t="n">
         <v>31.6</v>
       </c>
-      <c r="S52" s="31" t="n"/>
-      <c r="T52" s="31" t="n"/>
-      <c r="U52" s="31" t="n"/>
-      <c r="V52" s="31" t="n"/>
-      <c r="W52" s="31" t="n"/>
-      <c r="X52" s="31" t="n"/>
+      <c r="S52" s="30" t="n"/>
+      <c r="T52" s="30" t="n"/>
+      <c r="U52" s="30" t="n"/>
+      <c r="V52" s="30" t="n"/>
+      <c r="W52" s="30" t="n"/>
+      <c r="X52" s="30" t="n"/>
     </row>
     <row r="53" ht="13.5" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="30" t="n"/>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4457,7 +4654,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="32" t="n"/>
+      <c r="G53" s="31" t="n"/>
       <c r="H53" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -4511,18 +4708,22 @@
       <c r="R53" s="25" t="n">
         <v>31.78</v>
       </c>
-      <c r="S53" s="31" t="n"/>
-      <c r="T53" s="31" t="n"/>
-      <c r="U53" s="31" t="n"/>
-      <c r="V53" s="31" t="n"/>
-      <c r="W53" s="31" t="n"/>
-      <c r="X53" s="31" t="n"/>
+      <c r="S53" s="30" t="n"/>
+      <c r="T53" s="30" t="n"/>
+      <c r="U53" s="30" t="n"/>
+      <c r="V53" s="30" t="n"/>
+      <c r="W53" s="30" t="n"/>
+      <c r="X53" s="30" t="n"/>
     </row>
     <row r="54" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B54" s="30" t="n"/>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4538,8 +4739,8 @@
           <t>08042023/1</t>
         </is>
       </c>
-      <c r="F54" s="31" t="n"/>
-      <c r="G54" s="32" t="n"/>
+      <c r="F54" s="30" t="n"/>
+      <c r="G54" s="31" t="n"/>
       <c r="H54" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4565,7 +4766,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M54" s="31" t="n"/>
+      <c r="M54" s="30" t="n"/>
       <c r="N54" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 5"</t>
@@ -4576,7 +4777,7 @@
           <t>ООО "Контрагент № 5"</t>
         </is>
       </c>
-      <c r="P54" s="31" t="n"/>
+      <c r="P54" s="30" t="n"/>
       <c r="Q54" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -4585,18 +4786,22 @@
       <c r="R54" s="25" t="n">
         <v>38.4</v>
       </c>
-      <c r="S54" s="31" t="n"/>
-      <c r="T54" s="31" t="n"/>
-      <c r="U54" s="31" t="n"/>
-      <c r="V54" s="31" t="n"/>
-      <c r="W54" s="31" t="n"/>
-      <c r="X54" s="31" t="n"/>
+      <c r="S54" s="30" t="n"/>
+      <c r="T54" s="30" t="n"/>
+      <c r="U54" s="30" t="n"/>
+      <c r="V54" s="30" t="n"/>
+      <c r="W54" s="30" t="n"/>
+      <c r="X54" s="30" t="n"/>
     </row>
     <row r="55" ht="13.5" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B55" s="30" t="n"/>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4610,8 +4815,8 @@
       <c r="E55" s="23" t="n">
         <v>1766</v>
       </c>
-      <c r="F55" s="31" t="n"/>
-      <c r="G55" s="32" t="n"/>
+      <c r="F55" s="30" t="n"/>
+      <c r="G55" s="31" t="n"/>
       <c r="H55" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4637,7 +4842,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M55" s="31" t="n"/>
+      <c r="M55" s="30" t="n"/>
       <c r="N55" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -4648,23 +4853,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P55" s="31" t="n"/>
-      <c r="Q55" s="31" t="n"/>
+      <c r="P55" s="30" t="n"/>
+      <c r="Q55" s="30" t="n"/>
       <c r="R55" s="25" t="n">
         <v>41.59</v>
       </c>
-      <c r="S55" s="31" t="n"/>
-      <c r="T55" s="31" t="n"/>
-      <c r="U55" s="31" t="n"/>
-      <c r="V55" s="31" t="n"/>
-      <c r="W55" s="31" t="n"/>
-      <c r="X55" s="31" t="n"/>
+      <c r="S55" s="30" t="n"/>
+      <c r="T55" s="30" t="n"/>
+      <c r="U55" s="30" t="n"/>
+      <c r="V55" s="30" t="n"/>
+      <c r="W55" s="30" t="n"/>
+      <c r="X55" s="30" t="n"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B56" s="30" t="n"/>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>08.04.2023</t>
@@ -4678,8 +4887,8 @@
       <c r="E56" s="23" t="n">
         <v>1752</v>
       </c>
-      <c r="F56" s="31" t="n"/>
-      <c r="G56" s="32" t="n"/>
+      <c r="F56" s="30" t="n"/>
+      <c r="G56" s="31" t="n"/>
       <c r="H56" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4705,7 +4914,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M56" s="31" t="n"/>
+      <c r="M56" s="30" t="n"/>
       <c r="N56" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -4716,23 +4925,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P56" s="31" t="n"/>
-      <c r="Q56" s="31" t="n"/>
+      <c r="P56" s="30" t="n"/>
+      <c r="Q56" s="30" t="n"/>
       <c r="R56" s="25" t="n">
         <v>36.42</v>
       </c>
-      <c r="S56" s="31" t="n"/>
-      <c r="T56" s="31" t="n"/>
-      <c r="U56" s="31" t="n"/>
-      <c r="V56" s="31" t="n"/>
-      <c r="W56" s="31" t="n"/>
-      <c r="X56" s="31" t="n"/>
+      <c r="S56" s="30" t="n"/>
+      <c r="T56" s="30" t="n"/>
+      <c r="U56" s="30" t="n"/>
+      <c r="V56" s="30" t="n"/>
+      <c r="W56" s="30" t="n"/>
+      <c r="X56" s="30" t="n"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="30" t="n"/>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -4746,8 +4959,8 @@
       <c r="E57" s="23" t="n">
         <v>1774</v>
       </c>
-      <c r="F57" s="31" t="n"/>
-      <c r="G57" s="32" t="n"/>
+      <c r="F57" s="30" t="n"/>
+      <c r="G57" s="31" t="n"/>
       <c r="H57" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4773,7 +4986,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M57" s="31" t="n"/>
+      <c r="M57" s="30" t="n"/>
       <c r="N57" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -4784,23 +4997,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P57" s="31" t="n"/>
-      <c r="Q57" s="31" t="n"/>
+      <c r="P57" s="30" t="n"/>
+      <c r="Q57" s="30" t="n"/>
       <c r="R57" s="25" t="n">
         <v>36.86</v>
       </c>
-      <c r="S57" s="31" t="n"/>
-      <c r="T57" s="31" t="n"/>
-      <c r="U57" s="31" t="n"/>
-      <c r="V57" s="31" t="n"/>
-      <c r="W57" s="31" t="n"/>
-      <c r="X57" s="31" t="n"/>
+      <c r="S57" s="30" t="n"/>
+      <c r="T57" s="30" t="n"/>
+      <c r="U57" s="30" t="n"/>
+      <c r="V57" s="30" t="n"/>
+      <c r="W57" s="30" t="n"/>
+      <c r="X57" s="30" t="n"/>
     </row>
     <row r="58" ht="13.5" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B58" s="30" t="n"/>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -4814,8 +5031,8 @@
       <c r="E58" s="23" t="n">
         <v>1775</v>
       </c>
-      <c r="F58" s="31" t="n"/>
-      <c r="G58" s="32" t="n"/>
+      <c r="F58" s="30" t="n"/>
+      <c r="G58" s="31" t="n"/>
       <c r="H58" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4841,7 +5058,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M58" s="31" t="n"/>
+      <c r="M58" s="30" t="n"/>
       <c r="N58" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -4852,23 +5069,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P58" s="31" t="n"/>
-      <c r="Q58" s="31" t="n"/>
+      <c r="P58" s="30" t="n"/>
+      <c r="Q58" s="30" t="n"/>
       <c r="R58" s="25" t="n">
         <v>41.48</v>
       </c>
-      <c r="S58" s="31" t="n"/>
-      <c r="T58" s="31" t="n"/>
-      <c r="U58" s="31" t="n"/>
-      <c r="V58" s="31" t="n"/>
-      <c r="W58" s="31" t="n"/>
-      <c r="X58" s="31" t="n"/>
+      <c r="S58" s="30" t="n"/>
+      <c r="T58" s="30" t="n"/>
+      <c r="U58" s="30" t="n"/>
+      <c r="V58" s="30" t="n"/>
+      <c r="W58" s="30" t="n"/>
+      <c r="X58" s="30" t="n"/>
     </row>
     <row r="59" ht="13.5" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B59" s="30" t="n"/>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -4882,8 +5103,8 @@
       <c r="E59" s="23" t="n">
         <v>1773</v>
       </c>
-      <c r="F59" s="31" t="n"/>
-      <c r="G59" s="32" t="n"/>
+      <c r="F59" s="30" t="n"/>
+      <c r="G59" s="31" t="n"/>
       <c r="H59" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4909,7 +5130,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M59" s="31" t="n"/>
+      <c r="M59" s="30" t="n"/>
       <c r="N59" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -4920,23 +5141,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P59" s="31" t="n"/>
-      <c r="Q59" s="31" t="n"/>
+      <c r="P59" s="30" t="n"/>
+      <c r="Q59" s="30" t="n"/>
       <c r="R59" s="25" t="n">
         <v>40.71</v>
       </c>
-      <c r="S59" s="31" t="n"/>
-      <c r="T59" s="31" t="n"/>
-      <c r="U59" s="31" t="n"/>
-      <c r="V59" s="31" t="n"/>
-      <c r="W59" s="31" t="n"/>
-      <c r="X59" s="31" t="n"/>
+      <c r="S59" s="30" t="n"/>
+      <c r="T59" s="30" t="n"/>
+      <c r="U59" s="30" t="n"/>
+      <c r="V59" s="30" t="n"/>
+      <c r="W59" s="30" t="n"/>
+      <c r="X59" s="30" t="n"/>
     </row>
     <row r="60" ht="13.5" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B60" s="30" t="n"/>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -4950,8 +5175,8 @@
       <c r="E60" s="23" t="n">
         <v>1771</v>
       </c>
-      <c r="F60" s="31" t="n"/>
-      <c r="G60" s="32" t="n"/>
+      <c r="F60" s="30" t="n"/>
+      <c r="G60" s="31" t="n"/>
       <c r="H60" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4977,7 +5202,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M60" s="31" t="n"/>
+      <c r="M60" s="30" t="n"/>
       <c r="N60" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -4988,23 +5213,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P60" s="31" t="n"/>
-      <c r="Q60" s="31" t="n"/>
+      <c r="P60" s="30" t="n"/>
+      <c r="Q60" s="30" t="n"/>
       <c r="R60" s="25" t="n">
         <v>40.79</v>
       </c>
-      <c r="S60" s="31" t="n"/>
-      <c r="T60" s="31" t="n"/>
-      <c r="U60" s="31" t="n"/>
-      <c r="V60" s="31" t="n"/>
-      <c r="W60" s="31" t="n"/>
-      <c r="X60" s="31" t="n"/>
+      <c r="S60" s="30" t="n"/>
+      <c r="T60" s="30" t="n"/>
+      <c r="U60" s="30" t="n"/>
+      <c r="V60" s="30" t="n"/>
+      <c r="W60" s="30" t="n"/>
+      <c r="X60" s="30" t="n"/>
     </row>
     <row r="61" ht="13.5" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B61" s="30" t="n"/>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -5018,8 +5247,8 @@
       <c r="E61" s="23" t="n">
         <v>1770</v>
       </c>
-      <c r="F61" s="31" t="n"/>
-      <c r="G61" s="32" t="n"/>
+      <c r="F61" s="30" t="n"/>
+      <c r="G61" s="31" t="n"/>
       <c r="H61" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5045,7 +5274,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M61" s="31" t="n"/>
+      <c r="M61" s="30" t="n"/>
       <c r="N61" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -5056,23 +5285,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P61" s="31" t="n"/>
-      <c r="Q61" s="31" t="n"/>
+      <c r="P61" s="30" t="n"/>
+      <c r="Q61" s="30" t="n"/>
       <c r="R61" s="25" t="n">
         <v>41.71</v>
       </c>
-      <c r="S61" s="31" t="n"/>
-      <c r="T61" s="31" t="n"/>
-      <c r="U61" s="31" t="n"/>
-      <c r="V61" s="31" t="n"/>
-      <c r="W61" s="31" t="n"/>
-      <c r="X61" s="31" t="n"/>
+      <c r="S61" s="30" t="n"/>
+      <c r="T61" s="30" t="n"/>
+      <c r="U61" s="30" t="n"/>
+      <c r="V61" s="30" t="n"/>
+      <c r="W61" s="30" t="n"/>
+      <c r="X61" s="30" t="n"/>
     </row>
     <row r="62" ht="13.5" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B62" s="30" t="n"/>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -5086,8 +5319,8 @@
       <c r="E62" s="23" t="n">
         <v>1776</v>
       </c>
-      <c r="F62" s="31" t="n"/>
-      <c r="G62" s="32" t="n"/>
+      <c r="F62" s="30" t="n"/>
+      <c r="G62" s="31" t="n"/>
       <c r="H62" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5113,7 +5346,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M62" s="31" t="n"/>
+      <c r="M62" s="30" t="n"/>
       <c r="N62" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -5124,23 +5357,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P62" s="31" t="n"/>
-      <c r="Q62" s="31" t="n"/>
+      <c r="P62" s="30" t="n"/>
+      <c r="Q62" s="30" t="n"/>
       <c r="R62" s="25" t="n">
         <v>38.28</v>
       </c>
-      <c r="S62" s="31" t="n"/>
-      <c r="T62" s="31" t="n"/>
-      <c r="U62" s="31" t="n"/>
-      <c r="V62" s="31" t="n"/>
-      <c r="W62" s="31" t="n"/>
-      <c r="X62" s="31" t="n"/>
+      <c r="S62" s="30" t="n"/>
+      <c r="T62" s="30" t="n"/>
+      <c r="U62" s="30" t="n"/>
+      <c r="V62" s="30" t="n"/>
+      <c r="W62" s="30" t="n"/>
+      <c r="X62" s="30" t="n"/>
     </row>
     <row r="63" ht="13.5" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="30" t="n"/>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>09.04.2023</t>
@@ -5159,7 +5396,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" s="32" t="n"/>
+      <c r="G63" s="31" t="n"/>
       <c r="H63" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -5213,18 +5450,22 @@
       <c r="R63" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="S63" s="31" t="n"/>
-      <c r="T63" s="31" t="n"/>
-      <c r="U63" s="31" t="n"/>
-      <c r="V63" s="31" t="n"/>
-      <c r="W63" s="31" t="n"/>
-      <c r="X63" s="31" t="n"/>
+      <c r="S63" s="30" t="n"/>
+      <c r="T63" s="30" t="n"/>
+      <c r="U63" s="30" t="n"/>
+      <c r="V63" s="30" t="n"/>
+      <c r="W63" s="30" t="n"/>
+      <c r="X63" s="30" t="n"/>
     </row>
     <row r="64" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B64" s="30" t="n"/>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5238,8 +5479,8 @@
       <c r="E64" s="23" t="n">
         <v>1797</v>
       </c>
-      <c r="F64" s="31" t="n"/>
-      <c r="G64" s="32" t="n"/>
+      <c r="F64" s="30" t="n"/>
+      <c r="G64" s="31" t="n"/>
       <c r="H64" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5265,7 +5506,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M64" s="31" t="n"/>
+      <c r="M64" s="30" t="n"/>
       <c r="N64" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -5276,23 +5517,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P64" s="31" t="n"/>
-      <c r="Q64" s="31" t="n"/>
+      <c r="P64" s="30" t="n"/>
+      <c r="Q64" s="30" t="n"/>
       <c r="R64" s="25" t="n">
         <v>31.6</v>
       </c>
-      <c r="S64" s="31" t="n"/>
-      <c r="T64" s="31" t="n"/>
-      <c r="U64" s="31" t="n"/>
-      <c r="V64" s="31" t="n"/>
-      <c r="W64" s="31" t="n"/>
-      <c r="X64" s="31" t="n"/>
+      <c r="S64" s="30" t="n"/>
+      <c r="T64" s="30" t="n"/>
+      <c r="U64" s="30" t="n"/>
+      <c r="V64" s="30" t="n"/>
+      <c r="W64" s="30" t="n"/>
+      <c r="X64" s="30" t="n"/>
     </row>
     <row r="65" ht="13.5" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B65" s="30" t="n"/>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5308,8 +5553,8 @@
           <t>10042023/1</t>
         </is>
       </c>
-      <c r="F65" s="31" t="n"/>
-      <c r="G65" s="32" t="n"/>
+      <c r="F65" s="30" t="n"/>
+      <c r="G65" s="31" t="n"/>
       <c r="H65" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5335,7 +5580,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M65" s="31" t="n"/>
+      <c r="M65" s="30" t="n"/>
       <c r="N65" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 4"</t>
@@ -5346,7 +5591,7 @@
           <t>ООО "Контрагент № 4"</t>
         </is>
       </c>
-      <c r="P65" s="31" t="n"/>
+      <c r="P65" s="30" t="n"/>
       <c r="Q65" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -5355,18 +5600,22 @@
       <c r="R65" s="25" t="n">
         <v>36.45</v>
       </c>
-      <c r="S65" s="31" t="n"/>
-      <c r="T65" s="31" t="n"/>
-      <c r="U65" s="31" t="n"/>
-      <c r="V65" s="31" t="n"/>
-      <c r="W65" s="31" t="n"/>
-      <c r="X65" s="31" t="n"/>
+      <c r="S65" s="30" t="n"/>
+      <c r="T65" s="30" t="n"/>
+      <c r="U65" s="30" t="n"/>
+      <c r="V65" s="30" t="n"/>
+      <c r="W65" s="30" t="n"/>
+      <c r="X65" s="30" t="n"/>
     </row>
     <row r="66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B66" s="30" t="n"/>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5380,8 +5629,8 @@
       <c r="E66" s="23" t="n">
         <v>1798</v>
       </c>
-      <c r="F66" s="31" t="n"/>
-      <c r="G66" s="32" t="n"/>
+      <c r="F66" s="30" t="n"/>
+      <c r="G66" s="31" t="n"/>
       <c r="H66" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5407,7 +5656,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M66" s="31" t="n"/>
+      <c r="M66" s="30" t="n"/>
       <c r="N66" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -5418,23 +5667,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P66" s="31" t="n"/>
-      <c r="Q66" s="31" t="n"/>
+      <c r="P66" s="30" t="n"/>
+      <c r="Q66" s="30" t="n"/>
       <c r="R66" s="25" t="n">
         <v>35.83</v>
       </c>
-      <c r="S66" s="31" t="n"/>
-      <c r="T66" s="31" t="n"/>
-      <c r="U66" s="31" t="n"/>
-      <c r="V66" s="31" t="n"/>
-      <c r="W66" s="31" t="n"/>
-      <c r="X66" s="31" t="n"/>
+      <c r="S66" s="30" t="n"/>
+      <c r="T66" s="30" t="n"/>
+      <c r="U66" s="30" t="n"/>
+      <c r="V66" s="30" t="n"/>
+      <c r="W66" s="30" t="n"/>
+      <c r="X66" s="30" t="n"/>
     </row>
     <row r="67" ht="13.5" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B67" s="30" t="n"/>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5448,8 +5701,8 @@
       <c r="E67" s="23" t="n">
         <v>1800</v>
       </c>
-      <c r="F67" s="31" t="n"/>
-      <c r="G67" s="32" t="n"/>
+      <c r="F67" s="30" t="n"/>
+      <c r="G67" s="31" t="n"/>
       <c r="H67" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5475,7 +5728,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M67" s="31" t="n"/>
+      <c r="M67" s="30" t="n"/>
       <c r="N67" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -5486,23 +5739,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P67" s="31" t="n"/>
-      <c r="Q67" s="31" t="n"/>
+      <c r="P67" s="30" t="n"/>
+      <c r="Q67" s="30" t="n"/>
       <c r="R67" s="25" t="n">
         <v>31.16</v>
       </c>
-      <c r="S67" s="31" t="n"/>
-      <c r="T67" s="31" t="n"/>
-      <c r="U67" s="31" t="n"/>
-      <c r="V67" s="31" t="n"/>
-      <c r="W67" s="31" t="n"/>
-      <c r="X67" s="31" t="n"/>
+      <c r="S67" s="30" t="n"/>
+      <c r="T67" s="30" t="n"/>
+      <c r="U67" s="30" t="n"/>
+      <c r="V67" s="30" t="n"/>
+      <c r="W67" s="30" t="n"/>
+      <c r="X67" s="30" t="n"/>
     </row>
     <row r="68" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B68" s="30" t="n"/>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5518,8 +5775,8 @@
           <t>10042023/2</t>
         </is>
       </c>
-      <c r="F68" s="31" t="n"/>
-      <c r="G68" s="32" t="n"/>
+      <c r="F68" s="30" t="n"/>
+      <c r="G68" s="31" t="n"/>
       <c r="H68" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5545,7 +5802,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M68" s="31" t="n"/>
+      <c r="M68" s="30" t="n"/>
       <c r="N68" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 4"</t>
@@ -5556,7 +5813,7 @@
           <t>ООО "Контрагент № 4"</t>
         </is>
       </c>
-      <c r="P68" s="31" t="n"/>
+      <c r="P68" s="30" t="n"/>
       <c r="Q68" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -5565,18 +5822,22 @@
       <c r="R68" s="25" t="n">
         <v>38.95</v>
       </c>
-      <c r="S68" s="31" t="n"/>
-      <c r="T68" s="31" t="n"/>
-      <c r="U68" s="31" t="n"/>
-      <c r="V68" s="31" t="n"/>
-      <c r="W68" s="31" t="n"/>
-      <c r="X68" s="31" t="n"/>
+      <c r="S68" s="30" t="n"/>
+      <c r="T68" s="30" t="n"/>
+      <c r="U68" s="30" t="n"/>
+      <c r="V68" s="30" t="n"/>
+      <c r="W68" s="30" t="n"/>
+      <c r="X68" s="30" t="n"/>
     </row>
     <row r="69" ht="13.5" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B69" s="30" t="n"/>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>10.04.2023</t>
@@ -5590,8 +5851,8 @@
       <c r="E69" s="23" t="n">
         <v>1795</v>
       </c>
-      <c r="F69" s="31" t="n"/>
-      <c r="G69" s="32" t="n"/>
+      <c r="F69" s="30" t="n"/>
+      <c r="G69" s="31" t="n"/>
       <c r="H69" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5617,7 +5878,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M69" s="31" t="n"/>
+      <c r="M69" s="30" t="n"/>
       <c r="N69" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -5628,23 +5889,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P69" s="31" t="n"/>
-      <c r="Q69" s="31" t="n"/>
+      <c r="P69" s="30" t="n"/>
+      <c r="Q69" s="30" t="n"/>
       <c r="R69" s="25" t="n">
         <v>39.56</v>
       </c>
-      <c r="S69" s="31" t="n"/>
-      <c r="T69" s="31" t="n"/>
-      <c r="U69" s="31" t="n"/>
-      <c r="V69" s="31" t="n"/>
-      <c r="W69" s="31" t="n"/>
-      <c r="X69" s="31" t="n"/>
+      <c r="S69" s="30" t="n"/>
+      <c r="T69" s="30" t="n"/>
+      <c r="U69" s="30" t="n"/>
+      <c r="V69" s="30" t="n"/>
+      <c r="W69" s="30" t="n"/>
+      <c r="X69" s="30" t="n"/>
     </row>
     <row r="70" ht="13.5" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B70" s="30" t="n"/>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5658,8 +5923,8 @@
       <c r="E70" s="23" t="n">
         <v>1825</v>
       </c>
-      <c r="F70" s="31" t="n"/>
-      <c r="G70" s="32" t="n"/>
+      <c r="F70" s="30" t="n"/>
+      <c r="G70" s="31" t="n"/>
       <c r="H70" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5685,7 +5950,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M70" s="31" t="n"/>
+      <c r="M70" s="30" t="n"/>
       <c r="N70" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -5696,23 +5961,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P70" s="31" t="n"/>
-      <c r="Q70" s="31" t="n"/>
+      <c r="P70" s="30" t="n"/>
+      <c r="Q70" s="30" t="n"/>
       <c r="R70" s="25" t="n">
         <v>42.3</v>
       </c>
-      <c r="S70" s="31" t="n"/>
-      <c r="T70" s="31" t="n"/>
-      <c r="U70" s="31" t="n"/>
-      <c r="V70" s="31" t="n"/>
-      <c r="W70" s="31" t="n"/>
-      <c r="X70" s="31" t="n"/>
+      <c r="S70" s="30" t="n"/>
+      <c r="T70" s="30" t="n"/>
+      <c r="U70" s="30" t="n"/>
+      <c r="V70" s="30" t="n"/>
+      <c r="W70" s="30" t="n"/>
+      <c r="X70" s="30" t="n"/>
     </row>
     <row r="71" ht="13.5" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B71" s="30" t="n"/>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5726,8 +5995,8 @@
       <c r="E71" s="23" t="n">
         <v>1822</v>
       </c>
-      <c r="F71" s="31" t="n"/>
-      <c r="G71" s="32" t="n"/>
+      <c r="F71" s="30" t="n"/>
+      <c r="G71" s="31" t="n"/>
       <c r="H71" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5753,7 +6022,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M71" s="31" t="n"/>
+      <c r="M71" s="30" t="n"/>
       <c r="N71" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -5764,23 +6033,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P71" s="31" t="n"/>
-      <c r="Q71" s="31" t="n"/>
+      <c r="P71" s="30" t="n"/>
+      <c r="Q71" s="30" t="n"/>
       <c r="R71" s="25" t="n">
         <v>40.92</v>
       </c>
-      <c r="S71" s="31" t="n"/>
-      <c r="T71" s="31" t="n"/>
-      <c r="U71" s="31" t="n"/>
-      <c r="V71" s="31" t="n"/>
-      <c r="W71" s="31" t="n"/>
-      <c r="X71" s="31" t="n"/>
+      <c r="S71" s="30" t="n"/>
+      <c r="T71" s="30" t="n"/>
+      <c r="U71" s="30" t="n"/>
+      <c r="V71" s="30" t="n"/>
+      <c r="W71" s="30" t="n"/>
+      <c r="X71" s="30" t="n"/>
     </row>
     <row r="72" ht="13.5" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B72" s="30" t="n"/>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5794,8 +6067,8 @@
       <c r="E72" s="23" t="n">
         <v>1811</v>
       </c>
-      <c r="F72" s="31" t="n"/>
-      <c r="G72" s="32" t="n"/>
+      <c r="F72" s="30" t="n"/>
+      <c r="G72" s="31" t="n"/>
       <c r="H72" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5821,7 +6094,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M72" s="31" t="n"/>
+      <c r="M72" s="30" t="n"/>
       <c r="N72" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -5832,23 +6105,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P72" s="31" t="n"/>
-      <c r="Q72" s="31" t="n"/>
+      <c r="P72" s="30" t="n"/>
+      <c r="Q72" s="30" t="n"/>
       <c r="R72" s="25" t="n">
         <v>41.56</v>
       </c>
-      <c r="S72" s="31" t="n"/>
-      <c r="T72" s="31" t="n"/>
-      <c r="U72" s="31" t="n"/>
-      <c r="V72" s="31" t="n"/>
-      <c r="W72" s="31" t="n"/>
-      <c r="X72" s="31" t="n"/>
+      <c r="S72" s="30" t="n"/>
+      <c r="T72" s="30" t="n"/>
+      <c r="U72" s="30" t="n"/>
+      <c r="V72" s="30" t="n"/>
+      <c r="W72" s="30" t="n"/>
+      <c r="X72" s="30" t="n"/>
     </row>
     <row r="73" ht="13.5" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B73" s="30" t="n"/>
+      <c r="B73" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5862,8 +6139,8 @@
       <c r="E73" s="23" t="n">
         <v>1830</v>
       </c>
-      <c r="F73" s="31" t="n"/>
-      <c r="G73" s="32" t="n"/>
+      <c r="F73" s="30" t="n"/>
+      <c r="G73" s="31" t="n"/>
       <c r="H73" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5889,7 +6166,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M73" s="31" t="n"/>
+      <c r="M73" s="30" t="n"/>
       <c r="N73" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -5900,23 +6177,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P73" s="31" t="n"/>
-      <c r="Q73" s="31" t="n"/>
+      <c r="P73" s="30" t="n"/>
+      <c r="Q73" s="30" t="n"/>
       <c r="R73" s="25" t="n">
         <v>38.23</v>
       </c>
-      <c r="S73" s="31" t="n"/>
-      <c r="T73" s="31" t="n"/>
-      <c r="U73" s="31" t="n"/>
-      <c r="V73" s="31" t="n"/>
-      <c r="W73" s="31" t="n"/>
-      <c r="X73" s="31" t="n"/>
+      <c r="S73" s="30" t="n"/>
+      <c r="T73" s="30" t="n"/>
+      <c r="U73" s="30" t="n"/>
+      <c r="V73" s="30" t="n"/>
+      <c r="W73" s="30" t="n"/>
+      <c r="X73" s="30" t="n"/>
     </row>
     <row r="74" ht="13.5" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B74" s="30" t="n"/>
+      <c r="B74" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5930,8 +6211,8 @@
       <c r="E74" s="23" t="n">
         <v>1831</v>
       </c>
-      <c r="F74" s="31" t="n"/>
-      <c r="G74" s="32" t="n"/>
+      <c r="F74" s="30" t="n"/>
+      <c r="G74" s="31" t="n"/>
       <c r="H74" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5957,7 +6238,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M74" s="31" t="n"/>
+      <c r="M74" s="30" t="n"/>
       <c r="N74" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 14"</t>
@@ -5968,23 +6249,27 @@
           <t>ООО "Контрагент № 14"</t>
         </is>
       </c>
-      <c r="P74" s="31" t="n"/>
-      <c r="Q74" s="31" t="n"/>
+      <c r="P74" s="30" t="n"/>
+      <c r="Q74" s="30" t="n"/>
       <c r="R74" s="25" t="n">
         <v>41.61</v>
       </c>
-      <c r="S74" s="31" t="n"/>
-      <c r="T74" s="31" t="n"/>
-      <c r="U74" s="31" t="n"/>
-      <c r="V74" s="31" t="n"/>
-      <c r="W74" s="31" t="n"/>
-      <c r="X74" s="31" t="n"/>
+      <c r="S74" s="30" t="n"/>
+      <c r="T74" s="30" t="n"/>
+      <c r="U74" s="30" t="n"/>
+      <c r="V74" s="30" t="n"/>
+      <c r="W74" s="30" t="n"/>
+      <c r="X74" s="30" t="n"/>
     </row>
     <row r="75" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B75" s="30" t="n"/>
+      <c r="B75" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
           <t>11.04.2023</t>
@@ -5998,8 +6283,8 @@
       <c r="E75" s="23" t="n">
         <v>1824</v>
       </c>
-      <c r="F75" s="31" t="n"/>
-      <c r="G75" s="32" t="n"/>
+      <c r="F75" s="30" t="n"/>
+      <c r="G75" s="31" t="n"/>
       <c r="H75" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6025,7 +6310,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M75" s="31" t="n"/>
+      <c r="M75" s="30" t="n"/>
       <c r="N75" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -6036,23 +6321,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P75" s="31" t="n"/>
-      <c r="Q75" s="31" t="n"/>
+      <c r="P75" s="30" t="n"/>
+      <c r="Q75" s="30" t="n"/>
       <c r="R75" s="25" t="n">
         <v>30.5</v>
       </c>
-      <c r="S75" s="31" t="n"/>
-      <c r="T75" s="31" t="n"/>
-      <c r="U75" s="31" t="n"/>
-      <c r="V75" s="31" t="n"/>
-      <c r="W75" s="31" t="n"/>
-      <c r="X75" s="31" t="n"/>
+      <c r="S75" s="30" t="n"/>
+      <c r="T75" s="30" t="n"/>
+      <c r="U75" s="30" t="n"/>
+      <c r="V75" s="30" t="n"/>
+      <c r="W75" s="30" t="n"/>
+      <c r="X75" s="30" t="n"/>
     </row>
     <row r="76" ht="13.5" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B76" s="30" t="n"/>
+      <c r="B76" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6071,7 +6360,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G76" s="32" t="n"/>
+      <c r="G76" s="31" t="n"/>
       <c r="H76" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -6125,18 +6414,22 @@
       <c r="R76" s="25" t="n">
         <v>30.78</v>
       </c>
-      <c r="S76" s="31" t="n"/>
-      <c r="T76" s="31" t="n"/>
-      <c r="U76" s="31" t="n"/>
-      <c r="V76" s="31" t="n"/>
-      <c r="W76" s="31" t="n"/>
-      <c r="X76" s="31" t="n"/>
+      <c r="S76" s="30" t="n"/>
+      <c r="T76" s="30" t="n"/>
+      <c r="U76" s="30" t="n"/>
+      <c r="V76" s="30" t="n"/>
+      <c r="W76" s="30" t="n"/>
+      <c r="X76" s="30" t="n"/>
     </row>
     <row r="77" ht="13.5" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B77" s="30" t="n"/>
+      <c r="B77" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6150,8 +6443,8 @@
       <c r="E77" s="23" t="n">
         <v>1855</v>
       </c>
-      <c r="F77" s="31" t="n"/>
-      <c r="G77" s="32" t="n"/>
+      <c r="F77" s="30" t="n"/>
+      <c r="G77" s="31" t="n"/>
       <c r="H77" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6177,7 +6470,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M77" s="31" t="n"/>
+      <c r="M77" s="30" t="n"/>
       <c r="N77" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -6188,23 +6481,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P77" s="31" t="n"/>
-      <c r="Q77" s="31" t="n"/>
+      <c r="P77" s="30" t="n"/>
+      <c r="Q77" s="30" t="n"/>
       <c r="R77" s="25" t="n">
         <v>39.21</v>
       </c>
-      <c r="S77" s="31" t="n"/>
-      <c r="T77" s="31" t="n"/>
-      <c r="U77" s="31" t="n"/>
-      <c r="V77" s="31" t="n"/>
-      <c r="W77" s="31" t="n"/>
-      <c r="X77" s="31" t="n"/>
+      <c r="S77" s="30" t="n"/>
+      <c r="T77" s="30" t="n"/>
+      <c r="U77" s="30" t="n"/>
+      <c r="V77" s="30" t="n"/>
+      <c r="W77" s="30" t="n"/>
+      <c r="X77" s="30" t="n"/>
     </row>
     <row r="78" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B78" s="30" t="n"/>
+      <c r="B78" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6218,8 +6515,8 @@
       <c r="E78" s="23" t="n">
         <v>1847</v>
       </c>
-      <c r="F78" s="31" t="n"/>
-      <c r="G78" s="32" t="n"/>
+      <c r="F78" s="30" t="n"/>
+      <c r="G78" s="31" t="n"/>
       <c r="H78" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6245,7 +6542,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M78" s="31" t="n"/>
+      <c r="M78" s="30" t="n"/>
       <c r="N78" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -6256,23 +6553,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P78" s="31" t="n"/>
-      <c r="Q78" s="31" t="n"/>
+      <c r="P78" s="30" t="n"/>
+      <c r="Q78" s="30" t="n"/>
       <c r="R78" s="25" t="n">
         <v>43.05</v>
       </c>
-      <c r="S78" s="31" t="n"/>
-      <c r="T78" s="31" t="n"/>
-      <c r="U78" s="31" t="n"/>
-      <c r="V78" s="31" t="n"/>
-      <c r="W78" s="31" t="n"/>
-      <c r="X78" s="31" t="n"/>
+      <c r="S78" s="30" t="n"/>
+      <c r="T78" s="30" t="n"/>
+      <c r="U78" s="30" t="n"/>
+      <c r="V78" s="30" t="n"/>
+      <c r="W78" s="30" t="n"/>
+      <c r="X78" s="30" t="n"/>
     </row>
     <row r="79" ht="13.5" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B79" s="30" t="n"/>
+      <c r="B79" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6286,8 +6587,8 @@
       <c r="E79" s="23" t="n">
         <v>1844</v>
       </c>
-      <c r="F79" s="31" t="n"/>
-      <c r="G79" s="32" t="n"/>
+      <c r="F79" s="30" t="n"/>
+      <c r="G79" s="31" t="n"/>
       <c r="H79" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6313,7 +6614,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M79" s="31" t="n"/>
+      <c r="M79" s="30" t="n"/>
       <c r="N79" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 17"</t>
@@ -6324,23 +6625,27 @@
           <t>ООО "Контрагент № 17"</t>
         </is>
       </c>
-      <c r="P79" s="31" t="n"/>
-      <c r="Q79" s="31" t="n"/>
+      <c r="P79" s="30" t="n"/>
+      <c r="Q79" s="30" t="n"/>
       <c r="R79" s="25" t="n">
         <v>40.5</v>
       </c>
-      <c r="S79" s="31" t="n"/>
-      <c r="T79" s="31" t="n"/>
-      <c r="U79" s="31" t="n"/>
-      <c r="V79" s="31" t="n"/>
-      <c r="W79" s="31" t="n"/>
-      <c r="X79" s="31" t="n"/>
+      <c r="S79" s="30" t="n"/>
+      <c r="T79" s="30" t="n"/>
+      <c r="U79" s="30" t="n"/>
+      <c r="V79" s="30" t="n"/>
+      <c r="W79" s="30" t="n"/>
+      <c r="X79" s="30" t="n"/>
     </row>
     <row r="80" ht="13.5" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B80" s="30" t="n"/>
+      <c r="B80" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6354,8 +6659,8 @@
       <c r="E80" s="23" t="n">
         <v>1848</v>
       </c>
-      <c r="F80" s="31" t="n"/>
-      <c r="G80" s="32" t="n"/>
+      <c r="F80" s="30" t="n"/>
+      <c r="G80" s="31" t="n"/>
       <c r="H80" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6381,7 +6686,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M80" s="31" t="n"/>
+      <c r="M80" s="30" t="n"/>
       <c r="N80" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 17"</t>
@@ -6392,23 +6697,27 @@
           <t>ООО "Контрагент № 17"</t>
         </is>
       </c>
-      <c r="P80" s="31" t="n"/>
-      <c r="Q80" s="31" t="n"/>
+      <c r="P80" s="30" t="n"/>
+      <c r="Q80" s="30" t="n"/>
       <c r="R80" s="25" t="n">
         <v>39.79</v>
       </c>
-      <c r="S80" s="31" t="n"/>
-      <c r="T80" s="31" t="n"/>
-      <c r="U80" s="31" t="n"/>
-      <c r="V80" s="31" t="n"/>
-      <c r="W80" s="31" t="n"/>
-      <c r="X80" s="31" t="n"/>
+      <c r="S80" s="30" t="n"/>
+      <c r="T80" s="30" t="n"/>
+      <c r="U80" s="30" t="n"/>
+      <c r="V80" s="30" t="n"/>
+      <c r="W80" s="30" t="n"/>
+      <c r="X80" s="30" t="n"/>
     </row>
     <row r="81" ht="13.5" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B81" s="30" t="n"/>
+      <c r="B81" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>12.04.2023</t>
@@ -6422,8 +6731,8 @@
       <c r="E81" s="23" t="n">
         <v>1851</v>
       </c>
-      <c r="F81" s="31" t="n"/>
-      <c r="G81" s="32" t="n"/>
+      <c r="F81" s="30" t="n"/>
+      <c r="G81" s="31" t="n"/>
       <c r="H81" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6449,7 +6758,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M81" s="31" t="n"/>
+      <c r="M81" s="30" t="n"/>
       <c r="N81" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 17"</t>
@@ -6460,23 +6769,27 @@
           <t>ООО "Контрагент № 17"</t>
         </is>
       </c>
-      <c r="P81" s="31" t="n"/>
-      <c r="Q81" s="31" t="n"/>
+      <c r="P81" s="30" t="n"/>
+      <c r="Q81" s="30" t="n"/>
       <c r="R81" s="25" t="n">
         <v>41.07</v>
       </c>
-      <c r="S81" s="31" t="n"/>
-      <c r="T81" s="31" t="n"/>
-      <c r="U81" s="31" t="n"/>
-      <c r="V81" s="31" t="n"/>
-      <c r="W81" s="31" t="n"/>
-      <c r="X81" s="31" t="n"/>
+      <c r="S81" s="30" t="n"/>
+      <c r="T81" s="30" t="n"/>
+      <c r="U81" s="30" t="n"/>
+      <c r="V81" s="30" t="n"/>
+      <c r="W81" s="30" t="n"/>
+      <c r="X81" s="30" t="n"/>
     </row>
     <row r="82" ht="13.5" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B82" s="30" t="n"/>
+      <c r="B82" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>13.04.2023</t>
@@ -6495,7 +6808,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G82" s="32" t="n"/>
+      <c r="G82" s="31" t="n"/>
       <c r="H82" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -6549,18 +6862,22 @@
       <c r="R82" s="25" t="n">
         <v>31.68</v>
       </c>
-      <c r="S82" s="31" t="n"/>
-      <c r="T82" s="31" t="n"/>
-      <c r="U82" s="31" t="n"/>
-      <c r="V82" s="31" t="n"/>
-      <c r="W82" s="31" t="n"/>
-      <c r="X82" s="31" t="n"/>
+      <c r="S82" s="30" t="n"/>
+      <c r="T82" s="30" t="n"/>
+      <c r="U82" s="30" t="n"/>
+      <c r="V82" s="30" t="n"/>
+      <c r="W82" s="30" t="n"/>
+      <c r="X82" s="30" t="n"/>
     </row>
     <row r="83" ht="13.5" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B83" s="30" t="n"/>
+      <c r="B83" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>13.04.2023</t>
@@ -6577,7 +6894,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G83" s="32" t="n"/>
+      <c r="G83" s="31" t="n"/>
       <c r="H83" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6618,7 +6935,7 @@
           <t>ООО "Контрагент № 22"</t>
         </is>
       </c>
-      <c r="P83" s="31" t="n"/>
+      <c r="P83" s="30" t="n"/>
       <c r="Q83" s="23" t="inlineStr">
         <is>
           <t>42,5-Н</t>
@@ -6633,16 +6950,20 @@
       <c r="T83" s="5" t="n">
         <v>9531</v>
       </c>
-      <c r="U83" s="31" t="n"/>
-      <c r="V83" s="31" t="n"/>
-      <c r="W83" s="31" t="n"/>
-      <c r="X83" s="31" t="n"/>
+      <c r="U83" s="30" t="n"/>
+      <c r="V83" s="30" t="n"/>
+      <c r="W83" s="30" t="n"/>
+      <c r="X83" s="30" t="n"/>
     </row>
     <row r="84" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B84" s="30" t="n"/>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
           <t>13.04.2023</t>
@@ -6656,8 +6977,8 @@
       <c r="E84" s="23" t="n">
         <v>1886</v>
       </c>
-      <c r="F84" s="31" t="n"/>
-      <c r="G84" s="32" t="n"/>
+      <c r="F84" s="30" t="n"/>
+      <c r="G84" s="31" t="n"/>
       <c r="H84" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6683,7 +7004,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M84" s="31" t="n"/>
+      <c r="M84" s="30" t="n"/>
       <c r="N84" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -6694,23 +7015,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P84" s="31" t="n"/>
-      <c r="Q84" s="31" t="n"/>
+      <c r="P84" s="30" t="n"/>
+      <c r="Q84" s="30" t="n"/>
       <c r="R84" s="25" t="n">
         <v>39.07</v>
       </c>
-      <c r="S84" s="31" t="n"/>
-      <c r="T84" s="31" t="n"/>
-      <c r="U84" s="31" t="n"/>
-      <c r="V84" s="31" t="n"/>
-      <c r="W84" s="31" t="n"/>
-      <c r="X84" s="31" t="n"/>
+      <c r="S84" s="30" t="n"/>
+      <c r="T84" s="30" t="n"/>
+      <c r="U84" s="30" t="n"/>
+      <c r="V84" s="30" t="n"/>
+      <c r="W84" s="30" t="n"/>
+      <c r="X84" s="30" t="n"/>
     </row>
     <row r="85" ht="13.5" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B85" s="30" t="n"/>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
           <t>13.04.2023</t>
@@ -6729,7 +7054,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G85" s="32" t="n"/>
+      <c r="G85" s="31" t="n"/>
       <c r="H85" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -6783,18 +7108,22 @@
       <c r="R85" s="25" t="n">
         <v>31.18</v>
       </c>
-      <c r="S85" s="31" t="n"/>
-      <c r="T85" s="31" t="n"/>
-      <c r="U85" s="31" t="n"/>
-      <c r="V85" s="31" t="n"/>
-      <c r="W85" s="31" t="n"/>
-      <c r="X85" s="31" t="n"/>
+      <c r="S85" s="30" t="n"/>
+      <c r="T85" s="30" t="n"/>
+      <c r="U85" s="30" t="n"/>
+      <c r="V85" s="30" t="n"/>
+      <c r="W85" s="30" t="n"/>
+      <c r="X85" s="30" t="n"/>
     </row>
     <row r="86" ht="13.5" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B86" s="30" t="n"/>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -6808,8 +7137,8 @@
       <c r="E86" s="23" t="n">
         <v>1902</v>
       </c>
-      <c r="F86" s="31" t="n"/>
-      <c r="G86" s="32" t="n"/>
+      <c r="F86" s="30" t="n"/>
+      <c r="G86" s="31" t="n"/>
       <c r="H86" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6835,7 +7164,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M86" s="31" t="n"/>
+      <c r="M86" s="30" t="n"/>
       <c r="N86" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -6846,23 +7175,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P86" s="31" t="n"/>
-      <c r="Q86" s="31" t="n"/>
+      <c r="P86" s="30" t="n"/>
+      <c r="Q86" s="30" t="n"/>
       <c r="R86" s="25" t="n">
         <v>40.23</v>
       </c>
-      <c r="S86" s="31" t="n"/>
-      <c r="T86" s="31" t="n"/>
-      <c r="U86" s="31" t="n"/>
-      <c r="V86" s="31" t="n"/>
-      <c r="W86" s="31" t="n"/>
-      <c r="X86" s="31" t="n"/>
+      <c r="S86" s="30" t="n"/>
+      <c r="T86" s="30" t="n"/>
+      <c r="U86" s="30" t="n"/>
+      <c r="V86" s="30" t="n"/>
+      <c r="W86" s="30" t="n"/>
+      <c r="X86" s="30" t="n"/>
     </row>
     <row r="87" ht="13.5" customHeight="1" thickBot="1">
       <c r="A87" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B87" s="30" t="n"/>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -6876,8 +7209,8 @@
       <c r="E87" s="23" t="n">
         <v>1912</v>
       </c>
-      <c r="F87" s="31" t="n"/>
-      <c r="G87" s="32" t="n"/>
+      <c r="F87" s="30" t="n"/>
+      <c r="G87" s="31" t="n"/>
       <c r="H87" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6903,7 +7236,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M87" s="31" t="n"/>
+      <c r="M87" s="30" t="n"/>
       <c r="N87" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -6914,23 +7247,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P87" s="31" t="n"/>
-      <c r="Q87" s="31" t="n"/>
+      <c r="P87" s="30" t="n"/>
+      <c r="Q87" s="30" t="n"/>
       <c r="R87" s="25" t="n">
         <v>40.38</v>
       </c>
-      <c r="S87" s="31" t="n"/>
-      <c r="T87" s="31" t="n"/>
-      <c r="U87" s="31" t="n"/>
-      <c r="V87" s="31" t="n"/>
-      <c r="W87" s="31" t="n"/>
-      <c r="X87" s="31" t="n"/>
+      <c r="S87" s="30" t="n"/>
+      <c r="T87" s="30" t="n"/>
+      <c r="U87" s="30" t="n"/>
+      <c r="V87" s="30" t="n"/>
+      <c r="W87" s="30" t="n"/>
+      <c r="X87" s="30" t="n"/>
     </row>
     <row r="88" ht="13.5" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B88" s="30" t="n"/>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -6944,8 +7281,8 @@
       <c r="E88" s="23" t="n">
         <v>1895</v>
       </c>
-      <c r="F88" s="31" t="n"/>
-      <c r="G88" s="32" t="n"/>
+      <c r="F88" s="30" t="n"/>
+      <c r="G88" s="31" t="n"/>
       <c r="H88" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6971,7 +7308,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M88" s="31" t="n"/>
+      <c r="M88" s="30" t="n"/>
       <c r="N88" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -6982,23 +7319,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P88" s="31" t="n"/>
-      <c r="Q88" s="31" t="n"/>
+      <c r="P88" s="30" t="n"/>
+      <c r="Q88" s="30" t="n"/>
       <c r="R88" s="25" t="n">
         <v>35.71</v>
       </c>
-      <c r="S88" s="31" t="n"/>
-      <c r="T88" s="31" t="n"/>
-      <c r="U88" s="31" t="n"/>
-      <c r="V88" s="31" t="n"/>
-      <c r="W88" s="31" t="n"/>
-      <c r="X88" s="31" t="n"/>
+      <c r="S88" s="30" t="n"/>
+      <c r="T88" s="30" t="n"/>
+      <c r="U88" s="30" t="n"/>
+      <c r="V88" s="30" t="n"/>
+      <c r="W88" s="30" t="n"/>
+      <c r="X88" s="30" t="n"/>
     </row>
     <row r="89" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B89" s="30" t="n"/>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -7012,8 +7353,8 @@
       <c r="E89" s="23" t="n">
         <v>1910</v>
       </c>
-      <c r="F89" s="31" t="n"/>
-      <c r="G89" s="32" t="n"/>
+      <c r="F89" s="30" t="n"/>
+      <c r="G89" s="31" t="n"/>
       <c r="H89" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7039,7 +7380,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M89" s="31" t="n"/>
+      <c r="M89" s="30" t="n"/>
       <c r="N89" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -7050,23 +7391,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P89" s="31" t="n"/>
-      <c r="Q89" s="31" t="n"/>
+      <c r="P89" s="30" t="n"/>
+      <c r="Q89" s="30" t="n"/>
       <c r="R89" s="25" t="n">
         <v>42.16</v>
       </c>
-      <c r="S89" s="31" t="n"/>
-      <c r="T89" s="31" t="n"/>
-      <c r="U89" s="31" t="n"/>
-      <c r="V89" s="31" t="n"/>
-      <c r="W89" s="31" t="n"/>
-      <c r="X89" s="31" t="n"/>
+      <c r="S89" s="30" t="n"/>
+      <c r="T89" s="30" t="n"/>
+      <c r="U89" s="30" t="n"/>
+      <c r="V89" s="30" t="n"/>
+      <c r="W89" s="30" t="n"/>
+      <c r="X89" s="30" t="n"/>
     </row>
     <row r="90" ht="13.5" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B90" s="30" t="n"/>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -7083,7 +7428,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G90" s="32" t="n"/>
+      <c r="G90" s="31" t="n"/>
       <c r="H90" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7124,7 +7469,7 @@
           <t>ООО "Контрагент № 21"</t>
         </is>
       </c>
-      <c r="P90" s="31" t="n"/>
+      <c r="P90" s="30" t="n"/>
       <c r="Q90" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -7139,16 +7484,20 @@
       <c r="T90" s="5" t="n">
         <v>9336</v>
       </c>
-      <c r="U90" s="31" t="n"/>
-      <c r="V90" s="31" t="n"/>
-      <c r="W90" s="31" t="n"/>
-      <c r="X90" s="31" t="n"/>
+      <c r="U90" s="30" t="n"/>
+      <c r="V90" s="30" t="n"/>
+      <c r="W90" s="30" t="n"/>
+      <c r="X90" s="30" t="n"/>
     </row>
     <row r="91" ht="13.5" customHeight="1" thickBot="1">
       <c r="A91" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B91" s="30" t="n"/>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
           <t>14.04.2023</t>
@@ -7162,8 +7511,8 @@
       <c r="E91" s="23" t="n">
         <v>1913</v>
       </c>
-      <c r="F91" s="31" t="n"/>
-      <c r="G91" s="32" t="n"/>
+      <c r="F91" s="30" t="n"/>
+      <c r="G91" s="31" t="n"/>
       <c r="H91" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7189,7 +7538,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M91" s="31" t="n"/>
+      <c r="M91" s="30" t="n"/>
       <c r="N91" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -7200,23 +7549,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P91" s="31" t="n"/>
-      <c r="Q91" s="31" t="n"/>
+      <c r="P91" s="30" t="n"/>
+      <c r="Q91" s="30" t="n"/>
       <c r="R91" s="25" t="n">
         <v>41.6</v>
       </c>
-      <c r="S91" s="31" t="n"/>
-      <c r="T91" s="31" t="n"/>
-      <c r="U91" s="31" t="n"/>
-      <c r="V91" s="31" t="n"/>
-      <c r="W91" s="31" t="n"/>
-      <c r="X91" s="31" t="n"/>
+      <c r="S91" s="30" t="n"/>
+      <c r="T91" s="30" t="n"/>
+      <c r="U91" s="30" t="n"/>
+      <c r="V91" s="30" t="n"/>
+      <c r="W91" s="30" t="n"/>
+      <c r="X91" s="30" t="n"/>
     </row>
     <row r="92" ht="13.5" customHeight="1" thickBot="1">
       <c r="A92" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B92" s="30" t="n"/>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7230,8 +7583,8 @@
       <c r="E92" s="23" t="n">
         <v>1945</v>
       </c>
-      <c r="F92" s="31" t="n"/>
-      <c r="G92" s="32" t="n"/>
+      <c r="F92" s="30" t="n"/>
+      <c r="G92" s="31" t="n"/>
       <c r="H92" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7257,7 +7610,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M92" s="31" t="n"/>
+      <c r="M92" s="30" t="n"/>
       <c r="N92" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -7268,23 +7621,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P92" s="31" t="n"/>
-      <c r="Q92" s="31" t="n"/>
+      <c r="P92" s="30" t="n"/>
+      <c r="Q92" s="30" t="n"/>
       <c r="R92" s="25" t="n">
         <v>38.77</v>
       </c>
-      <c r="S92" s="31" t="n"/>
-      <c r="T92" s="31" t="n"/>
-      <c r="U92" s="31" t="n"/>
-      <c r="V92" s="31" t="n"/>
-      <c r="W92" s="31" t="n"/>
-      <c r="X92" s="31" t="n"/>
+      <c r="S92" s="30" t="n"/>
+      <c r="T92" s="30" t="n"/>
+      <c r="U92" s="30" t="n"/>
+      <c r="V92" s="30" t="n"/>
+      <c r="W92" s="30" t="n"/>
+      <c r="X92" s="30" t="n"/>
     </row>
     <row r="93" ht="13.5" customHeight="1" thickBot="1">
       <c r="A93" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B93" s="30" t="n"/>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7298,8 +7655,8 @@
       <c r="E93" s="23" t="n">
         <v>1941</v>
       </c>
-      <c r="F93" s="31" t="n"/>
-      <c r="G93" s="32" t="n"/>
+      <c r="F93" s="30" t="n"/>
+      <c r="G93" s="31" t="n"/>
       <c r="H93" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7325,7 +7682,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M93" s="31" t="n"/>
+      <c r="M93" s="30" t="n"/>
       <c r="N93" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -7336,23 +7693,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P93" s="31" t="n"/>
-      <c r="Q93" s="31" t="n"/>
+      <c r="P93" s="30" t="n"/>
+      <c r="Q93" s="30" t="n"/>
       <c r="R93" s="25" t="n">
         <v>34.44</v>
       </c>
-      <c r="S93" s="31" t="n"/>
-      <c r="T93" s="31" t="n"/>
-      <c r="U93" s="31" t="n"/>
-      <c r="V93" s="31" t="n"/>
-      <c r="W93" s="31" t="n"/>
-      <c r="X93" s="31" t="n"/>
+      <c r="S93" s="30" t="n"/>
+      <c r="T93" s="30" t="n"/>
+      <c r="U93" s="30" t="n"/>
+      <c r="V93" s="30" t="n"/>
+      <c r="W93" s="30" t="n"/>
+      <c r="X93" s="30" t="n"/>
     </row>
     <row r="94" ht="13.5" customHeight="1" thickBot="1">
       <c r="A94" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B94" s="30" t="n"/>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7366,8 +7727,8 @@
       <c r="E94" s="23" t="n">
         <v>1939</v>
       </c>
-      <c r="F94" s="31" t="n"/>
-      <c r="G94" s="32" t="n"/>
+      <c r="F94" s="30" t="n"/>
+      <c r="G94" s="31" t="n"/>
       <c r="H94" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7393,7 +7754,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M94" s="31" t="n"/>
+      <c r="M94" s="30" t="n"/>
       <c r="N94" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 17"</t>
@@ -7404,23 +7765,27 @@
           <t>ООО "Контрагент № 17"</t>
         </is>
       </c>
-      <c r="P94" s="31" t="n"/>
-      <c r="Q94" s="31" t="n"/>
+      <c r="P94" s="30" t="n"/>
+      <c r="Q94" s="30" t="n"/>
       <c r="R94" s="25" t="n">
         <v>39.01</v>
       </c>
-      <c r="S94" s="31" t="n"/>
-      <c r="T94" s="31" t="n"/>
-      <c r="U94" s="31" t="n"/>
-      <c r="V94" s="31" t="n"/>
-      <c r="W94" s="31" t="n"/>
-      <c r="X94" s="31" t="n"/>
+      <c r="S94" s="30" t="n"/>
+      <c r="T94" s="30" t="n"/>
+      <c r="U94" s="30" t="n"/>
+      <c r="V94" s="30" t="n"/>
+      <c r="W94" s="30" t="n"/>
+      <c r="X94" s="30" t="n"/>
     </row>
     <row r="95" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B95" s="30" t="n"/>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7434,8 +7799,8 @@
       <c r="E95" s="23" t="n">
         <v>1932</v>
       </c>
-      <c r="F95" s="31" t="n"/>
-      <c r="G95" s="32" t="n"/>
+      <c r="F95" s="30" t="n"/>
+      <c r="G95" s="31" t="n"/>
       <c r="H95" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7461,7 +7826,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M95" s="31" t="n"/>
+      <c r="M95" s="30" t="n"/>
       <c r="N95" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -7472,23 +7837,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P95" s="31" t="n"/>
-      <c r="Q95" s="31" t="n"/>
+      <c r="P95" s="30" t="n"/>
+      <c r="Q95" s="30" t="n"/>
       <c r="R95" s="25" t="n">
         <v>42.39</v>
       </c>
-      <c r="S95" s="31" t="n"/>
-      <c r="T95" s="31" t="n"/>
-      <c r="U95" s="31" t="n"/>
-      <c r="V95" s="31" t="n"/>
-      <c r="W95" s="31" t="n"/>
-      <c r="X95" s="31" t="n"/>
+      <c r="S95" s="30" t="n"/>
+      <c r="T95" s="30" t="n"/>
+      <c r="U95" s="30" t="n"/>
+      <c r="V95" s="30" t="n"/>
+      <c r="W95" s="30" t="n"/>
+      <c r="X95" s="30" t="n"/>
     </row>
     <row r="96" ht="13.5" customHeight="1" thickBot="1">
       <c r="A96" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B96" s="30" t="n"/>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7502,8 +7871,8 @@
       <c r="E96" s="23" t="n">
         <v>1918</v>
       </c>
-      <c r="F96" s="31" t="n"/>
-      <c r="G96" s="32" t="n"/>
+      <c r="F96" s="30" t="n"/>
+      <c r="G96" s="31" t="n"/>
       <c r="H96" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7529,7 +7898,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M96" s="31" t="n"/>
+      <c r="M96" s="30" t="n"/>
       <c r="N96" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -7540,23 +7909,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P96" s="31" t="n"/>
-      <c r="Q96" s="31" t="n"/>
+      <c r="P96" s="30" t="n"/>
+      <c r="Q96" s="30" t="n"/>
       <c r="R96" s="25" t="n">
         <v>39.47</v>
       </c>
-      <c r="S96" s="31" t="n"/>
-      <c r="T96" s="31" t="n"/>
-      <c r="U96" s="31" t="n"/>
-      <c r="V96" s="31" t="n"/>
-      <c r="W96" s="31" t="n"/>
-      <c r="X96" s="31" t="n"/>
+      <c r="S96" s="30" t="n"/>
+      <c r="T96" s="30" t="n"/>
+      <c r="U96" s="30" t="n"/>
+      <c r="V96" s="30" t="n"/>
+      <c r="W96" s="30" t="n"/>
+      <c r="X96" s="30" t="n"/>
     </row>
     <row r="97" ht="13.5" customHeight="1" thickBot="1">
       <c r="A97" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="30" t="n"/>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7570,8 +7943,8 @@
       <c r="E97" s="23" t="n">
         <v>1919</v>
       </c>
-      <c r="F97" s="31" t="n"/>
-      <c r="G97" s="32" t="n"/>
+      <c r="F97" s="30" t="n"/>
+      <c r="G97" s="31" t="n"/>
       <c r="H97" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7597,7 +7970,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M97" s="31" t="n"/>
+      <c r="M97" s="30" t="n"/>
       <c r="N97" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -7608,23 +7981,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P97" s="31" t="n"/>
-      <c r="Q97" s="31" t="n"/>
+      <c r="P97" s="30" t="n"/>
+      <c r="Q97" s="30" t="n"/>
       <c r="R97" s="25" t="n">
         <v>42.69</v>
       </c>
-      <c r="S97" s="31" t="n"/>
-      <c r="T97" s="31" t="n"/>
-      <c r="U97" s="31" t="n"/>
-      <c r="V97" s="31" t="n"/>
-      <c r="W97" s="31" t="n"/>
-      <c r="X97" s="31" t="n"/>
+      <c r="S97" s="30" t="n"/>
+      <c r="T97" s="30" t="n"/>
+      <c r="U97" s="30" t="n"/>
+      <c r="V97" s="30" t="n"/>
+      <c r="W97" s="30" t="n"/>
+      <c r="X97" s="30" t="n"/>
     </row>
     <row r="98" ht="13.5" customHeight="1" thickBot="1">
       <c r="A98" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B98" s="30" t="n"/>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7641,7 +8018,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G98" s="32" t="n"/>
+      <c r="G98" s="31" t="n"/>
       <c r="H98" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7682,7 +8059,7 @@
           <t>ООО "Контрагент № 21"</t>
         </is>
       </c>
-      <c r="P98" s="31" t="n"/>
+      <c r="P98" s="30" t="n"/>
       <c r="Q98" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -7697,16 +8074,20 @@
       <c r="T98" s="5" t="n">
         <v>9165</v>
       </c>
-      <c r="U98" s="31" t="n"/>
-      <c r="V98" s="31" t="n"/>
-      <c r="W98" s="31" t="n"/>
-      <c r="X98" s="31" t="n"/>
+      <c r="U98" s="30" t="n"/>
+      <c r="V98" s="30" t="n"/>
+      <c r="W98" s="30" t="n"/>
+      <c r="X98" s="30" t="n"/>
     </row>
     <row r="99" ht="13.5" customHeight="1" thickBot="1">
       <c r="A99" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B99" s="30" t="n"/>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>15.04.2023</t>
@@ -7725,7 +8106,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G99" s="32" t="n"/>
+      <c r="G99" s="31" t="n"/>
       <c r="H99" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -7779,18 +8160,22 @@
       <c r="R99" s="25" t="n">
         <v>30.94</v>
       </c>
-      <c r="S99" s="31" t="n"/>
-      <c r="T99" s="31" t="n"/>
-      <c r="U99" s="31" t="n"/>
-      <c r="V99" s="31" t="n"/>
-      <c r="W99" s="31" t="n"/>
-      <c r="X99" s="31" t="n"/>
+      <c r="S99" s="30" t="n"/>
+      <c r="T99" s="30" t="n"/>
+      <c r="U99" s="30" t="n"/>
+      <c r="V99" s="30" t="n"/>
+      <c r="W99" s="30" t="n"/>
+      <c r="X99" s="30" t="n"/>
     </row>
     <row r="100" ht="13.5" customHeight="1" thickBot="1">
       <c r="A100" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B100" s="30" t="n"/>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
           <t>17.04.2023</t>
@@ -7804,8 +8189,8 @@
       <c r="E100" s="23" t="n">
         <v>1948</v>
       </c>
-      <c r="F100" s="31" t="n"/>
-      <c r="G100" s="32" t="n"/>
+      <c r="F100" s="30" t="n"/>
+      <c r="G100" s="31" t="n"/>
       <c r="H100" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7831,7 +8216,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M100" s="31" t="n"/>
+      <c r="M100" s="30" t="n"/>
       <c r="N100" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -7842,23 +8227,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P100" s="31" t="n"/>
-      <c r="Q100" s="31" t="n"/>
+      <c r="P100" s="30" t="n"/>
+      <c r="Q100" s="30" t="n"/>
       <c r="R100" s="25" t="n">
         <v>38.29</v>
       </c>
-      <c r="S100" s="31" t="n"/>
-      <c r="T100" s="31" t="n"/>
-      <c r="U100" s="31" t="n"/>
-      <c r="V100" s="31" t="n"/>
-      <c r="W100" s="31" t="n"/>
-      <c r="X100" s="31" t="n"/>
+      <c r="S100" s="30" t="n"/>
+      <c r="T100" s="30" t="n"/>
+      <c r="U100" s="30" t="n"/>
+      <c r="V100" s="30" t="n"/>
+      <c r="W100" s="30" t="n"/>
+      <c r="X100" s="30" t="n"/>
     </row>
     <row r="101" ht="13.5" customHeight="1" thickBot="1">
       <c r="A101" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B101" s="30" t="n"/>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
           <t>17.04.2023</t>
@@ -7877,7 +8266,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G101" s="32" t="n"/>
+      <c r="G101" s="31" t="n"/>
       <c r="H101" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -7931,18 +8320,22 @@
       <c r="R101" s="25" t="n">
         <v>32.24</v>
       </c>
-      <c r="S101" s="31" t="n"/>
-      <c r="T101" s="31" t="n"/>
-      <c r="U101" s="31" t="n"/>
-      <c r="V101" s="31" t="n"/>
-      <c r="W101" s="31" t="n"/>
-      <c r="X101" s="31" t="n"/>
+      <c r="S101" s="30" t="n"/>
+      <c r="T101" s="30" t="n"/>
+      <c r="U101" s="30" t="n"/>
+      <c r="V101" s="30" t="n"/>
+      <c r="W101" s="30" t="n"/>
+      <c r="X101" s="30" t="n"/>
     </row>
     <row r="102" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B102" s="30" t="n"/>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
           <t>17.04.2023</t>
@@ -7959,7 +8352,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G102" s="32" t="n"/>
+      <c r="G102" s="31" t="n"/>
       <c r="H102" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8000,7 +8393,7 @@
           <t>ООО "Контрагент № 22"</t>
         </is>
       </c>
-      <c r="P102" s="31" t="n"/>
+      <c r="P102" s="30" t="n"/>
       <c r="Q102" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -8015,16 +8408,20 @@
       <c r="T102" s="5" t="n">
         <v>10038</v>
       </c>
-      <c r="U102" s="31" t="n"/>
-      <c r="V102" s="31" t="n"/>
-      <c r="W102" s="31" t="n"/>
-      <c r="X102" s="31" t="n"/>
+      <c r="U102" s="30" t="n"/>
+      <c r="V102" s="30" t="n"/>
+      <c r="W102" s="30" t="n"/>
+      <c r="X102" s="30" t="n"/>
     </row>
     <row r="103" ht="13.5" customHeight="1" thickBot="1">
       <c r="A103" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="30" t="n"/>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
           <t>17.04.2023</t>
@@ -8038,8 +8435,8 @@
       <c r="E103" s="23" t="n">
         <v>1958</v>
       </c>
-      <c r="F103" s="31" t="n"/>
-      <c r="G103" s="32" t="n"/>
+      <c r="F103" s="30" t="n"/>
+      <c r="G103" s="31" t="n"/>
       <c r="H103" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8065,7 +8462,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M103" s="31" t="n"/>
+      <c r="M103" s="30" t="n"/>
       <c r="N103" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -8076,23 +8473,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P103" s="31" t="n"/>
-      <c r="Q103" s="31" t="n"/>
+      <c r="P103" s="30" t="n"/>
+      <c r="Q103" s="30" t="n"/>
       <c r="R103" s="25" t="n">
         <v>41.37</v>
       </c>
-      <c r="S103" s="31" t="n"/>
-      <c r="T103" s="31" t="n"/>
-      <c r="U103" s="31" t="n"/>
-      <c r="V103" s="31" t="n"/>
-      <c r="W103" s="31" t="n"/>
-      <c r="X103" s="31" t="n"/>
+      <c r="S103" s="30" t="n"/>
+      <c r="T103" s="30" t="n"/>
+      <c r="U103" s="30" t="n"/>
+      <c r="V103" s="30" t="n"/>
+      <c r="W103" s="30" t="n"/>
+      <c r="X103" s="30" t="n"/>
     </row>
     <row r="104" ht="13.5" customHeight="1" thickBot="1">
       <c r="A104" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B104" s="30" t="n"/>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8111,7 +8512,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G104" s="32" t="n"/>
+      <c r="G104" s="31" t="n"/>
       <c r="H104" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -8165,18 +8566,22 @@
       <c r="R104" s="25" t="n">
         <v>30.84</v>
       </c>
-      <c r="S104" s="31" t="n"/>
-      <c r="T104" s="31" t="n"/>
-      <c r="U104" s="31" t="n"/>
-      <c r="V104" s="31" t="n"/>
-      <c r="W104" s="31" t="n"/>
-      <c r="X104" s="31" t="n"/>
+      <c r="S104" s="30" t="n"/>
+      <c r="T104" s="30" t="n"/>
+      <c r="U104" s="30" t="n"/>
+      <c r="V104" s="30" t="n"/>
+      <c r="W104" s="30" t="n"/>
+      <c r="X104" s="30" t="n"/>
     </row>
     <row r="105" ht="13.5" customHeight="1" thickBot="1">
       <c r="A105" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B105" s="30" t="n"/>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8190,8 +8595,8 @@
       <c r="E105" s="23" t="n">
         <v>2001</v>
       </c>
-      <c r="F105" s="31" t="n"/>
-      <c r="G105" s="32" t="n"/>
+      <c r="F105" s="30" t="n"/>
+      <c r="G105" s="31" t="n"/>
       <c r="H105" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8217,7 +8622,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M105" s="31" t="n"/>
+      <c r="M105" s="30" t="n"/>
       <c r="N105" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -8228,23 +8633,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P105" s="31" t="n"/>
-      <c r="Q105" s="31" t="n"/>
+      <c r="P105" s="30" t="n"/>
+      <c r="Q105" s="30" t="n"/>
       <c r="R105" s="25" t="n">
         <v>36.59</v>
       </c>
-      <c r="S105" s="31" t="n"/>
-      <c r="T105" s="31" t="n"/>
-      <c r="U105" s="31" t="n"/>
-      <c r="V105" s="31" t="n"/>
-      <c r="W105" s="31" t="n"/>
-      <c r="X105" s="31" t="n"/>
+      <c r="S105" s="30" t="n"/>
+      <c r="T105" s="30" t="n"/>
+      <c r="U105" s="30" t="n"/>
+      <c r="V105" s="30" t="n"/>
+      <c r="W105" s="30" t="n"/>
+      <c r="X105" s="30" t="n"/>
     </row>
     <row r="106" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B106" s="30" t="n"/>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8258,8 +8667,8 @@
       <c r="E106" s="23" t="n">
         <v>1977</v>
       </c>
-      <c r="F106" s="31" t="n"/>
-      <c r="G106" s="32" t="n"/>
+      <c r="F106" s="30" t="n"/>
+      <c r="G106" s="31" t="n"/>
       <c r="H106" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8285,7 +8694,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M106" s="31" t="n"/>
+      <c r="M106" s="30" t="n"/>
       <c r="N106" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -8296,23 +8705,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P106" s="31" t="n"/>
-      <c r="Q106" s="31" t="n"/>
+      <c r="P106" s="30" t="n"/>
+      <c r="Q106" s="30" t="n"/>
       <c r="R106" s="25" t="n">
         <v>38.46</v>
       </c>
-      <c r="S106" s="31" t="n"/>
-      <c r="T106" s="31" t="n"/>
-      <c r="U106" s="31" t="n"/>
-      <c r="V106" s="31" t="n"/>
-      <c r="W106" s="31" t="n"/>
-      <c r="X106" s="31" t="n"/>
+      <c r="S106" s="30" t="n"/>
+      <c r="T106" s="30" t="n"/>
+      <c r="U106" s="30" t="n"/>
+      <c r="V106" s="30" t="n"/>
+      <c r="W106" s="30" t="n"/>
+      <c r="X106" s="30" t="n"/>
     </row>
     <row r="107" ht="13.5" customHeight="1" thickBot="1">
       <c r="A107" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B107" s="30" t="n"/>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8326,8 +8739,8 @@
       <c r="E107" s="23" t="n">
         <v>2000</v>
       </c>
-      <c r="F107" s="31" t="n"/>
-      <c r="G107" s="32" t="n"/>
+      <c r="F107" s="30" t="n"/>
+      <c r="G107" s="31" t="n"/>
       <c r="H107" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8353,7 +8766,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M107" s="31" t="n"/>
+      <c r="M107" s="30" t="n"/>
       <c r="N107" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 12"</t>
@@ -8364,23 +8777,27 @@
           <t>ООО "Контрагент № 12"</t>
         </is>
       </c>
-      <c r="P107" s="31" t="n"/>
-      <c r="Q107" s="31" t="n"/>
+      <c r="P107" s="30" t="n"/>
+      <c r="Q107" s="30" t="n"/>
       <c r="R107" s="25" t="n">
         <v>40.22</v>
       </c>
-      <c r="S107" s="31" t="n"/>
-      <c r="T107" s="31" t="n"/>
-      <c r="U107" s="31" t="n"/>
-      <c r="V107" s="31" t="n"/>
-      <c r="W107" s="31" t="n"/>
-      <c r="X107" s="31" t="n"/>
+      <c r="S107" s="30" t="n"/>
+      <c r="T107" s="30" t="n"/>
+      <c r="U107" s="30" t="n"/>
+      <c r="V107" s="30" t="n"/>
+      <c r="W107" s="30" t="n"/>
+      <c r="X107" s="30" t="n"/>
     </row>
     <row r="108" ht="13.5" customHeight="1" thickBot="1">
       <c r="A108" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B108" s="30" t="n"/>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8394,8 +8811,8 @@
       <c r="E108" s="23" t="n">
         <v>1998</v>
       </c>
-      <c r="F108" s="31" t="n"/>
-      <c r="G108" s="32" t="n"/>
+      <c r="F108" s="30" t="n"/>
+      <c r="G108" s="31" t="n"/>
       <c r="H108" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8421,7 +8838,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M108" s="31" t="n"/>
+      <c r="M108" s="30" t="n"/>
       <c r="N108" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 11"</t>
@@ -8432,23 +8849,27 @@
           <t>ООО "Контрагент № 11"</t>
         </is>
       </c>
-      <c r="P108" s="31" t="n"/>
-      <c r="Q108" s="31" t="n"/>
+      <c r="P108" s="30" t="n"/>
+      <c r="Q108" s="30" t="n"/>
       <c r="R108" s="25" t="n">
         <v>36.17</v>
       </c>
-      <c r="S108" s="31" t="n"/>
-      <c r="T108" s="31" t="n"/>
-      <c r="U108" s="31" t="n"/>
-      <c r="V108" s="31" t="n"/>
-      <c r="W108" s="31" t="n"/>
-      <c r="X108" s="31" t="n"/>
+      <c r="S108" s="30" t="n"/>
+      <c r="T108" s="30" t="n"/>
+      <c r="U108" s="30" t="n"/>
+      <c r="V108" s="30" t="n"/>
+      <c r="W108" s="30" t="n"/>
+      <c r="X108" s="30" t="n"/>
     </row>
     <row r="109" ht="13.5" customHeight="1" thickBot="1">
       <c r="A109" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B109" s="30" t="n"/>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8462,8 +8883,8 @@
       <c r="E109" s="23" t="n">
         <v>1992</v>
       </c>
-      <c r="F109" s="31" t="n"/>
-      <c r="G109" s="32" t="n"/>
+      <c r="F109" s="30" t="n"/>
+      <c r="G109" s="31" t="n"/>
       <c r="H109" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8489,7 +8910,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M109" s="31" t="n"/>
+      <c r="M109" s="30" t="n"/>
       <c r="N109" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -8500,23 +8921,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P109" s="31" t="n"/>
-      <c r="Q109" s="31" t="n"/>
+      <c r="P109" s="30" t="n"/>
+      <c r="Q109" s="30" t="n"/>
       <c r="R109" s="25" t="n">
         <v>37.74</v>
       </c>
-      <c r="S109" s="31" t="n"/>
-      <c r="T109" s="31" t="n"/>
-      <c r="U109" s="31" t="n"/>
-      <c r="V109" s="31" t="n"/>
-      <c r="W109" s="31" t="n"/>
-      <c r="X109" s="31" t="n"/>
+      <c r="S109" s="30" t="n"/>
+      <c r="T109" s="30" t="n"/>
+      <c r="U109" s="30" t="n"/>
+      <c r="V109" s="30" t="n"/>
+      <c r="W109" s="30" t="n"/>
+      <c r="X109" s="30" t="n"/>
     </row>
     <row r="110" ht="13.5" customHeight="1" thickBot="1">
       <c r="A110" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B110" s="30" t="n"/>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>18.04.2023</t>
@@ -8533,7 +8958,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G110" s="32" t="n"/>
+      <c r="G110" s="31" t="n"/>
       <c r="H110" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8574,7 +8999,7 @@
           <t>ООО "Контрагент № 21"</t>
         </is>
       </c>
-      <c r="P110" s="31" t="n"/>
+      <c r="P110" s="30" t="n"/>
       <c r="Q110" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -8589,16 +9014,20 @@
       <c r="T110" s="5" t="n">
         <v>9282</v>
       </c>
-      <c r="U110" s="31" t="n"/>
-      <c r="V110" s="31" t="n"/>
-      <c r="W110" s="31" t="n"/>
-      <c r="X110" s="31" t="n"/>
+      <c r="U110" s="30" t="n"/>
+      <c r="V110" s="30" t="n"/>
+      <c r="W110" s="30" t="n"/>
+      <c r="X110" s="30" t="n"/>
     </row>
     <row r="111" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B111" s="30" t="n"/>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
           <t>19.04.2023</t>
@@ -8612,8 +9041,8 @@
       <c r="E111" s="23" t="n">
         <v>2014</v>
       </c>
-      <c r="F111" s="31" t="n"/>
-      <c r="G111" s="32" t="n"/>
+      <c r="F111" s="30" t="n"/>
+      <c r="G111" s="31" t="n"/>
       <c r="H111" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8639,7 +9068,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M111" s="31" t="n"/>
+      <c r="M111" s="30" t="n"/>
       <c r="N111" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -8650,23 +9079,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P111" s="31" t="n"/>
-      <c r="Q111" s="31" t="n"/>
+      <c r="P111" s="30" t="n"/>
+      <c r="Q111" s="30" t="n"/>
       <c r="R111" s="25" t="n">
         <v>38.51</v>
       </c>
-      <c r="S111" s="31" t="n"/>
-      <c r="T111" s="31" t="n"/>
-      <c r="U111" s="31" t="n"/>
-      <c r="V111" s="31" t="n"/>
-      <c r="W111" s="31" t="n"/>
-      <c r="X111" s="31" t="n"/>
+      <c r="S111" s="30" t="n"/>
+      <c r="T111" s="30" t="n"/>
+      <c r="U111" s="30" t="n"/>
+      <c r="V111" s="30" t="n"/>
+      <c r="W111" s="30" t="n"/>
+      <c r="X111" s="30" t="n"/>
     </row>
     <row r="112" ht="13.5" customHeight="1" thickBot="1">
       <c r="A112" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B112" s="30" t="n"/>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
           <t>19.04.2023</t>
@@ -8680,8 +9113,8 @@
       <c r="E112" s="23" t="n">
         <v>2040</v>
       </c>
-      <c r="F112" s="31" t="n"/>
-      <c r="G112" s="32" t="n"/>
+      <c r="F112" s="30" t="n"/>
+      <c r="G112" s="31" t="n"/>
       <c r="H112" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8707,7 +9140,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M112" s="31" t="n"/>
+      <c r="M112" s="30" t="n"/>
       <c r="N112" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -8718,23 +9151,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P112" s="31" t="n"/>
-      <c r="Q112" s="31" t="n"/>
+      <c r="P112" s="30" t="n"/>
+      <c r="Q112" s="30" t="n"/>
       <c r="R112" s="25" t="n">
         <v>37.67</v>
       </c>
-      <c r="S112" s="31" t="n"/>
-      <c r="T112" s="31" t="n"/>
-      <c r="U112" s="31" t="n"/>
-      <c r="V112" s="31" t="n"/>
-      <c r="W112" s="31" t="n"/>
-      <c r="X112" s="31" t="n"/>
+      <c r="S112" s="30" t="n"/>
+      <c r="T112" s="30" t="n"/>
+      <c r="U112" s="30" t="n"/>
+      <c r="V112" s="30" t="n"/>
+      <c r="W112" s="30" t="n"/>
+      <c r="X112" s="30" t="n"/>
     </row>
     <row r="113" ht="13.5" customHeight="1" thickBot="1">
       <c r="A113" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B113" s="30" t="n"/>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>19.04.2023</t>
@@ -8753,7 +9190,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G113" s="32" t="n"/>
+      <c r="G113" s="31" t="n"/>
       <c r="H113" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -8807,18 +9244,22 @@
       <c r="R113" s="25" t="n">
         <v>31.78</v>
       </c>
-      <c r="S113" s="31" t="n"/>
-      <c r="T113" s="31" t="n"/>
-      <c r="U113" s="31" t="n"/>
-      <c r="V113" s="31" t="n"/>
-      <c r="W113" s="31" t="n"/>
-      <c r="X113" s="31" t="n"/>
+      <c r="S113" s="30" t="n"/>
+      <c r="T113" s="30" t="n"/>
+      <c r="U113" s="30" t="n"/>
+      <c r="V113" s="30" t="n"/>
+      <c r="W113" s="30" t="n"/>
+      <c r="X113" s="30" t="n"/>
     </row>
     <row r="114" ht="13.5" customHeight="1" thickBot="1">
       <c r="A114" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B114" s="30" t="n"/>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>19.04.2023</t>
@@ -8835,7 +9276,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G114" s="32" t="n"/>
+      <c r="G114" s="31" t="n"/>
       <c r="H114" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8876,7 +9317,7 @@
           <t>ООО "Контрагент № 23"</t>
         </is>
       </c>
-      <c r="P114" s="31" t="n"/>
+      <c r="P114" s="30" t="n"/>
       <c r="Q114" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -8891,16 +9332,20 @@
       <c r="T114" s="5" t="n">
         <v>10683</v>
       </c>
-      <c r="U114" s="31" t="n"/>
-      <c r="V114" s="31" t="n"/>
-      <c r="W114" s="31" t="n"/>
-      <c r="X114" s="31" t="n"/>
+      <c r="U114" s="30" t="n"/>
+      <c r="V114" s="30" t="n"/>
+      <c r="W114" s="30" t="n"/>
+      <c r="X114" s="30" t="n"/>
     </row>
     <row r="115" ht="13.5" customHeight="1" thickBot="1">
       <c r="A115" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B115" s="30" t="n"/>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>19.04.2023</t>
@@ -8914,8 +9359,8 @@
       <c r="E115" s="23" t="n">
         <v>2059</v>
       </c>
-      <c r="F115" s="31" t="n"/>
-      <c r="G115" s="32" t="n"/>
+      <c r="F115" s="30" t="n"/>
+      <c r="G115" s="31" t="n"/>
       <c r="H115" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8941,7 +9386,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M115" s="31" t="n"/>
+      <c r="M115" s="30" t="n"/>
       <c r="N115" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -8952,23 +9397,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P115" s="31" t="n"/>
-      <c r="Q115" s="31" t="n"/>
+      <c r="P115" s="30" t="n"/>
+      <c r="Q115" s="30" t="n"/>
       <c r="R115" s="25" t="n">
         <v>32.9</v>
       </c>
-      <c r="S115" s="31" t="n"/>
-      <c r="T115" s="31" t="n"/>
-      <c r="U115" s="31" t="n"/>
-      <c r="V115" s="31" t="n"/>
-      <c r="W115" s="31" t="n"/>
-      <c r="X115" s="31" t="n"/>
+      <c r="S115" s="30" t="n"/>
+      <c r="T115" s="30" t="n"/>
+      <c r="U115" s="30" t="n"/>
+      <c r="V115" s="30" t="n"/>
+      <c r="W115" s="30" t="n"/>
+      <c r="X115" s="30" t="n"/>
     </row>
     <row r="116" ht="13.5" customHeight="1" thickBot="1">
       <c r="A116" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B116" s="30" t="n"/>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
           <t>20.04.2023</t>
@@ -8982,8 +9431,8 @@
       <c r="E116" s="23" t="n">
         <v>2070</v>
       </c>
-      <c r="F116" s="31" t="n"/>
-      <c r="G116" s="32" t="n"/>
+      <c r="F116" s="30" t="n"/>
+      <c r="G116" s="31" t="n"/>
       <c r="H116" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9009,7 +9458,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M116" s="31" t="n"/>
+      <c r="M116" s="30" t="n"/>
       <c r="N116" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 17"</t>
@@ -9020,23 +9469,27 @@
           <t>ООО "Контрагент № 17"</t>
         </is>
       </c>
-      <c r="P116" s="31" t="n"/>
-      <c r="Q116" s="31" t="n"/>
+      <c r="P116" s="30" t="n"/>
+      <c r="Q116" s="30" t="n"/>
       <c r="R116" s="25" t="n">
         <v>37.06</v>
       </c>
-      <c r="S116" s="31" t="n"/>
-      <c r="T116" s="31" t="n"/>
-      <c r="U116" s="31" t="n"/>
-      <c r="V116" s="31" t="n"/>
-      <c r="W116" s="31" t="n"/>
-      <c r="X116" s="31" t="n"/>
+      <c r="S116" s="30" t="n"/>
+      <c r="T116" s="30" t="n"/>
+      <c r="U116" s="30" t="n"/>
+      <c r="V116" s="30" t="n"/>
+      <c r="W116" s="30" t="n"/>
+      <c r="X116" s="30" t="n"/>
     </row>
     <row r="117" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B117" s="30" t="n"/>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>20.04.2023</t>
@@ -9050,8 +9503,8 @@
       <c r="E117" s="23" t="n">
         <v>2095</v>
       </c>
-      <c r="F117" s="31" t="n"/>
-      <c r="G117" s="32" t="n"/>
+      <c r="F117" s="30" t="n"/>
+      <c r="G117" s="31" t="n"/>
       <c r="H117" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9077,7 +9530,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M117" s="31" t="n"/>
+      <c r="M117" s="30" t="n"/>
       <c r="N117" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 16"</t>
@@ -9088,23 +9541,27 @@
           <t>ООО "Контрагент № 16"</t>
         </is>
       </c>
-      <c r="P117" s="31" t="n"/>
-      <c r="Q117" s="31" t="n"/>
+      <c r="P117" s="30" t="n"/>
+      <c r="Q117" s="30" t="n"/>
       <c r="R117" s="25" t="n">
         <v>22.4</v>
       </c>
-      <c r="S117" s="31" t="n"/>
-      <c r="T117" s="31" t="n"/>
-      <c r="U117" s="31" t="n"/>
-      <c r="V117" s="31" t="n"/>
-      <c r="W117" s="31" t="n"/>
-      <c r="X117" s="31" t="n"/>
+      <c r="S117" s="30" t="n"/>
+      <c r="T117" s="30" t="n"/>
+      <c r="U117" s="30" t="n"/>
+      <c r="V117" s="30" t="n"/>
+      <c r="W117" s="30" t="n"/>
+      <c r="X117" s="30" t="n"/>
     </row>
     <row r="118" ht="13.5" customHeight="1" thickBot="1">
       <c r="A118" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B118" s="30" t="n"/>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
           <t>20.04.2023</t>
@@ -9123,7 +9580,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G118" s="32" t="n"/>
+      <c r="G118" s="31" t="n"/>
       <c r="H118" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -9177,18 +9634,22 @@
       <c r="R118" s="25" t="n">
         <v>31.08</v>
       </c>
-      <c r="S118" s="31" t="n"/>
-      <c r="T118" s="31" t="n"/>
-      <c r="U118" s="31" t="n"/>
-      <c r="V118" s="31" t="n"/>
-      <c r="W118" s="31" t="n"/>
-      <c r="X118" s="31" t="n"/>
+      <c r="S118" s="30" t="n"/>
+      <c r="T118" s="30" t="n"/>
+      <c r="U118" s="30" t="n"/>
+      <c r="V118" s="30" t="n"/>
+      <c r="W118" s="30" t="n"/>
+      <c r="X118" s="30" t="n"/>
     </row>
     <row r="119" ht="13.5" customHeight="1" thickBot="1">
       <c r="A119" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B119" s="30" t="n"/>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
           <t>20.04.2023</t>
@@ -9207,7 +9668,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G119" s="32" t="n"/>
+      <c r="G119" s="31" t="n"/>
       <c r="H119" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -9261,18 +9722,22 @@
       <c r="R119" s="25" t="n">
         <v>31.04</v>
       </c>
-      <c r="S119" s="31" t="n"/>
-      <c r="T119" s="31" t="n"/>
-      <c r="U119" s="31" t="n"/>
-      <c r="V119" s="31" t="n"/>
-      <c r="W119" s="31" t="n"/>
-      <c r="X119" s="31" t="n"/>
+      <c r="S119" s="30" t="n"/>
+      <c r="T119" s="30" t="n"/>
+      <c r="U119" s="30" t="n"/>
+      <c r="V119" s="30" t="n"/>
+      <c r="W119" s="30" t="n"/>
+      <c r="X119" s="30" t="n"/>
     </row>
     <row r="120" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B120" s="30" t="n"/>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
           <t>21.04.2023</t>
@@ -9289,7 +9754,7 @@
           <t>ООО "Наша Третья Компания"</t>
         </is>
       </c>
-      <c r="G120" s="32" t="n"/>
+      <c r="G120" s="31" t="n"/>
       <c r="H120" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9330,7 +9795,7 @@
           <t>ООО "Контрагент № 21"</t>
         </is>
       </c>
-      <c r="P120" s="31" t="n"/>
+      <c r="P120" s="30" t="n"/>
       <c r="Q120" s="23" t="inlineStr">
         <is>
           <t>42,5-Б</t>
@@ -9345,16 +9810,20 @@
       <c r="T120" s="5" t="n">
         <v>9510</v>
       </c>
-      <c r="U120" s="31" t="n"/>
-      <c r="V120" s="31" t="n"/>
-      <c r="W120" s="31" t="n"/>
-      <c r="X120" s="31" t="n"/>
+      <c r="U120" s="30" t="n"/>
+      <c r="V120" s="30" t="n"/>
+      <c r="W120" s="30" t="n"/>
+      <c r="X120" s="30" t="n"/>
     </row>
     <row r="121" ht="13.5" customHeight="1" thickBot="1">
       <c r="A121" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B121" s="30" t="n"/>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
           <t>21.04.2023</t>
@@ -9373,7 +9842,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G121" s="32" t="n"/>
+      <c r="G121" s="31" t="n"/>
       <c r="H121" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -9427,18 +9896,22 @@
       <c r="R121" s="25" t="n">
         <v>31.3</v>
       </c>
-      <c r="S121" s="31" t="n"/>
-      <c r="T121" s="31" t="n"/>
-      <c r="U121" s="31" t="n"/>
-      <c r="V121" s="31" t="n"/>
-      <c r="W121" s="31" t="n"/>
-      <c r="X121" s="31" t="n"/>
+      <c r="S121" s="30" t="n"/>
+      <c r="T121" s="30" t="n"/>
+      <c r="U121" s="30" t="n"/>
+      <c r="V121" s="30" t="n"/>
+      <c r="W121" s="30" t="n"/>
+      <c r="X121" s="30" t="n"/>
     </row>
     <row r="122" ht="13.5" customHeight="1" thickBot="1">
       <c r="A122" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B122" s="30" t="n"/>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
           <t>21.04.2023</t>
@@ -9457,7 +9930,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G122" s="32" t="n"/>
+      <c r="G122" s="31" t="n"/>
       <c r="H122" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -9511,18 +9984,22 @@
       <c r="R122" s="25" t="n">
         <v>30.8</v>
       </c>
-      <c r="S122" s="31" t="n"/>
-      <c r="T122" s="31" t="n"/>
-      <c r="U122" s="31" t="n"/>
-      <c r="V122" s="31" t="n"/>
-      <c r="W122" s="31" t="n"/>
-      <c r="X122" s="31" t="n"/>
+      <c r="S122" s="30" t="n"/>
+      <c r="T122" s="30" t="n"/>
+      <c r="U122" s="30" t="n"/>
+      <c r="V122" s="30" t="n"/>
+      <c r="W122" s="30" t="n"/>
+      <c r="X122" s="30" t="n"/>
     </row>
     <row r="123" ht="13.5" customHeight="1" thickBot="1">
       <c r="A123" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B123" s="30" t="n"/>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
           <t>24.04.2023</t>
@@ -9541,7 +10018,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G123" s="32" t="n"/>
+      <c r="G123" s="31" t="n"/>
       <c r="H123" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -9595,18 +10072,22 @@
       <c r="R123" s="25" t="n">
         <v>30.08</v>
       </c>
-      <c r="S123" s="31" t="n"/>
-      <c r="T123" s="31" t="n"/>
-      <c r="U123" s="31" t="n"/>
-      <c r="V123" s="31" t="n"/>
-      <c r="W123" s="31" t="n"/>
-      <c r="X123" s="31" t="n"/>
+      <c r="S123" s="30" t="n"/>
+      <c r="T123" s="30" t="n"/>
+      <c r="U123" s="30" t="n"/>
+      <c r="V123" s="30" t="n"/>
+      <c r="W123" s="30" t="n"/>
+      <c r="X123" s="30" t="n"/>
     </row>
     <row r="124" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B124" s="30" t="n"/>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
           <t>24.04.2023</t>
@@ -9620,8 +10101,8 @@
       <c r="E124" s="23" t="n">
         <v>2243</v>
       </c>
-      <c r="F124" s="31" t="n"/>
-      <c r="G124" s="32" t="n"/>
+      <c r="F124" s="30" t="n"/>
+      <c r="G124" s="31" t="n"/>
       <c r="H124" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9647,7 +10128,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M124" s="31" t="n"/>
+      <c r="M124" s="30" t="n"/>
       <c r="N124" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 19"</t>
@@ -9658,23 +10139,27 @@
           <t>ООО "Контрагент № 19"</t>
         </is>
       </c>
-      <c r="P124" s="31" t="n"/>
-      <c r="Q124" s="31" t="n"/>
+      <c r="P124" s="30" t="n"/>
+      <c r="Q124" s="30" t="n"/>
       <c r="R124" s="25" t="n">
         <v>35.5</v>
       </c>
-      <c r="S124" s="31" t="n"/>
-      <c r="T124" s="31" t="n"/>
-      <c r="U124" s="31" t="n"/>
-      <c r="V124" s="31" t="n"/>
-      <c r="W124" s="31" t="n"/>
-      <c r="X124" s="31" t="n"/>
+      <c r="S124" s="30" t="n"/>
+      <c r="T124" s="30" t="n"/>
+      <c r="U124" s="30" t="n"/>
+      <c r="V124" s="30" t="n"/>
+      <c r="W124" s="30" t="n"/>
+      <c r="X124" s="30" t="n"/>
     </row>
     <row r="125" ht="13.5" customHeight="1" thickBot="1">
       <c r="A125" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B125" s="30" t="n"/>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
           <t>24.04.2023</t>
@@ -9688,8 +10173,8 @@
       <c r="E125" s="23" t="n">
         <v>2236</v>
       </c>
-      <c r="F125" s="31" t="n"/>
-      <c r="G125" s="32" t="n"/>
+      <c r="F125" s="30" t="n"/>
+      <c r="G125" s="31" t="n"/>
       <c r="H125" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9715,7 +10200,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M125" s="31" t="n"/>
+      <c r="M125" s="30" t="n"/>
       <c r="N125" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -9726,23 +10211,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P125" s="31" t="n"/>
-      <c r="Q125" s="31" t="n"/>
+      <c r="P125" s="30" t="n"/>
+      <c r="Q125" s="30" t="n"/>
       <c r="R125" s="25" t="n">
         <v>37.72</v>
       </c>
-      <c r="S125" s="31" t="n"/>
-      <c r="T125" s="31" t="n"/>
-      <c r="U125" s="31" t="n"/>
-      <c r="V125" s="31" t="n"/>
-      <c r="W125" s="31" t="n"/>
-      <c r="X125" s="31" t="n"/>
+      <c r="S125" s="30" t="n"/>
+      <c r="T125" s="30" t="n"/>
+      <c r="U125" s="30" t="n"/>
+      <c r="V125" s="30" t="n"/>
+      <c r="W125" s="30" t="n"/>
+      <c r="X125" s="30" t="n"/>
     </row>
     <row r="126" ht="13.5" customHeight="1" thickBot="1">
       <c r="A126" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B126" s="30" t="n"/>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
           <t>24.04.2023</t>
@@ -9756,8 +10245,8 @@
       <c r="E126" s="23" t="n">
         <v>2232</v>
       </c>
-      <c r="F126" s="31" t="n"/>
-      <c r="G126" s="32" t="n"/>
+      <c r="F126" s="30" t="n"/>
+      <c r="G126" s="31" t="n"/>
       <c r="H126" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9783,7 +10272,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M126" s="31" t="n"/>
+      <c r="M126" s="30" t="n"/>
       <c r="N126" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -9794,23 +10283,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P126" s="31" t="n"/>
-      <c r="Q126" s="31" t="n"/>
+      <c r="P126" s="30" t="n"/>
+      <c r="Q126" s="30" t="n"/>
       <c r="R126" s="25" t="n">
         <v>38.02</v>
       </c>
-      <c r="S126" s="31" t="n"/>
-      <c r="T126" s="31" t="n"/>
-      <c r="U126" s="31" t="n"/>
-      <c r="V126" s="31" t="n"/>
-      <c r="W126" s="31" t="n"/>
-      <c r="X126" s="31" t="n"/>
+      <c r="S126" s="30" t="n"/>
+      <c r="T126" s="30" t="n"/>
+      <c r="U126" s="30" t="n"/>
+      <c r="V126" s="30" t="n"/>
+      <c r="W126" s="30" t="n"/>
+      <c r="X126" s="30" t="n"/>
     </row>
     <row r="127" ht="13.5" customHeight="1" thickBot="1">
       <c r="A127" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B127" s="30" t="n"/>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
           <t>24.04.2023</t>
@@ -9824,8 +10317,8 @@
       <c r="E127" s="23" t="n">
         <v>2209</v>
       </c>
-      <c r="F127" s="31" t="n"/>
-      <c r="G127" s="32" t="n"/>
+      <c r="F127" s="30" t="n"/>
+      <c r="G127" s="31" t="n"/>
       <c r="H127" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9851,7 +10344,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M127" s="31" t="n"/>
+      <c r="M127" s="30" t="n"/>
       <c r="N127" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -9862,23 +10355,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P127" s="31" t="n"/>
-      <c r="Q127" s="31" t="n"/>
+      <c r="P127" s="30" t="n"/>
+      <c r="Q127" s="30" t="n"/>
       <c r="R127" s="25" t="n">
         <v>37.26</v>
       </c>
-      <c r="S127" s="31" t="n"/>
-      <c r="T127" s="31" t="n"/>
-      <c r="U127" s="31" t="n"/>
-      <c r="V127" s="31" t="n"/>
-      <c r="W127" s="31" t="n"/>
-      <c r="X127" s="31" t="n"/>
+      <c r="S127" s="30" t="n"/>
+      <c r="T127" s="30" t="n"/>
+      <c r="U127" s="30" t="n"/>
+      <c r="V127" s="30" t="n"/>
+      <c r="W127" s="30" t="n"/>
+      <c r="X127" s="30" t="n"/>
     </row>
     <row r="128" ht="13.5" customHeight="1" thickBot="1">
       <c r="A128" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B128" s="30" t="n"/>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>25.04.2023</t>
@@ -9892,8 +10389,8 @@
       <c r="E128" s="23" t="n">
         <v>2267</v>
       </c>
-      <c r="F128" s="31" t="n"/>
-      <c r="G128" s="32" t="n"/>
+      <c r="F128" s="30" t="n"/>
+      <c r="G128" s="31" t="n"/>
       <c r="H128" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9919,7 +10416,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M128" s="31" t="n"/>
+      <c r="M128" s="30" t="n"/>
       <c r="N128" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -9930,23 +10427,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P128" s="31" t="n"/>
-      <c r="Q128" s="31" t="n"/>
+      <c r="P128" s="30" t="n"/>
+      <c r="Q128" s="30" t="n"/>
       <c r="R128" s="25" t="n">
         <v>37.49</v>
       </c>
-      <c r="S128" s="31" t="n"/>
-      <c r="T128" s="31" t="n"/>
-      <c r="U128" s="31" t="n"/>
-      <c r="V128" s="31" t="n"/>
-      <c r="W128" s="31" t="n"/>
-      <c r="X128" s="31" t="n"/>
+      <c r="S128" s="30" t="n"/>
+      <c r="T128" s="30" t="n"/>
+      <c r="U128" s="30" t="n"/>
+      <c r="V128" s="30" t="n"/>
+      <c r="W128" s="30" t="n"/>
+      <c r="X128" s="30" t="n"/>
     </row>
     <row r="129" ht="13.5" customHeight="1" thickBot="1">
       <c r="A129" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B129" s="30" t="n"/>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
           <t>25.04.2023</t>
@@ -9960,8 +10461,8 @@
       <c r="E129" s="23" t="n">
         <v>2298</v>
       </c>
-      <c r="F129" s="31" t="n"/>
-      <c r="G129" s="32" t="n"/>
+      <c r="F129" s="30" t="n"/>
+      <c r="G129" s="31" t="n"/>
       <c r="H129" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9987,7 +10488,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M129" s="31" t="n"/>
+      <c r="M129" s="30" t="n"/>
       <c r="N129" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -9998,23 +10499,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P129" s="31" t="n"/>
-      <c r="Q129" s="31" t="n"/>
+      <c r="P129" s="30" t="n"/>
+      <c r="Q129" s="30" t="n"/>
       <c r="R129" s="25" t="n">
         <v>36.14</v>
       </c>
-      <c r="S129" s="31" t="n"/>
-      <c r="T129" s="31" t="n"/>
-      <c r="U129" s="31" t="n"/>
-      <c r="V129" s="31" t="n"/>
-      <c r="W129" s="31" t="n"/>
-      <c r="X129" s="31" t="n"/>
+      <c r="S129" s="30" t="n"/>
+      <c r="T129" s="30" t="n"/>
+      <c r="U129" s="30" t="n"/>
+      <c r="V129" s="30" t="n"/>
+      <c r="W129" s="30" t="n"/>
+      <c r="X129" s="30" t="n"/>
     </row>
     <row r="130" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B130" s="30" t="n"/>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
           <t>26.04.2023</t>
@@ -10030,8 +10535,8 @@
           <t>26042023/1</t>
         </is>
       </c>
-      <c r="F130" s="31" t="n"/>
-      <c r="G130" s="32" t="n"/>
+      <c r="F130" s="30" t="n"/>
+      <c r="G130" s="31" t="n"/>
       <c r="H130" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10057,7 +10562,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M130" s="31" t="n"/>
+      <c r="M130" s="30" t="n"/>
       <c r="N130" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 6"</t>
@@ -10068,7 +10573,7 @@
           <t>ООО "Контрагент № 6"</t>
         </is>
       </c>
-      <c r="P130" s="31" t="n"/>
+      <c r="P130" s="30" t="n"/>
       <c r="Q130" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -10077,18 +10582,22 @@
       <c r="R130" s="25" t="n">
         <v>38.5</v>
       </c>
-      <c r="S130" s="31" t="n"/>
-      <c r="T130" s="31" t="n"/>
-      <c r="U130" s="31" t="n"/>
-      <c r="V130" s="31" t="n"/>
-      <c r="W130" s="31" t="n"/>
-      <c r="X130" s="31" t="n"/>
+      <c r="S130" s="30" t="n"/>
+      <c r="T130" s="30" t="n"/>
+      <c r="U130" s="30" t="n"/>
+      <c r="V130" s="30" t="n"/>
+      <c r="W130" s="30" t="n"/>
+      <c r="X130" s="30" t="n"/>
     </row>
     <row r="131" ht="13.5" customHeight="1" thickBot="1">
       <c r="A131" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B131" s="30" t="n"/>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>26.04.2023</t>
@@ -10102,8 +10611,8 @@
       <c r="E131" s="23" t="n">
         <v>2335</v>
       </c>
-      <c r="F131" s="31" t="n"/>
-      <c r="G131" s="32" t="n"/>
+      <c r="F131" s="30" t="n"/>
+      <c r="G131" s="31" t="n"/>
       <c r="H131" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10129,7 +10638,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M131" s="31" t="n"/>
+      <c r="M131" s="30" t="n"/>
       <c r="N131" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 19"</t>
@@ -10140,23 +10649,27 @@
           <t>ООО "Контрагент № 19"</t>
         </is>
       </c>
-      <c r="P131" s="31" t="n"/>
-      <c r="Q131" s="31" t="n"/>
+      <c r="P131" s="30" t="n"/>
+      <c r="Q131" s="30" t="n"/>
       <c r="R131" s="25" t="n">
         <v>39.09</v>
       </c>
-      <c r="S131" s="31" t="n"/>
-      <c r="T131" s="31" t="n"/>
-      <c r="U131" s="31" t="n"/>
-      <c r="V131" s="31" t="n"/>
-      <c r="W131" s="31" t="n"/>
-      <c r="X131" s="31" t="n"/>
+      <c r="S131" s="30" t="n"/>
+      <c r="T131" s="30" t="n"/>
+      <c r="U131" s="30" t="n"/>
+      <c r="V131" s="30" t="n"/>
+      <c r="W131" s="30" t="n"/>
+      <c r="X131" s="30" t="n"/>
     </row>
     <row r="132" ht="13.5" customHeight="1" thickBot="1">
       <c r="A132" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B132" s="30" t="n"/>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>26.04.2023</t>
@@ -10170,8 +10683,8 @@
       <c r="E132" s="23" t="n">
         <v>2313</v>
       </c>
-      <c r="F132" s="31" t="n"/>
-      <c r="G132" s="32" t="n"/>
+      <c r="F132" s="30" t="n"/>
+      <c r="G132" s="31" t="n"/>
       <c r="H132" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10197,7 +10710,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M132" s="31" t="n"/>
+      <c r="M132" s="30" t="n"/>
       <c r="N132" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -10208,23 +10721,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P132" s="31" t="n"/>
-      <c r="Q132" s="31" t="n"/>
+      <c r="P132" s="30" t="n"/>
+      <c r="Q132" s="30" t="n"/>
       <c r="R132" s="25" t="n">
         <v>36.22</v>
       </c>
-      <c r="S132" s="31" t="n"/>
-      <c r="T132" s="31" t="n"/>
-      <c r="U132" s="31" t="n"/>
-      <c r="V132" s="31" t="n"/>
-      <c r="W132" s="31" t="n"/>
-      <c r="X132" s="31" t="n"/>
+      <c r="S132" s="30" t="n"/>
+      <c r="T132" s="30" t="n"/>
+      <c r="U132" s="30" t="n"/>
+      <c r="V132" s="30" t="n"/>
+      <c r="W132" s="30" t="n"/>
+      <c r="X132" s="30" t="n"/>
     </row>
     <row r="133" ht="13.5" customHeight="1" thickBot="1">
       <c r="A133" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B133" s="30" t="n"/>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>Баранов Б.</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
           <t>26.04.2023</t>
@@ -10238,8 +10755,8 @@
       <c r="E133" s="23" t="n">
         <v>2314</v>
       </c>
-      <c r="F133" s="31" t="n"/>
-      <c r="G133" s="32" t="n"/>
+      <c r="F133" s="30" t="n"/>
+      <c r="G133" s="31" t="n"/>
       <c r="H133" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10265,7 +10782,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M133" s="31" t="n"/>
+      <c r="M133" s="30" t="n"/>
       <c r="N133" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 10"</t>
@@ -10276,23 +10793,27 @@
           <t>ООО "Контрагент № 10"</t>
         </is>
       </c>
-      <c r="P133" s="31" t="n"/>
-      <c r="Q133" s="31" t="n"/>
+      <c r="P133" s="30" t="n"/>
+      <c r="Q133" s="30" t="n"/>
       <c r="R133" s="25" t="n">
         <v>40.59</v>
       </c>
-      <c r="S133" s="31" t="n"/>
-      <c r="T133" s="31" t="n"/>
-      <c r="U133" s="31" t="n"/>
-      <c r="V133" s="31" t="n"/>
-      <c r="W133" s="31" t="n"/>
-      <c r="X133" s="31" t="n"/>
+      <c r="S133" s="30" t="n"/>
+      <c r="T133" s="30" t="n"/>
+      <c r="U133" s="30" t="n"/>
+      <c r="V133" s="30" t="n"/>
+      <c r="W133" s="30" t="n"/>
+      <c r="X133" s="30" t="n"/>
     </row>
     <row r="134" ht="13.5" customHeight="1" thickBot="1">
       <c r="A134" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B134" s="30" t="n"/>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>26.04.2023</t>
@@ -10306,8 +10827,8 @@
       <c r="E134" s="23" t="n">
         <v>2304</v>
       </c>
-      <c r="F134" s="31" t="n"/>
-      <c r="G134" s="32" t="n"/>
+      <c r="F134" s="30" t="n"/>
+      <c r="G134" s="31" t="n"/>
       <c r="H134" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10333,7 +10854,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M134" s="31" t="n"/>
+      <c r="M134" s="30" t="n"/>
       <c r="N134" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -10344,23 +10865,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P134" s="31" t="n"/>
-      <c r="Q134" s="31" t="n"/>
+      <c r="P134" s="30" t="n"/>
+      <c r="Q134" s="30" t="n"/>
       <c r="R134" s="25" t="n">
         <v>39.57</v>
       </c>
-      <c r="S134" s="31" t="n"/>
-      <c r="T134" s="31" t="n"/>
-      <c r="U134" s="31" t="n"/>
-      <c r="V134" s="31" t="n"/>
-      <c r="W134" s="31" t="n"/>
-      <c r="X134" s="31" t="n"/>
+      <c r="S134" s="30" t="n"/>
+      <c r="T134" s="30" t="n"/>
+      <c r="U134" s="30" t="n"/>
+      <c r="V134" s="30" t="n"/>
+      <c r="W134" s="30" t="n"/>
+      <c r="X134" s="30" t="n"/>
     </row>
     <row r="135" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B135" s="30" t="n"/>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10376,8 +10901,8 @@
           <t>27042023/1</t>
         </is>
       </c>
-      <c r="F135" s="31" t="n"/>
-      <c r="G135" s="32" t="n"/>
+      <c r="F135" s="30" t="n"/>
+      <c r="G135" s="31" t="n"/>
       <c r="H135" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10403,7 +10928,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M135" s="31" t="n"/>
+      <c r="M135" s="30" t="n"/>
       <c r="N135" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -10414,7 +10939,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P135" s="31" t="n"/>
+      <c r="P135" s="30" t="n"/>
       <c r="Q135" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -10423,18 +10948,22 @@
       <c r="R135" s="25" t="n">
         <v>40.45</v>
       </c>
-      <c r="S135" s="31" t="n"/>
-      <c r="T135" s="31" t="n"/>
-      <c r="U135" s="31" t="n"/>
-      <c r="V135" s="31" t="n"/>
-      <c r="W135" s="31" t="n"/>
-      <c r="X135" s="31" t="n"/>
+      <c r="S135" s="30" t="n"/>
+      <c r="T135" s="30" t="n"/>
+      <c r="U135" s="30" t="n"/>
+      <c r="V135" s="30" t="n"/>
+      <c r="W135" s="30" t="n"/>
+      <c r="X135" s="30" t="n"/>
     </row>
     <row r="136" ht="13.5" customHeight="1" thickBot="1">
       <c r="A136" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B136" s="30" t="n"/>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10453,7 +10982,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G136" s="32" t="n"/>
+      <c r="G136" s="31" t="n"/>
       <c r="H136" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -10507,18 +11036,22 @@
       <c r="R136" s="25" t="n">
         <v>31.14</v>
       </c>
-      <c r="S136" s="31" t="n"/>
-      <c r="T136" s="31" t="n"/>
-      <c r="U136" s="31" t="n"/>
-      <c r="V136" s="31" t="n"/>
-      <c r="W136" s="31" t="n"/>
-      <c r="X136" s="31" t="n"/>
+      <c r="S136" s="30" t="n"/>
+      <c r="T136" s="30" t="n"/>
+      <c r="U136" s="30" t="n"/>
+      <c r="V136" s="30" t="n"/>
+      <c r="W136" s="30" t="n"/>
+      <c r="X136" s="30" t="n"/>
     </row>
     <row r="137" ht="13.5" customHeight="1" thickBot="1">
       <c r="A137" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B137" s="30" t="n"/>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10532,8 +11065,8 @@
       <c r="E137" s="23" t="n">
         <v>2405</v>
       </c>
-      <c r="F137" s="31" t="n"/>
-      <c r="G137" s="32" t="n"/>
+      <c r="F137" s="30" t="n"/>
+      <c r="G137" s="31" t="n"/>
       <c r="H137" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10559,7 +11092,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M137" s="31" t="n"/>
+      <c r="M137" s="30" t="n"/>
       <c r="N137" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -10570,23 +11103,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P137" s="31" t="n"/>
-      <c r="Q137" s="31" t="n"/>
+      <c r="P137" s="30" t="n"/>
+      <c r="Q137" s="30" t="n"/>
       <c r="R137" s="25" t="n">
         <v>41.12</v>
       </c>
-      <c r="S137" s="31" t="n"/>
-      <c r="T137" s="31" t="n"/>
-      <c r="U137" s="31" t="n"/>
-      <c r="V137" s="31" t="n"/>
-      <c r="W137" s="31" t="n"/>
-      <c r="X137" s="31" t="n"/>
+      <c r="S137" s="30" t="n"/>
+      <c r="T137" s="30" t="n"/>
+      <c r="U137" s="30" t="n"/>
+      <c r="V137" s="30" t="n"/>
+      <c r="W137" s="30" t="n"/>
+      <c r="X137" s="30" t="n"/>
     </row>
     <row r="138" ht="13.5" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B138" s="30" t="n"/>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10602,8 +11139,8 @@
           <t>27042023/2</t>
         </is>
       </c>
-      <c r="F138" s="31" t="n"/>
-      <c r="G138" s="32" t="n"/>
+      <c r="F138" s="30" t="n"/>
+      <c r="G138" s="31" t="n"/>
       <c r="H138" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10629,7 +11166,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M138" s="31" t="n"/>
+      <c r="M138" s="30" t="n"/>
       <c r="N138" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -10640,7 +11177,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P138" s="31" t="n"/>
+      <c r="P138" s="30" t="n"/>
       <c r="Q138" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -10649,18 +11186,22 @@
       <c r="R138" s="25" t="n">
         <v>41.45</v>
       </c>
-      <c r="S138" s="31" t="n"/>
-      <c r="T138" s="31" t="n"/>
-      <c r="U138" s="31" t="n"/>
-      <c r="V138" s="31" t="n"/>
-      <c r="W138" s="31" t="n"/>
-      <c r="X138" s="31" t="n"/>
+      <c r="S138" s="30" t="n"/>
+      <c r="T138" s="30" t="n"/>
+      <c r="U138" s="30" t="n"/>
+      <c r="V138" s="30" t="n"/>
+      <c r="W138" s="30" t="n"/>
+      <c r="X138" s="30" t="n"/>
     </row>
     <row r="139" ht="13.5" customHeight="1" thickBot="1">
       <c r="A139" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B139" s="30" t="n"/>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10674,8 +11215,8 @@
       <c r="E139" s="23" t="n">
         <v>2383</v>
       </c>
-      <c r="F139" s="31" t="n"/>
-      <c r="G139" s="32" t="n"/>
+      <c r="F139" s="30" t="n"/>
+      <c r="G139" s="31" t="n"/>
       <c r="H139" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10701,7 +11242,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M139" s="31" t="n"/>
+      <c r="M139" s="30" t="n"/>
       <c r="N139" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -10712,23 +11253,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P139" s="31" t="n"/>
-      <c r="Q139" s="31" t="n"/>
+      <c r="P139" s="30" t="n"/>
+      <c r="Q139" s="30" t="n"/>
       <c r="R139" s="25" t="n">
         <v>40.14</v>
       </c>
-      <c r="S139" s="31" t="n"/>
-      <c r="T139" s="31" t="n"/>
-      <c r="U139" s="31" t="n"/>
-      <c r="V139" s="31" t="n"/>
-      <c r="W139" s="31" t="n"/>
-      <c r="X139" s="31" t="n"/>
+      <c r="S139" s="30" t="n"/>
+      <c r="T139" s="30" t="n"/>
+      <c r="U139" s="30" t="n"/>
+      <c r="V139" s="30" t="n"/>
+      <c r="W139" s="30" t="n"/>
+      <c r="X139" s="30" t="n"/>
     </row>
     <row r="140" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B140" s="30" t="n"/>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>Коняхин И.</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10742,8 +11287,8 @@
       <c r="E140" s="23" t="n">
         <v>2428</v>
       </c>
-      <c r="F140" s="31" t="n"/>
-      <c r="G140" s="32" t="n"/>
+      <c r="F140" s="30" t="n"/>
+      <c r="G140" s="31" t="n"/>
       <c r="H140" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10769,7 +11314,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M140" s="31" t="n"/>
+      <c r="M140" s="30" t="n"/>
       <c r="N140" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 15"</t>
@@ -10780,23 +11325,27 @@
           <t>ООО "Контрагент № 15"</t>
         </is>
       </c>
-      <c r="P140" s="31" t="n"/>
-      <c r="Q140" s="31" t="n"/>
+      <c r="P140" s="30" t="n"/>
+      <c r="Q140" s="30" t="n"/>
       <c r="R140" s="25" t="n">
         <v>38.06</v>
       </c>
-      <c r="S140" s="31" t="n"/>
-      <c r="T140" s="31" t="n"/>
-      <c r="U140" s="31" t="n"/>
-      <c r="V140" s="31" t="n"/>
-      <c r="W140" s="31" t="n"/>
-      <c r="X140" s="31" t="n"/>
+      <c r="S140" s="30" t="n"/>
+      <c r="T140" s="30" t="n"/>
+      <c r="U140" s="30" t="n"/>
+      <c r="V140" s="30" t="n"/>
+      <c r="W140" s="30" t="n"/>
+      <c r="X140" s="30" t="n"/>
     </row>
     <row r="141" ht="13.5" customHeight="1" thickBot="1">
       <c r="A141" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B141" s="30" t="n"/>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>Лосев Г.</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10810,8 +11359,8 @@
       <c r="E141" s="23" t="n">
         <v>2357</v>
       </c>
-      <c r="F141" s="31" t="n"/>
-      <c r="G141" s="32" t="n"/>
+      <c r="F141" s="30" t="n"/>
+      <c r="G141" s="31" t="n"/>
       <c r="H141" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10837,7 +11386,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M141" s="31" t="n"/>
+      <c r="M141" s="30" t="n"/>
       <c r="N141" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 13"</t>
@@ -10848,23 +11397,27 @@
           <t>ООО "Контрагент № 13"</t>
         </is>
       </c>
-      <c r="P141" s="31" t="n"/>
-      <c r="Q141" s="31" t="n"/>
+      <c r="P141" s="30" t="n"/>
+      <c r="Q141" s="30" t="n"/>
       <c r="R141" s="25" t="n">
         <v>35.75</v>
       </c>
-      <c r="S141" s="31" t="n"/>
-      <c r="T141" s="31" t="n"/>
-      <c r="U141" s="31" t="n"/>
-      <c r="V141" s="31" t="n"/>
-      <c r="W141" s="31" t="n"/>
-      <c r="X141" s="31" t="n"/>
+      <c r="S141" s="30" t="n"/>
+      <c r="T141" s="30" t="n"/>
+      <c r="U141" s="30" t="n"/>
+      <c r="V141" s="30" t="n"/>
+      <c r="W141" s="30" t="n"/>
+      <c r="X141" s="30" t="n"/>
     </row>
     <row r="142" ht="13.5" customHeight="1" thickBot="1">
       <c r="A142" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B142" s="30" t="n"/>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>27.04.2023</t>
@@ -10880,8 +11433,8 @@
           <t>27042023/3</t>
         </is>
       </c>
-      <c r="F142" s="31" t="n"/>
-      <c r="G142" s="32" t="n"/>
+      <c r="F142" s="30" t="n"/>
+      <c r="G142" s="31" t="n"/>
       <c r="H142" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10907,7 +11460,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M142" s="31" t="n"/>
+      <c r="M142" s="30" t="n"/>
       <c r="N142" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -10918,7 +11471,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P142" s="31" t="n"/>
+      <c r="P142" s="30" t="n"/>
       <c r="Q142" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -10927,18 +11480,22 @@
       <c r="R142" s="25" t="n">
         <v>43.7</v>
       </c>
-      <c r="S142" s="31" t="n"/>
-      <c r="T142" s="31" t="n"/>
-      <c r="U142" s="31" t="n"/>
-      <c r="V142" s="31" t="n"/>
-      <c r="W142" s="31" t="n"/>
-      <c r="X142" s="31" t="n"/>
+      <c r="S142" s="30" t="n"/>
+      <c r="T142" s="30" t="n"/>
+      <c r="U142" s="30" t="n"/>
+      <c r="V142" s="30" t="n"/>
+      <c r="W142" s="30" t="n"/>
+      <c r="X142" s="30" t="n"/>
     </row>
     <row r="143" ht="13.5" customHeight="1" thickBot="1">
       <c r="A143" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B143" s="30" t="n"/>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>28.04.2023</t>
@@ -10954,8 +11511,8 @@
           <t>28042023/04</t>
         </is>
       </c>
-      <c r="F143" s="31" t="n"/>
-      <c r="G143" s="32" t="n"/>
+      <c r="F143" s="30" t="n"/>
+      <c r="G143" s="31" t="n"/>
       <c r="H143" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10981,7 +11538,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M143" s="31" t="n"/>
+      <c r="M143" s="30" t="n"/>
       <c r="N143" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -10992,7 +11549,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P143" s="31" t="n"/>
+      <c r="P143" s="30" t="n"/>
       <c r="Q143" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11001,18 +11558,22 @@
       <c r="R143" s="25" t="n">
         <v>44.2</v>
       </c>
-      <c r="S143" s="31" t="n"/>
-      <c r="T143" s="31" t="n"/>
-      <c r="U143" s="31" t="n"/>
-      <c r="V143" s="31" t="n"/>
-      <c r="W143" s="31" t="n"/>
-      <c r="X143" s="31" t="n"/>
+      <c r="S143" s="30" t="n"/>
+      <c r="T143" s="30" t="n"/>
+      <c r="U143" s="30" t="n"/>
+      <c r="V143" s="30" t="n"/>
+      <c r="W143" s="30" t="n"/>
+      <c r="X143" s="30" t="n"/>
     </row>
     <row r="144" ht="13.5" customHeight="1" thickBot="1">
       <c r="A144" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B144" s="30" t="n"/>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
           <t>28.04.2023</t>
@@ -11028,8 +11589,8 @@
           <t>28042023/03</t>
         </is>
       </c>
-      <c r="F144" s="31" t="n"/>
-      <c r="G144" s="32" t="n"/>
+      <c r="F144" s="30" t="n"/>
+      <c r="G144" s="31" t="n"/>
       <c r="H144" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11055,7 +11616,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M144" s="31" t="n"/>
+      <c r="M144" s="30" t="n"/>
       <c r="N144" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 7"</t>
@@ -11066,7 +11627,7 @@
           <t>ООО "Контрагент № 7"</t>
         </is>
       </c>
-      <c r="P144" s="31" t="n"/>
+      <c r="P144" s="30" t="n"/>
       <c r="Q144" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11075,18 +11636,22 @@
       <c r="R144" s="25" t="n">
         <v>39.2</v>
       </c>
-      <c r="S144" s="31" t="n"/>
-      <c r="T144" s="31" t="n"/>
-      <c r="U144" s="31" t="n"/>
-      <c r="V144" s="31" t="n"/>
-      <c r="W144" s="31" t="n"/>
-      <c r="X144" s="31" t="n"/>
+      <c r="S144" s="30" t="n"/>
+      <c r="T144" s="30" t="n"/>
+      <c r="U144" s="30" t="n"/>
+      <c r="V144" s="30" t="n"/>
+      <c r="W144" s="30" t="n"/>
+      <c r="X144" s="30" t="n"/>
     </row>
     <row r="145" ht="13.5" customHeight="1" thickBot="1">
       <c r="A145" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B145" s="30" t="n"/>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
           <t>28.04.2023</t>
@@ -11102,8 +11667,8 @@
           <t>28042023/02</t>
         </is>
       </c>
-      <c r="F145" s="31" t="n"/>
-      <c r="G145" s="32" t="n"/>
+      <c r="F145" s="30" t="n"/>
+      <c r="G145" s="31" t="n"/>
       <c r="H145" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11129,7 +11694,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M145" s="31" t="n"/>
+      <c r="M145" s="30" t="n"/>
       <c r="N145" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11140,7 +11705,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P145" s="31" t="n"/>
+      <c r="P145" s="30" t="n"/>
       <c r="Q145" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11149,18 +11714,22 @@
       <c r="R145" s="25" t="n">
         <v>42.7</v>
       </c>
-      <c r="S145" s="31" t="n"/>
-      <c r="T145" s="31" t="n"/>
-      <c r="U145" s="31" t="n"/>
-      <c r="V145" s="31" t="n"/>
-      <c r="W145" s="31" t="n"/>
-      <c r="X145" s="31" t="n"/>
+      <c r="S145" s="30" t="n"/>
+      <c r="T145" s="30" t="n"/>
+      <c r="U145" s="30" t="n"/>
+      <c r="V145" s="30" t="n"/>
+      <c r="W145" s="30" t="n"/>
+      <c r="X145" s="30" t="n"/>
     </row>
     <row r="146" ht="13.5" customHeight="1" thickBot="1">
       <c r="A146" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B146" s="30" t="n"/>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>28.04.2023</t>
@@ -11176,8 +11745,8 @@
           <t>28042023/01</t>
         </is>
       </c>
-      <c r="F146" s="31" t="n"/>
-      <c r="G146" s="32" t="n"/>
+      <c r="F146" s="30" t="n"/>
+      <c r="G146" s="31" t="n"/>
       <c r="H146" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11203,7 +11772,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M146" s="31" t="n"/>
+      <c r="M146" s="30" t="n"/>
       <c r="N146" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 7"</t>
@@ -11214,7 +11783,7 @@
           <t>ООО "Контрагент № 7"</t>
         </is>
       </c>
-      <c r="P146" s="31" t="n"/>
+      <c r="P146" s="30" t="n"/>
       <c r="Q146" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11223,18 +11792,22 @@
       <c r="R146" s="25" t="n">
         <v>38.65</v>
       </c>
-      <c r="S146" s="31" t="n"/>
-      <c r="T146" s="31" t="n"/>
-      <c r="U146" s="31" t="n"/>
-      <c r="V146" s="31" t="n"/>
-      <c r="W146" s="31" t="n"/>
-      <c r="X146" s="31" t="n"/>
+      <c r="S146" s="30" t="n"/>
+      <c r="T146" s="30" t="n"/>
+      <c r="U146" s="30" t="n"/>
+      <c r="V146" s="30" t="n"/>
+      <c r="W146" s="30" t="n"/>
+      <c r="X146" s="30" t="n"/>
     </row>
     <row r="147" ht="13.5" customHeight="1" thickBot="1">
       <c r="A147" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B147" s="30" t="n"/>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11250,8 +11823,8 @@
           <t>29042023/02</t>
         </is>
       </c>
-      <c r="F147" s="31" t="n"/>
-      <c r="G147" s="32" t="n"/>
+      <c r="F147" s="30" t="n"/>
+      <c r="G147" s="31" t="n"/>
       <c r="H147" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11277,7 +11850,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M147" s="31" t="n"/>
+      <c r="M147" s="30" t="n"/>
       <c r="N147" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11288,7 +11861,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P147" s="31" t="n"/>
+      <c r="P147" s="30" t="n"/>
       <c r="Q147" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11297,18 +11870,22 @@
       <c r="R147" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="S147" s="31" t="n"/>
-      <c r="T147" s="31" t="n"/>
-      <c r="U147" s="31" t="n"/>
-      <c r="V147" s="31" t="n"/>
-      <c r="W147" s="31" t="n"/>
-      <c r="X147" s="31" t="n"/>
+      <c r="S147" s="30" t="n"/>
+      <c r="T147" s="30" t="n"/>
+      <c r="U147" s="30" t="n"/>
+      <c r="V147" s="30" t="n"/>
+      <c r="W147" s="30" t="n"/>
+      <c r="X147" s="30" t="n"/>
     </row>
     <row r="148" ht="13.5" customHeight="1" thickBot="1">
       <c r="A148" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B148" s="30" t="n"/>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11324,8 +11901,8 @@
           <t>29042023/01</t>
         </is>
       </c>
-      <c r="F148" s="31" t="n"/>
-      <c r="G148" s="32" t="n"/>
+      <c r="F148" s="30" t="n"/>
+      <c r="G148" s="31" t="n"/>
       <c r="H148" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11351,7 +11928,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M148" s="31" t="n"/>
+      <c r="M148" s="30" t="n"/>
       <c r="N148" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11362,7 +11939,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P148" s="31" t="n"/>
+      <c r="P148" s="30" t="n"/>
       <c r="Q148" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11371,18 +11948,22 @@
       <c r="R148" s="25" t="n">
         <v>37.3</v>
       </c>
-      <c r="S148" s="31" t="n"/>
-      <c r="T148" s="31" t="n"/>
-      <c r="U148" s="31" t="n"/>
-      <c r="V148" s="31" t="n"/>
-      <c r="W148" s="31" t="n"/>
-      <c r="X148" s="31" t="n"/>
+      <c r="S148" s="30" t="n"/>
+      <c r="T148" s="30" t="n"/>
+      <c r="U148" s="30" t="n"/>
+      <c r="V148" s="30" t="n"/>
+      <c r="W148" s="30" t="n"/>
+      <c r="X148" s="30" t="n"/>
     </row>
     <row r="149" ht="13.5" customHeight="1" thickBot="1">
       <c r="A149" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B149" s="30" t="n"/>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11401,7 +11982,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G149" s="32" t="n"/>
+      <c r="G149" s="31" t="n"/>
       <c r="H149" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -11455,18 +12036,22 @@
       <c r="R149" s="25" t="n">
         <v>31.16</v>
       </c>
-      <c r="S149" s="31" t="n"/>
-      <c r="T149" s="31" t="n"/>
-      <c r="U149" s="31" t="n"/>
-      <c r="V149" s="31" t="n"/>
-      <c r="W149" s="31" t="n"/>
-      <c r="X149" s="31" t="n"/>
+      <c r="S149" s="30" t="n"/>
+      <c r="T149" s="30" t="n"/>
+      <c r="U149" s="30" t="n"/>
+      <c r="V149" s="30" t="n"/>
+      <c r="W149" s="30" t="n"/>
+      <c r="X149" s="30" t="n"/>
     </row>
     <row r="150" ht="13.5" customHeight="1" thickBot="1">
       <c r="A150" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B150" s="30" t="n"/>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11482,8 +12067,8 @@
           <t>29042023/04</t>
         </is>
       </c>
-      <c r="F150" s="31" t="n"/>
-      <c r="G150" s="32" t="n"/>
+      <c r="F150" s="30" t="n"/>
+      <c r="G150" s="31" t="n"/>
       <c r="H150" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11509,7 +12094,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M150" s="31" t="n"/>
+      <c r="M150" s="30" t="n"/>
       <c r="N150" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11520,7 +12105,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P150" s="31" t="n"/>
+      <c r="P150" s="30" t="n"/>
       <c r="Q150" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11529,18 +12114,22 @@
       <c r="R150" s="25" t="n">
         <v>39.15</v>
       </c>
-      <c r="S150" s="31" t="n"/>
-      <c r="T150" s="31" t="n"/>
-      <c r="U150" s="31" t="n"/>
-      <c r="V150" s="31" t="n"/>
-      <c r="W150" s="31" t="n"/>
-      <c r="X150" s="31" t="n"/>
+      <c r="S150" s="30" t="n"/>
+      <c r="T150" s="30" t="n"/>
+      <c r="U150" s="30" t="n"/>
+      <c r="V150" s="30" t="n"/>
+      <c r="W150" s="30" t="n"/>
+      <c r="X150" s="30" t="n"/>
     </row>
     <row r="151" ht="13.5" customHeight="1" thickBot="1">
       <c r="A151" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B151" s="30" t="n"/>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11556,8 +12145,8 @@
           <t>29042023/05</t>
         </is>
       </c>
-      <c r="F151" s="31" t="n"/>
-      <c r="G151" s="32" t="n"/>
+      <c r="F151" s="30" t="n"/>
+      <c r="G151" s="31" t="n"/>
       <c r="H151" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11583,7 +12172,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M151" s="31" t="n"/>
+      <c r="M151" s="30" t="n"/>
       <c r="N151" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11594,7 +12183,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P151" s="31" t="n"/>
+      <c r="P151" s="30" t="n"/>
       <c r="Q151" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11603,18 +12192,22 @@
       <c r="R151" s="25" t="n">
         <v>39.65</v>
       </c>
-      <c r="S151" s="31" t="n"/>
-      <c r="T151" s="31" t="n"/>
-      <c r="U151" s="31" t="n"/>
-      <c r="V151" s="31" t="n"/>
-      <c r="W151" s="31" t="n"/>
-      <c r="X151" s="31" t="n"/>
+      <c r="S151" s="30" t="n"/>
+      <c r="T151" s="30" t="n"/>
+      <c r="U151" s="30" t="n"/>
+      <c r="V151" s="30" t="n"/>
+      <c r="W151" s="30" t="n"/>
+      <c r="X151" s="30" t="n"/>
     </row>
     <row r="152" ht="13.5" customHeight="1" thickBot="1">
       <c r="A152" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B152" s="30" t="n"/>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11630,8 +12223,8 @@
           <t>29042023/06</t>
         </is>
       </c>
-      <c r="F152" s="31" t="n"/>
-      <c r="G152" s="32" t="n"/>
+      <c r="F152" s="30" t="n"/>
+      <c r="G152" s="31" t="n"/>
       <c r="H152" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11657,7 +12250,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M152" s="31" t="n"/>
+      <c r="M152" s="30" t="n"/>
       <c r="N152" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11668,7 +12261,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P152" s="31" t="n"/>
+      <c r="P152" s="30" t="n"/>
       <c r="Q152" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11677,18 +12270,22 @@
       <c r="R152" s="25" t="n">
         <v>40.15</v>
       </c>
-      <c r="S152" s="31" t="n"/>
-      <c r="T152" s="31" t="n"/>
-      <c r="U152" s="31" t="n"/>
-      <c r="V152" s="31" t="n"/>
-      <c r="W152" s="31" t="n"/>
-      <c r="X152" s="31" t="n"/>
+      <c r="S152" s="30" t="n"/>
+      <c r="T152" s="30" t="n"/>
+      <c r="U152" s="30" t="n"/>
+      <c r="V152" s="30" t="n"/>
+      <c r="W152" s="30" t="n"/>
+      <c r="X152" s="30" t="n"/>
     </row>
     <row r="153" ht="13.5" customHeight="1" thickBot="1">
       <c r="A153" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B153" s="30" t="n"/>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11704,8 +12301,8 @@
           <t>29042023/03</t>
         </is>
       </c>
-      <c r="F153" s="31" t="n"/>
-      <c r="G153" s="32" t="n"/>
+      <c r="F153" s="30" t="n"/>
+      <c r="G153" s="31" t="n"/>
       <c r="H153" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11731,7 +12328,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M153" s="31" t="n"/>
+      <c r="M153" s="30" t="n"/>
       <c r="N153" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11742,7 +12339,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P153" s="31" t="n"/>
+      <c r="P153" s="30" t="n"/>
       <c r="Q153" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11751,18 +12348,22 @@
       <c r="R153" s="25" t="n">
         <v>38.55</v>
       </c>
-      <c r="S153" s="31" t="n"/>
-      <c r="T153" s="31" t="n"/>
-      <c r="U153" s="31" t="n"/>
-      <c r="V153" s="31" t="n"/>
-      <c r="W153" s="31" t="n"/>
-      <c r="X153" s="31" t="n"/>
+      <c r="S153" s="30" t="n"/>
+      <c r="T153" s="30" t="n"/>
+      <c r="U153" s="30" t="n"/>
+      <c r="V153" s="30" t="n"/>
+      <c r="W153" s="30" t="n"/>
+      <c r="X153" s="30" t="n"/>
     </row>
     <row r="154" ht="13.5" customHeight="1" thickBot="1">
       <c r="A154" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B154" s="30" t="n"/>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Козлов А.</t>
+        </is>
+      </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
           <t>29.04.2023</t>
@@ -11778,8 +12379,8 @@
           <t>29042023/07</t>
         </is>
       </c>
-      <c r="F154" s="31" t="n"/>
-      <c r="G154" s="32" t="n"/>
+      <c r="F154" s="30" t="n"/>
+      <c r="G154" s="31" t="n"/>
       <c r="H154" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11805,7 +12406,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M154" s="31" t="n"/>
+      <c r="M154" s="30" t="n"/>
       <c r="N154" s="23" t="inlineStr">
         <is>
           <t>ООО "Контрагент № 3"</t>
@@ -11816,7 +12417,7 @@
           <t>ООО "Контрагент № 3"</t>
         </is>
       </c>
-      <c r="P154" s="31" t="n"/>
+      <c r="P154" s="30" t="n"/>
       <c r="Q154" s="23" t="inlineStr">
         <is>
           <t>Цемент ЦЕМ I 42,5Н Навал</t>
@@ -11825,18 +12426,22 @@
       <c r="R154" s="25" t="n">
         <v>38.85</v>
       </c>
-      <c r="S154" s="31" t="n"/>
-      <c r="T154" s="31" t="n"/>
-      <c r="U154" s="31" t="n"/>
-      <c r="V154" s="31" t="n"/>
-      <c r="W154" s="31" t="n"/>
-      <c r="X154" s="31" t="n"/>
+      <c r="S154" s="30" t="n"/>
+      <c r="T154" s="30" t="n"/>
+      <c r="U154" s="30" t="n"/>
+      <c r="V154" s="30" t="n"/>
+      <c r="W154" s="30" t="n"/>
+      <c r="X154" s="30" t="n"/>
     </row>
     <row r="155" ht="13.5" customHeight="1" thickBot="1">
       <c r="A155" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B155" s="30" t="n"/>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Дятлов П.</t>
+        </is>
+      </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
           <t>30.04.2023</t>
@@ -11855,7 +12460,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G155" s="32" t="n"/>
+      <c r="G155" s="31" t="n"/>
       <c r="H155" s="23" t="inlineStr">
         <is>
           <t>ООО "Вторая Наша Компания"</t>
@@ -11909,12 +12514,12 @@
       <c r="R155" s="25" t="n">
         <v>31.94</v>
       </c>
-      <c r="S155" s="31" t="n"/>
-      <c r="T155" s="31" t="n"/>
-      <c r="U155" s="31" t="n"/>
-      <c r="V155" s="31" t="n"/>
-      <c r="W155" s="31" t="n"/>
-      <c r="X155" s="31" t="n"/>
+      <c r="S155" s="30" t="n"/>
+      <c r="T155" s="30" t="n"/>
+      <c r="U155" s="30" t="n"/>
+      <c r="V155" s="30" t="n"/>
+      <c r="W155" s="30" t="n"/>
+      <c r="X155" s="30" t="n"/>
     </row>
     <row r="156" ht="13.5" customHeight="1" thickBot="1">
       <c r="A156" s="1" t="n"/>
@@ -33902,7 +34507,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -33914,7 +34519,7 @@
     <row r="1">
       <c r="A1" s="29" t="inlineStr">
         <is>
-          <t>Контрагент</t>
+          <t>Грузополучатель</t>
         </is>
       </c>
       <c r="B1" s="29" t="inlineStr">

--- a/total.xlsx
+++ b/total.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АВТО" sheetId="1" state="visible" r:id="rId1"/>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -235,6 +235,9 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,13 +608,13 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -751,7 +754,7 @@
       </c>
       <c r="B3" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Менеджер </t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="C3" s="22" t="inlineStr">
@@ -899,21 +902,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J4" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J4" s="30" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L4" s="32" t="n"/>
       <c r="M4" s="30" t="n"/>
       <c r="N4" s="23" t="inlineStr">
         <is>
@@ -971,21 +966,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J5" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J5" s="30" t="n"/>
       <c r="K5" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L5" s="32" t="n"/>
       <c r="M5" s="30" t="n"/>
       <c r="N5" s="23" t="inlineStr">
         <is>
@@ -1031,11 +1018,7 @@
       <c r="E6" s="23" t="n">
         <v>1141</v>
       </c>
-      <c r="F6" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F6" s="30" t="n"/>
       <c r="G6" s="31" t="n"/>
       <c r="H6" s="23" t="inlineStr">
         <is>
@@ -1057,11 +1040,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L6" s="32" t="n"/>
       <c r="M6" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1131,21 +1110,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J7" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J7" s="30" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L7" s="32" t="n"/>
       <c r="M7" s="30" t="n"/>
       <c r="N7" s="23" t="inlineStr">
         <is>
@@ -1203,21 +1174,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J8" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J8" s="30" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L8" s="32" t="n"/>
       <c r="M8" s="30" t="n"/>
       <c r="N8" s="23" t="inlineStr">
         <is>
@@ -1275,21 +1238,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J9" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J9" s="30" t="n"/>
       <c r="K9" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L9" s="32" t="n"/>
       <c r="M9" s="30" t="n"/>
       <c r="N9" s="23" t="inlineStr">
         <is>
@@ -1347,21 +1302,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J10" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J10" s="30" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L10" s="32" t="n"/>
       <c r="M10" s="30" t="n"/>
       <c r="N10" s="23" t="inlineStr">
         <is>
@@ -1419,21 +1366,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J11" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J11" s="30" t="n"/>
       <c r="K11" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L11" s="32" t="n"/>
       <c r="M11" s="30" t="n"/>
       <c r="N11" s="23" t="inlineStr">
         <is>
@@ -1491,21 +1430,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J12" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J12" s="30" t="n"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L12" s="32" t="n"/>
       <c r="M12" s="30" t="n"/>
       <c r="N12" s="23" t="inlineStr">
         <is>
@@ -1563,21 +1494,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J13" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J13" s="30" t="n"/>
       <c r="K13" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L13" s="32" t="n"/>
       <c r="M13" s="30" t="n"/>
       <c r="N13" s="23" t="inlineStr">
         <is>
@@ -1635,21 +1558,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J14" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J14" s="30" t="n"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L14" s="32" t="n"/>
       <c r="M14" s="30" t="n"/>
       <c r="N14" s="23" t="inlineStr">
         <is>
@@ -1695,11 +1610,7 @@
       <c r="E15" s="23" t="n">
         <v>1148</v>
       </c>
-      <c r="F15" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F15" s="30" t="n"/>
       <c r="G15" s="31" t="n"/>
       <c r="H15" s="23" t="inlineStr">
         <is>
@@ -1721,11 +1632,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L15" s="32" t="n"/>
       <c r="M15" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -1795,21 +1702,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J16" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J16" s="30" t="n"/>
       <c r="K16" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L16" s="32" t="n"/>
       <c r="M16" s="30" t="n"/>
       <c r="N16" s="23" t="inlineStr">
         <is>
@@ -1867,21 +1766,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J17" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J17" s="30" t="n"/>
       <c r="K17" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L17" s="32" t="n"/>
       <c r="M17" s="30" t="n"/>
       <c r="N17" s="23" t="inlineStr">
         <is>
@@ -1939,21 +1830,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J18" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J18" s="30" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L18" s="32" t="n"/>
       <c r="M18" s="30" t="n"/>
       <c r="N18" s="23" t="inlineStr">
         <is>
@@ -2011,21 +1894,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J19" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J19" s="30" t="n"/>
       <c r="K19" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L19" s="32" t="n"/>
       <c r="M19" s="30" t="n"/>
       <c r="N19" s="23" t="inlineStr">
         <is>
@@ -2083,21 +1958,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J20" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J20" s="30" t="n"/>
       <c r="K20" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L20" s="32" t="n"/>
       <c r="M20" s="30" t="n"/>
       <c r="N20" s="23" t="inlineStr">
         <is>
@@ -2157,21 +2024,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J21" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J21" s="30" t="n"/>
       <c r="K21" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L21" s="32" t="n"/>
       <c r="M21" s="30" t="n"/>
       <c r="N21" s="23" t="inlineStr">
         <is>
@@ -2235,21 +2094,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J22" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J22" s="30" t="n"/>
       <c r="K22" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L22" s="32" t="n"/>
       <c r="M22" s="30" t="n"/>
       <c r="N22" s="23" t="inlineStr">
         <is>
@@ -2313,21 +2164,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J23" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J23" s="30" t="n"/>
       <c r="K23" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L23" s="32" t="n"/>
       <c r="M23" s="30" t="n"/>
       <c r="N23" s="23" t="inlineStr">
         <is>
@@ -2391,21 +2234,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J24" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J24" s="30" t="n"/>
       <c r="K24" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L24" s="32" t="n"/>
       <c r="M24" s="30" t="n"/>
       <c r="N24" s="23" t="inlineStr">
         <is>
@@ -2469,21 +2304,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J25" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J25" s="30" t="n"/>
       <c r="K25" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L25" s="32" t="n"/>
       <c r="M25" s="30" t="n"/>
       <c r="N25" s="23" t="inlineStr">
         <is>
@@ -2547,21 +2374,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J26" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J26" s="30" t="n"/>
       <c r="K26" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L26" s="32" t="n"/>
       <c r="M26" s="30" t="n"/>
       <c r="N26" s="23" t="inlineStr">
         <is>
@@ -2625,21 +2444,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J27" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J27" s="30" t="n"/>
       <c r="K27" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L27" s="32" t="n"/>
       <c r="M27" s="30" t="n"/>
       <c r="N27" s="23" t="inlineStr">
         <is>
@@ -2701,21 +2512,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J28" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J28" s="30" t="n"/>
       <c r="K28" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L28" s="32" t="n"/>
       <c r="M28" s="30" t="n"/>
       <c r="N28" s="23" t="inlineStr">
         <is>
@@ -2761,11 +2564,7 @@
       <c r="E29" s="23" t="n">
         <v>1214</v>
       </c>
-      <c r="F29" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F29" s="30" t="n"/>
       <c r="G29" s="31" t="n"/>
       <c r="H29" s="23" t="inlineStr">
         <is>
@@ -2787,11 +2586,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L29" s="32" t="n"/>
       <c r="M29" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2849,11 +2644,7 @@
       <c r="E30" s="23" t="n">
         <v>1213</v>
       </c>
-      <c r="F30" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F30" s="30" t="n"/>
       <c r="G30" s="31" t="n"/>
       <c r="H30" s="23" t="inlineStr">
         <is>
@@ -2875,11 +2666,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L30" s="32" t="n"/>
       <c r="M30" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -2949,21 +2736,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J31" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J31" s="30" t="n"/>
       <c r="K31" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L31" s="32" t="n"/>
       <c r="M31" s="30" t="n"/>
       <c r="N31" s="23" t="inlineStr">
         <is>
@@ -3021,21 +2800,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J32" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J32" s="30" t="n"/>
       <c r="K32" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L32" s="32" t="n"/>
       <c r="M32" s="30" t="n"/>
       <c r="N32" s="23" t="inlineStr">
         <is>
@@ -3093,21 +2864,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J33" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J33" s="30" t="n"/>
       <c r="K33" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L33" s="32" t="n"/>
       <c r="M33" s="30" t="n"/>
       <c r="N33" s="23" t="inlineStr">
         <is>
@@ -3165,21 +2928,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J34" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J34" s="30" t="n"/>
       <c r="K34" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L34" s="32" t="n"/>
       <c r="M34" s="30" t="n"/>
       <c r="N34" s="23" t="inlineStr">
         <is>
@@ -3225,11 +2980,7 @@
       <c r="E35" s="23" t="n">
         <v>1245</v>
       </c>
-      <c r="F35" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F35" s="30" t="n"/>
       <c r="G35" s="31" t="n"/>
       <c r="H35" s="23" t="inlineStr">
         <is>
@@ -3251,11 +3002,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L35" s="32" t="n"/>
       <c r="M35" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3313,11 +3060,7 @@
       <c r="E36" s="23" t="n">
         <v>1248</v>
       </c>
-      <c r="F36" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F36" s="30" t="n"/>
       <c r="G36" s="31" t="n"/>
       <c r="H36" s="23" t="inlineStr">
         <is>
@@ -3339,11 +3082,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L36" s="32" t="n"/>
       <c r="M36" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -3413,21 +3152,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J37" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J37" s="30" t="n"/>
       <c r="K37" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L37" s="32" t="n"/>
       <c r="M37" s="30" t="n"/>
       <c r="N37" s="23" t="inlineStr">
         <is>
@@ -3485,21 +3216,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J38" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J38" s="30" t="n"/>
       <c r="K38" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L38" s="32" t="n"/>
       <c r="M38" s="30" t="n"/>
       <c r="N38" s="23" t="inlineStr">
         <is>
@@ -3559,21 +3282,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J39" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J39" s="30" t="n"/>
       <c r="K39" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L39" s="32" t="n"/>
       <c r="M39" s="30" t="n"/>
       <c r="N39" s="23" t="inlineStr">
         <is>
@@ -3637,21 +3352,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J40" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J40" s="30" t="n"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L40" s="32" t="n"/>
       <c r="M40" s="30" t="n"/>
       <c r="N40" s="23" t="inlineStr">
         <is>
@@ -3713,21 +3420,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J41" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J41" s="30" t="n"/>
       <c r="K41" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L41" s="32" t="n"/>
       <c r="M41" s="30" t="n"/>
       <c r="N41" s="23" t="inlineStr">
         <is>
@@ -3785,21 +3484,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J42" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J42" s="30" t="n"/>
       <c r="K42" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L42" s="32" t="n"/>
       <c r="M42" s="30" t="n"/>
       <c r="N42" s="23" t="inlineStr">
         <is>
@@ -3859,21 +3550,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J43" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J43" s="30" t="n"/>
       <c r="K43" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L43" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L43" s="32" t="n"/>
       <c r="M43" s="30" t="n"/>
       <c r="N43" s="23" t="inlineStr">
         <is>
@@ -3937,21 +3620,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J44" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J44" s="30" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L44" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L44" s="32" t="n"/>
       <c r="M44" s="30" t="n"/>
       <c r="N44" s="23" t="inlineStr">
         <is>
@@ -4015,21 +3690,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J45" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J45" s="30" t="n"/>
       <c r="K45" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L45" s="32" t="n"/>
       <c r="M45" s="30" t="n"/>
       <c r="N45" s="23" t="inlineStr">
         <is>
@@ -4093,21 +3760,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J46" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J46" s="30" t="n"/>
       <c r="K46" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L46" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L46" s="32" t="n"/>
       <c r="M46" s="30" t="n"/>
       <c r="N46" s="23" t="inlineStr">
         <is>
@@ -4171,21 +3830,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J47" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J47" s="30" t="n"/>
       <c r="K47" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L47" s="32" t="n"/>
       <c r="M47" s="30" t="n"/>
       <c r="N47" s="23" t="inlineStr">
         <is>
@@ -4249,21 +3900,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J48" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J48" s="30" t="n"/>
       <c r="K48" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L48" s="32" t="n"/>
       <c r="M48" s="30" t="n"/>
       <c r="N48" s="23" t="inlineStr">
         <is>
@@ -4325,21 +3968,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J49" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J49" s="30" t="n"/>
       <c r="K49" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L49" s="32" t="n"/>
       <c r="M49" s="30" t="n"/>
       <c r="N49" s="23" t="inlineStr">
         <is>
@@ -4385,11 +4020,7 @@
       <c r="E50" s="23" t="n">
         <v>1284</v>
       </c>
-      <c r="F50" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F50" s="30" t="n"/>
       <c r="G50" s="31" t="n"/>
       <c r="H50" s="23" t="inlineStr">
         <is>
@@ -4411,11 +4042,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L50" s="32" t="n"/>
       <c r="M50" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4473,11 +4100,7 @@
       <c r="E51" s="23" t="n">
         <v>1300</v>
       </c>
-      <c r="F51" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F51" s="30" t="n"/>
       <c r="G51" s="31" t="n"/>
       <c r="H51" s="23" t="inlineStr">
         <is>
@@ -4499,11 +4122,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L51" s="32" t="n"/>
       <c r="M51" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4561,11 +4180,7 @@
       <c r="E52" s="23" t="n">
         <v>1309</v>
       </c>
-      <c r="F52" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F52" s="30" t="n"/>
       <c r="G52" s="31" t="n"/>
       <c r="H52" s="23" t="inlineStr">
         <is>
@@ -4587,11 +4202,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L52" s="32" t="n"/>
       <c r="M52" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4649,11 +4260,7 @@
       <c r="E53" s="23" t="n">
         <v>1305</v>
       </c>
-      <c r="F53" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F53" s="30" t="n"/>
       <c r="G53" s="31" t="n"/>
       <c r="H53" s="23" t="inlineStr">
         <is>
@@ -4675,11 +4282,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L53" s="32" t="n"/>
       <c r="M53" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -4751,21 +4354,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J54" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J54" s="30" t="n"/>
       <c r="K54" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L54" s="32" t="n"/>
       <c r="M54" s="30" t="n"/>
       <c r="N54" s="23" t="inlineStr">
         <is>
@@ -4827,21 +4422,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J55" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J55" s="30" t="n"/>
       <c r="K55" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L55" s="32" t="n"/>
       <c r="M55" s="30" t="n"/>
       <c r="N55" s="23" t="inlineStr">
         <is>
@@ -4899,21 +4486,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J56" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J56" s="30" t="n"/>
       <c r="K56" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L56" s="32" t="n"/>
       <c r="M56" s="30" t="n"/>
       <c r="N56" s="23" t="inlineStr">
         <is>
@@ -4971,21 +4550,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J57" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J57" s="30" t="n"/>
       <c r="K57" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L57" s="32" t="n"/>
       <c r="M57" s="30" t="n"/>
       <c r="N57" s="23" t="inlineStr">
         <is>
@@ -5043,21 +4614,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J58" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J58" s="30" t="n"/>
       <c r="K58" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L58" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L58" s="32" t="n"/>
       <c r="M58" s="30" t="n"/>
       <c r="N58" s="23" t="inlineStr">
         <is>
@@ -5115,21 +4678,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J59" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J59" s="30" t="n"/>
       <c r="K59" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L59" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L59" s="32" t="n"/>
       <c r="M59" s="30" t="n"/>
       <c r="N59" s="23" t="inlineStr">
         <is>
@@ -5187,21 +4742,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J60" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J60" s="30" t="n"/>
       <c r="K60" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L60" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L60" s="32" t="n"/>
       <c r="M60" s="30" t="n"/>
       <c r="N60" s="23" t="inlineStr">
         <is>
@@ -5259,21 +4806,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J61" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J61" s="30" t="n"/>
       <c r="K61" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L61" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L61" s="32" t="n"/>
       <c r="M61" s="30" t="n"/>
       <c r="N61" s="23" t="inlineStr">
         <is>
@@ -5331,21 +4870,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J62" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J62" s="30" t="n"/>
       <c r="K62" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L62" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L62" s="32" t="n"/>
       <c r="M62" s="30" t="n"/>
       <c r="N62" s="23" t="inlineStr">
         <is>
@@ -5391,11 +4922,7 @@
       <c r="E63" s="23" t="n">
         <v>1324</v>
       </c>
-      <c r="F63" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F63" s="30" t="n"/>
       <c r="G63" s="31" t="n"/>
       <c r="H63" s="23" t="inlineStr">
         <is>
@@ -5417,11 +4944,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L63" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L63" s="32" t="n"/>
       <c r="M63" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -5491,21 +5014,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J64" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J64" s="30" t="n"/>
       <c r="K64" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L64" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L64" s="32" t="n"/>
       <c r="M64" s="30" t="n"/>
       <c r="N64" s="23" t="inlineStr">
         <is>
@@ -5565,21 +5080,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J65" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J65" s="30" t="n"/>
       <c r="K65" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L65" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L65" s="32" t="n"/>
       <c r="M65" s="30" t="n"/>
       <c r="N65" s="23" t="inlineStr">
         <is>
@@ -5641,21 +5148,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J66" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J66" s="30" t="n"/>
       <c r="K66" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L66" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L66" s="32" t="n"/>
       <c r="M66" s="30" t="n"/>
       <c r="N66" s="23" t="inlineStr">
         <is>
@@ -5713,21 +5212,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J67" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J67" s="30" t="n"/>
       <c r="K67" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L67" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L67" s="32" t="n"/>
       <c r="M67" s="30" t="n"/>
       <c r="N67" s="23" t="inlineStr">
         <is>
@@ -5787,21 +5278,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J68" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J68" s="30" t="n"/>
       <c r="K68" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L68" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L68" s="32" t="n"/>
       <c r="M68" s="30" t="n"/>
       <c r="N68" s="23" t="inlineStr">
         <is>
@@ -5863,21 +5346,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J69" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J69" s="30" t="n"/>
       <c r="K69" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L69" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L69" s="32" t="n"/>
       <c r="M69" s="30" t="n"/>
       <c r="N69" s="23" t="inlineStr">
         <is>
@@ -5935,21 +5410,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J70" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J70" s="30" t="n"/>
       <c r="K70" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L70" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L70" s="32" t="n"/>
       <c r="M70" s="30" t="n"/>
       <c r="N70" s="23" t="inlineStr">
         <is>
@@ -6007,21 +5474,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J71" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J71" s="30" t="n"/>
       <c r="K71" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L71" s="32" t="n"/>
       <c r="M71" s="30" t="n"/>
       <c r="N71" s="23" t="inlineStr">
         <is>
@@ -6079,21 +5538,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J72" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J72" s="30" t="n"/>
       <c r="K72" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L72" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L72" s="32" t="n"/>
       <c r="M72" s="30" t="n"/>
       <c r="N72" s="23" t="inlineStr">
         <is>
@@ -6151,21 +5602,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J73" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J73" s="30" t="n"/>
       <c r="K73" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L73" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L73" s="32" t="n"/>
       <c r="M73" s="30" t="n"/>
       <c r="N73" s="23" t="inlineStr">
         <is>
@@ -6223,21 +5666,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J74" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J74" s="30" t="n"/>
       <c r="K74" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L74" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L74" s="32" t="n"/>
       <c r="M74" s="30" t="n"/>
       <c r="N74" s="23" t="inlineStr">
         <is>
@@ -6295,21 +5730,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J75" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J75" s="30" t="n"/>
       <c r="K75" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L75" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L75" s="32" t="n"/>
       <c r="M75" s="30" t="n"/>
       <c r="N75" s="23" t="inlineStr">
         <is>
@@ -6355,11 +5782,7 @@
       <c r="E76" s="23" t="n">
         <v>1412</v>
       </c>
-      <c r="F76" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F76" s="30" t="n"/>
       <c r="G76" s="31" t="n"/>
       <c r="H76" s="23" t="inlineStr">
         <is>
@@ -6381,11 +5804,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L76" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L76" s="32" t="n"/>
       <c r="M76" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6455,21 +5874,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J77" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J77" s="30" t="n"/>
       <c r="K77" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L77" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L77" s="32" t="n"/>
       <c r="M77" s="30" t="n"/>
       <c r="N77" s="23" t="inlineStr">
         <is>
@@ -6527,21 +5938,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J78" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J78" s="30" t="n"/>
       <c r="K78" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L78" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L78" s="32" t="n"/>
       <c r="M78" s="30" t="n"/>
       <c r="N78" s="23" t="inlineStr">
         <is>
@@ -6599,21 +6002,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J79" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J79" s="30" t="n"/>
       <c r="K79" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L79" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L79" s="32" t="n"/>
       <c r="M79" s="30" t="n"/>
       <c r="N79" s="23" t="inlineStr">
         <is>
@@ -6671,21 +6066,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J80" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J80" s="30" t="n"/>
       <c r="K80" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L80" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L80" s="32" t="n"/>
       <c r="M80" s="30" t="n"/>
       <c r="N80" s="23" t="inlineStr">
         <is>
@@ -6743,21 +6130,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J81" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J81" s="30" t="n"/>
       <c r="K81" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L81" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L81" s="32" t="n"/>
       <c r="M81" s="30" t="n"/>
       <c r="N81" s="23" t="inlineStr">
         <is>
@@ -6803,11 +6182,7 @@
       <c r="E82" s="23" t="n">
         <v>1436</v>
       </c>
-      <c r="F82" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F82" s="30" t="n"/>
       <c r="G82" s="31" t="n"/>
       <c r="H82" s="23" t="inlineStr">
         <is>
@@ -6829,11 +6204,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L82" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L82" s="32" t="n"/>
       <c r="M82" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -6905,21 +6276,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J83" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J83" s="30" t="n"/>
       <c r="K83" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L83" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L83" s="32" t="n"/>
       <c r="M83" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -6989,21 +6352,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J84" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J84" s="30" t="n"/>
       <c r="K84" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L84" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L84" s="32" t="n"/>
       <c r="M84" s="30" t="n"/>
       <c r="N84" s="23" t="inlineStr">
         <is>
@@ -7049,11 +6404,7 @@
       <c r="E85" s="23" t="n">
         <v>1435</v>
       </c>
-      <c r="F85" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F85" s="30" t="n"/>
       <c r="G85" s="31" t="n"/>
       <c r="H85" s="23" t="inlineStr">
         <is>
@@ -7075,11 +6426,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L85" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L85" s="32" t="n"/>
       <c r="M85" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -7149,21 +6496,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J86" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J86" s="30" t="n"/>
       <c r="K86" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L86" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L86" s="32" t="n"/>
       <c r="M86" s="30" t="n"/>
       <c r="N86" s="23" t="inlineStr">
         <is>
@@ -7221,21 +6560,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J87" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J87" s="30" t="n"/>
       <c r="K87" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L87" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L87" s="32" t="n"/>
       <c r="M87" s="30" t="n"/>
       <c r="N87" s="23" t="inlineStr">
         <is>
@@ -7293,21 +6624,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J88" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J88" s="30" t="n"/>
       <c r="K88" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L88" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L88" s="32" t="n"/>
       <c r="M88" s="30" t="n"/>
       <c r="N88" s="23" t="inlineStr">
         <is>
@@ -7365,21 +6688,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J89" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J89" s="30" t="n"/>
       <c r="K89" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L89" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L89" s="32" t="n"/>
       <c r="M89" s="30" t="n"/>
       <c r="N89" s="23" t="inlineStr">
         <is>
@@ -7439,21 +6754,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J90" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J90" s="30" t="n"/>
       <c r="K90" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L90" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L90" s="32" t="n"/>
       <c r="M90" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -7523,21 +6830,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J91" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J91" s="30" t="n"/>
       <c r="K91" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L91" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L91" s="32" t="n"/>
       <c r="M91" s="30" t="n"/>
       <c r="N91" s="23" t="inlineStr">
         <is>
@@ -7595,21 +6894,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J92" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J92" s="30" t="n"/>
       <c r="K92" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L92" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L92" s="32" t="n"/>
       <c r="M92" s="30" t="n"/>
       <c r="N92" s="23" t="inlineStr">
         <is>
@@ -7667,21 +6958,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J93" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J93" s="30" t="n"/>
       <c r="K93" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L93" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L93" s="32" t="n"/>
       <c r="M93" s="30" t="n"/>
       <c r="N93" s="23" t="inlineStr">
         <is>
@@ -7739,21 +7022,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J94" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J94" s="30" t="n"/>
       <c r="K94" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L94" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L94" s="32" t="n"/>
       <c r="M94" s="30" t="n"/>
       <c r="N94" s="23" t="inlineStr">
         <is>
@@ -7811,21 +7086,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J95" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J95" s="30" t="n"/>
       <c r="K95" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L95" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L95" s="32" t="n"/>
       <c r="M95" s="30" t="n"/>
       <c r="N95" s="23" t="inlineStr">
         <is>
@@ -7883,21 +7150,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J96" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J96" s="30" t="n"/>
       <c r="K96" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L96" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L96" s="32" t="n"/>
       <c r="M96" s="30" t="n"/>
       <c r="N96" s="23" t="inlineStr">
         <is>
@@ -7955,21 +7214,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J97" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J97" s="30" t="n"/>
       <c r="K97" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L97" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L97" s="32" t="n"/>
       <c r="M97" s="30" t="n"/>
       <c r="N97" s="23" t="inlineStr">
         <is>
@@ -8029,21 +7280,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J98" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J98" s="30" t="n"/>
       <c r="K98" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L98" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L98" s="32" t="n"/>
       <c r="M98" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -8101,11 +7344,7 @@
       <c r="E99" s="23" t="n">
         <v>1515</v>
       </c>
-      <c r="F99" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F99" s="30" t="n"/>
       <c r="G99" s="31" t="n"/>
       <c r="H99" s="23" t="inlineStr">
         <is>
@@ -8127,11 +7366,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L99" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L99" s="32" t="n"/>
       <c r="M99" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8201,21 +7436,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J100" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J100" s="30" t="n"/>
       <c r="K100" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L100" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L100" s="32" t="n"/>
       <c r="M100" s="30" t="n"/>
       <c r="N100" s="23" t="inlineStr">
         <is>
@@ -8261,11 +7488,7 @@
       <c r="E101" s="23" t="n">
         <v>1582</v>
       </c>
-      <c r="F101" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F101" s="30" t="n"/>
       <c r="G101" s="31" t="n"/>
       <c r="H101" s="23" t="inlineStr">
         <is>
@@ -8287,11 +7510,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L101" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L101" s="32" t="n"/>
       <c r="M101" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8363,21 +7582,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J102" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J102" s="30" t="n"/>
       <c r="K102" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L102" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L102" s="32" t="n"/>
       <c r="M102" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -8447,21 +7658,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J103" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J103" s="30" t="n"/>
       <c r="K103" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L103" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L103" s="32" t="n"/>
       <c r="M103" s="30" t="n"/>
       <c r="N103" s="23" t="inlineStr">
         <is>
@@ -8507,11 +7710,7 @@
       <c r="E104" s="23" t="n">
         <v>1593</v>
       </c>
-      <c r="F104" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F104" s="30" t="n"/>
       <c r="G104" s="31" t="n"/>
       <c r="H104" s="23" t="inlineStr">
         <is>
@@ -8533,11 +7732,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L104" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L104" s="32" t="n"/>
       <c r="M104" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -8607,21 +7802,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J105" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J105" s="30" t="n"/>
       <c r="K105" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L105" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L105" s="32" t="n"/>
       <c r="M105" s="30" t="n"/>
       <c r="N105" s="23" t="inlineStr">
         <is>
@@ -8679,21 +7866,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J106" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J106" s="30" t="n"/>
       <c r="K106" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L106" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L106" s="32" t="n"/>
       <c r="M106" s="30" t="n"/>
       <c r="N106" s="23" t="inlineStr">
         <is>
@@ -8751,21 +7930,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J107" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J107" s="30" t="n"/>
       <c r="K107" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L107" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L107" s="32" t="n"/>
       <c r="M107" s="30" t="n"/>
       <c r="N107" s="23" t="inlineStr">
         <is>
@@ -8823,21 +7994,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J108" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J108" s="30" t="n"/>
       <c r="K108" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L108" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L108" s="32" t="n"/>
       <c r="M108" s="30" t="n"/>
       <c r="N108" s="23" t="inlineStr">
         <is>
@@ -8895,21 +8058,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J109" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J109" s="30" t="n"/>
       <c r="K109" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L109" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L109" s="32" t="n"/>
       <c r="M109" s="30" t="n"/>
       <c r="N109" s="23" t="inlineStr">
         <is>
@@ -8969,21 +8124,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J110" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J110" s="30" t="n"/>
       <c r="K110" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L110" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L110" s="32" t="n"/>
       <c r="M110" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -9053,21 +8200,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J111" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J111" s="30" t="n"/>
       <c r="K111" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L111" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L111" s="32" t="n"/>
       <c r="M111" s="30" t="n"/>
       <c r="N111" s="23" t="inlineStr">
         <is>
@@ -9125,21 +8264,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J112" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J112" s="30" t="n"/>
       <c r="K112" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L112" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L112" s="32" t="n"/>
       <c r="M112" s="30" t="n"/>
       <c r="N112" s="23" t="inlineStr">
         <is>
@@ -9185,11 +8316,7 @@
       <c r="E113" s="23" t="n">
         <v>1623</v>
       </c>
-      <c r="F113" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F113" s="30" t="n"/>
       <c r="G113" s="31" t="n"/>
       <c r="H113" s="23" t="inlineStr">
         <is>
@@ -9211,11 +8338,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L113" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L113" s="32" t="n"/>
       <c r="M113" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9287,21 +8410,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J114" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J114" s="30" t="n"/>
       <c r="K114" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L114" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L114" s="32" t="n"/>
       <c r="M114" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -9371,21 +8486,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J115" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J115" s="30" t="n"/>
       <c r="K115" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L115" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L115" s="32" t="n"/>
       <c r="M115" s="30" t="n"/>
       <c r="N115" s="23" t="inlineStr">
         <is>
@@ -9443,21 +8550,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J116" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J116" s="30" t="n"/>
       <c r="K116" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L116" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L116" s="32" t="n"/>
       <c r="M116" s="30" t="n"/>
       <c r="N116" s="23" t="inlineStr">
         <is>
@@ -9515,21 +8614,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J117" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J117" s="30" t="n"/>
       <c r="K117" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L117" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L117" s="32" t="n"/>
       <c r="M117" s="30" t="n"/>
       <c r="N117" s="23" t="inlineStr">
         <is>
@@ -9575,11 +8666,7 @@
       <c r="E118" s="23" t="n">
         <v>1668</v>
       </c>
-      <c r="F118" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F118" s="30" t="n"/>
       <c r="G118" s="31" t="n"/>
       <c r="H118" s="23" t="inlineStr">
         <is>
@@ -9601,11 +8688,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L118" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L118" s="32" t="n"/>
       <c r="M118" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9663,11 +8746,7 @@
       <c r="E119" s="23" t="n">
         <v>1667</v>
       </c>
-      <c r="F119" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F119" s="30" t="n"/>
       <c r="G119" s="31" t="n"/>
       <c r="H119" s="23" t="inlineStr">
         <is>
@@ -9689,11 +8768,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L119" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L119" s="32" t="n"/>
       <c r="M119" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9765,21 +8840,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J120" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J120" s="30" t="n"/>
       <c r="K120" s="3" t="inlineStr">
         <is>
           <t>Склад № 4</t>
         </is>
       </c>
-      <c r="L120" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L120" s="32" t="n"/>
       <c r="M120" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Третья Компания"</t>
@@ -9837,11 +8904,7 @@
       <c r="E121" s="23" t="n">
         <v>1714</v>
       </c>
-      <c r="F121" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F121" s="30" t="n"/>
       <c r="G121" s="31" t="n"/>
       <c r="H121" s="23" t="inlineStr">
         <is>
@@ -9863,11 +8926,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L121" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L121" s="32" t="n"/>
       <c r="M121" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -9925,11 +8984,7 @@
       <c r="E122" s="23" t="n">
         <v>1713</v>
       </c>
-      <c r="F122" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F122" s="30" t="n"/>
       <c r="G122" s="31" t="n"/>
       <c r="H122" s="23" t="inlineStr">
         <is>
@@ -9951,11 +9006,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L122" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L122" s="32" t="n"/>
       <c r="M122" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10013,11 +9064,7 @@
       <c r="E123" s="23" t="n">
         <v>1806</v>
       </c>
-      <c r="F123" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F123" s="30" t="n"/>
       <c r="G123" s="31" t="n"/>
       <c r="H123" s="23" t="inlineStr">
         <is>
@@ -10039,11 +9086,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L123" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L123" s="32" t="n"/>
       <c r="M123" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -10113,21 +9156,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J124" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J124" s="30" t="n"/>
       <c r="K124" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L124" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L124" s="32" t="n"/>
       <c r="M124" s="30" t="n"/>
       <c r="N124" s="23" t="inlineStr">
         <is>
@@ -10185,21 +9220,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J125" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J125" s="30" t="n"/>
       <c r="K125" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L125" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L125" s="32" t="n"/>
       <c r="M125" s="30" t="n"/>
       <c r="N125" s="23" t="inlineStr">
         <is>
@@ -10257,21 +9284,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J126" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J126" s="30" t="n"/>
       <c r="K126" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L126" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L126" s="32" t="n"/>
       <c r="M126" s="30" t="n"/>
       <c r="N126" s="23" t="inlineStr">
         <is>
@@ -10329,21 +9348,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J127" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J127" s="30" t="n"/>
       <c r="K127" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L127" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L127" s="32" t="n"/>
       <c r="M127" s="30" t="n"/>
       <c r="N127" s="23" t="inlineStr">
         <is>
@@ -10401,21 +9412,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J128" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J128" s="30" t="n"/>
       <c r="K128" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L128" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L128" s="32" t="n"/>
       <c r="M128" s="30" t="n"/>
       <c r="N128" s="23" t="inlineStr">
         <is>
@@ -10473,21 +9476,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J129" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J129" s="30" t="n"/>
       <c r="K129" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L129" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L129" s="32" t="n"/>
       <c r="M129" s="30" t="n"/>
       <c r="N129" s="23" t="inlineStr">
         <is>
@@ -10547,21 +9542,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J130" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J130" s="30" t="n"/>
       <c r="K130" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L130" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L130" s="32" t="n"/>
       <c r="M130" s="30" t="n"/>
       <c r="N130" s="23" t="inlineStr">
         <is>
@@ -10623,21 +9610,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J131" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J131" s="30" t="n"/>
       <c r="K131" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L131" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L131" s="32" t="n"/>
       <c r="M131" s="30" t="n"/>
       <c r="N131" s="23" t="inlineStr">
         <is>
@@ -10695,21 +9674,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J132" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J132" s="30" t="n"/>
       <c r="K132" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L132" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L132" s="32" t="n"/>
       <c r="M132" s="30" t="n"/>
       <c r="N132" s="23" t="inlineStr">
         <is>
@@ -10767,21 +9738,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J133" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J133" s="30" t="n"/>
       <c r="K133" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L133" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L133" s="32" t="n"/>
       <c r="M133" s="30" t="n"/>
       <c r="N133" s="23" t="inlineStr">
         <is>
@@ -10839,21 +9802,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J134" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J134" s="30" t="n"/>
       <c r="K134" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L134" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L134" s="32" t="n"/>
       <c r="M134" s="30" t="n"/>
       <c r="N134" s="23" t="inlineStr">
         <is>
@@ -10913,21 +9868,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J135" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J135" s="30" t="n"/>
       <c r="K135" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L135" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L135" s="32" t="n"/>
       <c r="M135" s="30" t="n"/>
       <c r="N135" s="23" t="inlineStr">
         <is>
@@ -10977,11 +9924,7 @@
       <c r="E136" s="23" t="n">
         <v>1888</v>
       </c>
-      <c r="F136" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F136" s="30" t="n"/>
       <c r="G136" s="31" t="n"/>
       <c r="H136" s="23" t="inlineStr">
         <is>
@@ -11003,11 +9946,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L136" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L136" s="32" t="n"/>
       <c r="M136" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -11077,21 +10016,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J137" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J137" s="30" t="n"/>
       <c r="K137" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L137" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L137" s="32" t="n"/>
       <c r="M137" s="30" t="n"/>
       <c r="N137" s="23" t="inlineStr">
         <is>
@@ -11151,21 +10082,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J138" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J138" s="30" t="n"/>
       <c r="K138" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L138" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L138" s="32" t="n"/>
       <c r="M138" s="30" t="n"/>
       <c r="N138" s="23" t="inlineStr">
         <is>
@@ -11227,21 +10150,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J139" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J139" s="30" t="n"/>
       <c r="K139" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L139" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L139" s="32" t="n"/>
       <c r="M139" s="30" t="n"/>
       <c r="N139" s="23" t="inlineStr">
         <is>
@@ -11299,21 +10214,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J140" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J140" s="30" t="n"/>
       <c r="K140" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L140" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L140" s="32" t="n"/>
       <c r="M140" s="30" t="n"/>
       <c r="N140" s="23" t="inlineStr">
         <is>
@@ -11371,21 +10278,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J141" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J141" s="30" t="n"/>
       <c r="K141" s="3" t="inlineStr">
         <is>
           <t>Склад № 2</t>
         </is>
       </c>
-      <c r="L141" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L141" s="32" t="n"/>
       <c r="M141" s="30" t="n"/>
       <c r="N141" s="23" t="inlineStr">
         <is>
@@ -11445,21 +10344,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J142" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J142" s="30" t="n"/>
       <c r="K142" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L142" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L142" s="32" t="n"/>
       <c r="M142" s="30" t="n"/>
       <c r="N142" s="23" t="inlineStr">
         <is>
@@ -11523,21 +10414,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J143" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J143" s="30" t="n"/>
       <c r="K143" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L143" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L143" s="32" t="n"/>
       <c r="M143" s="30" t="n"/>
       <c r="N143" s="23" t="inlineStr">
         <is>
@@ -11601,21 +10484,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J144" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J144" s="30" t="n"/>
       <c r="K144" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L144" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L144" s="32" t="n"/>
       <c r="M144" s="30" t="n"/>
       <c r="N144" s="23" t="inlineStr">
         <is>
@@ -11679,21 +10554,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J145" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J145" s="30" t="n"/>
       <c r="K145" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L145" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L145" s="32" t="n"/>
       <c r="M145" s="30" t="n"/>
       <c r="N145" s="23" t="inlineStr">
         <is>
@@ -11757,21 +10624,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J146" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J146" s="30" t="n"/>
       <c r="K146" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L146" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L146" s="32" t="n"/>
       <c r="M146" s="30" t="n"/>
       <c r="N146" s="23" t="inlineStr">
         <is>
@@ -11835,21 +10694,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J147" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J147" s="30" t="n"/>
       <c r="K147" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L147" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L147" s="32" t="n"/>
       <c r="M147" s="30" t="n"/>
       <c r="N147" s="23" t="inlineStr">
         <is>
@@ -11913,21 +10764,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J148" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J148" s="30" t="n"/>
       <c r="K148" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L148" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L148" s="32" t="n"/>
       <c r="M148" s="30" t="n"/>
       <c r="N148" s="23" t="inlineStr">
         <is>
@@ -11977,11 +10820,7 @@
       <c r="E149" s="23" t="n">
         <v>1977</v>
       </c>
-      <c r="F149" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F149" s="30" t="n"/>
       <c r="G149" s="31" t="n"/>
       <c r="H149" s="23" t="inlineStr">
         <is>
@@ -12003,11 +10842,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L149" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L149" s="32" t="n"/>
       <c r="M149" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -12079,21 +10914,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J150" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J150" s="30" t="n"/>
       <c r="K150" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L150" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L150" s="32" t="n"/>
       <c r="M150" s="30" t="n"/>
       <c r="N150" s="23" t="inlineStr">
         <is>
@@ -12157,21 +10984,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J151" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J151" s="30" t="n"/>
       <c r="K151" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L151" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L151" s="32" t="n"/>
       <c r="M151" s="30" t="n"/>
       <c r="N151" s="23" t="inlineStr">
         <is>
@@ -12235,21 +11054,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J152" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J152" s="30" t="n"/>
       <c r="K152" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L152" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L152" s="32" t="n"/>
       <c r="M152" s="30" t="n"/>
       <c r="N152" s="23" t="inlineStr">
         <is>
@@ -12313,21 +11124,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J153" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J153" s="30" t="n"/>
       <c r="K153" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L153" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L153" s="32" t="n"/>
       <c r="M153" s="30" t="n"/>
       <c r="N153" s="23" t="inlineStr">
         <is>
@@ -12391,21 +11194,13 @@
           <t>перевалка</t>
         </is>
       </c>
-      <c r="J154" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="J154" s="30" t="n"/>
       <c r="K154" s="3" t="inlineStr">
         <is>
           <t>Склад № 1</t>
         </is>
       </c>
-      <c r="L154" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L154" s="32" t="n"/>
       <c r="M154" s="30" t="n"/>
       <c r="N154" s="23" t="inlineStr">
         <is>
@@ -12455,11 +11250,7 @@
       <c r="E155" s="23" t="n">
         <v>1984</v>
       </c>
-      <c r="F155" s="23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F155" s="30" t="n"/>
       <c r="G155" s="31" t="n"/>
       <c r="H155" s="23" t="inlineStr">
         <is>
@@ -12481,11 +11272,7 @@
           <t>ООО "Вторая Наша Компания"</t>
         </is>
       </c>
-      <c r="L155" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L155" s="32" t="n"/>
       <c r="M155" s="23" t="inlineStr">
         <is>
           <t>ООО "Наша Компания"</t>
@@ -34506,7 +33293,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
